--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q628"/>
+  <dimension ref="A1:R629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8738,6 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8791,6 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8844,6 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8897,6 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8950,6 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9003,6 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9056,6 +9541,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9109,6 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9162,6 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9215,6 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9268,6 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9321,6 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9374,6 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9427,6 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9480,6 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9533,6 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9586,6 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9639,6 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9692,6 +10213,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9745,6 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9798,6 +10325,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9851,6 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9904,6 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9957,6 +10493,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10010,6 +10549,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10063,6 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10116,6 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10169,6 +10717,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10222,6 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10275,6 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10328,6 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10381,6 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10434,6 +10997,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10487,6 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10540,6 +11109,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10593,6 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10646,6 +11221,9 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10699,6 +11277,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10752,6 +11333,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10805,6 +11389,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10858,6 +11445,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10911,6 +11501,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10964,6 +11557,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11017,6 +11613,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11070,6 +11669,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11123,6 +11725,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11176,6 +11781,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11229,6 +11837,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11282,6 +11893,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11335,6 +11949,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11388,6 +12005,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -11441,6 +12061,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -11494,6 +12117,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11547,6 +12173,9 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11600,6 +12229,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11653,6 +12285,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11706,6 +12341,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11759,6 +12397,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11812,6 +12453,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11865,6 +12509,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11918,6 +12565,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11971,6 +12621,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12024,6 +12677,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12077,6 +12733,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12130,6 +12789,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12183,6 +12845,9 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12236,6 +12901,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12289,6 +12957,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -12342,6 +13013,9 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -12395,6 +13069,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -12448,6 +13125,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12501,6 +13181,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12554,6 +13237,9 @@
       <c r="Q228" t="n">
         <v>1</v>
       </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -12607,6 +13293,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -12660,6 +13349,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12713,6 +13405,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12766,6 +13461,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12819,6 +13517,9 @@
       <c r="Q233" t="n">
         <v>0</v>
       </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12872,6 +13573,9 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12925,6 +13629,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12978,6 +13685,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -13031,6 +13741,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -13084,6 +13797,9 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -13137,6 +13853,9 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -13190,6 +13909,9 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -13243,6 +13965,9 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -13296,6 +14021,9 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -13349,6 +14077,9 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -13402,6 +14133,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -13455,6 +14189,9 @@
       <c r="Q245" t="n">
         <v>0</v>
       </c>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -13508,6 +14245,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -13561,6 +14301,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -13614,6 +14357,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -13667,6 +14413,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -13720,6 +14469,9 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -13773,6 +14525,9 @@
       <c r="Q251" t="n">
         <v>0</v>
       </c>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -13826,6 +14581,9 @@
       <c r="Q252" t="n">
         <v>0</v>
       </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -13879,6 +14637,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -13932,6 +14693,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -13985,6 +14749,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -14038,6 +14805,9 @@
       <c r="Q256" t="n">
         <v>0</v>
       </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -14091,6 +14861,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -14144,6 +14917,9 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -14197,6 +14973,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -14250,6 +15029,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -14303,6 +15085,9 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -14356,6 +15141,9 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -14409,6 +15197,9 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -14462,6 +15253,9 @@
       <c r="Q264" t="n">
         <v>0</v>
       </c>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -14515,6 +15309,9 @@
       <c r="Q265" t="n">
         <v>0</v>
       </c>
+      <c r="R265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -14568,6 +15365,9 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -14621,6 +15421,9 @@
       <c r="Q267" t="n">
         <v>0</v>
       </c>
+      <c r="R267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -14674,6 +15477,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -14727,6 +15533,9 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -14780,6 +15589,9 @@
       <c r="Q270" t="n">
         <v>0</v>
       </c>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -14833,6 +15645,9 @@
       <c r="Q271" t="n">
         <v>0</v>
       </c>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -14886,6 +15701,9 @@
       <c r="Q272" t="n">
         <v>0</v>
       </c>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -14939,6 +15757,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -14992,6 +15813,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -15045,6 +15869,9 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -15098,6 +15925,9 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -15151,6 +15981,9 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -15204,6 +16037,9 @@
       <c r="Q278" t="n">
         <v>0</v>
       </c>
+      <c r="R278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -15257,6 +16093,9 @@
       <c r="Q279" t="n">
         <v>0</v>
       </c>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -15310,6 +16149,9 @@
       <c r="Q280" t="n">
         <v>0</v>
       </c>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -15363,6 +16205,9 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
+      <c r="R281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -15416,6 +16261,9 @@
       <c r="Q282" t="n">
         <v>0</v>
       </c>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -15469,6 +16317,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
+      <c r="R283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -15522,6 +16373,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
+      <c r="R284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -15575,6 +16429,9 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -15628,6 +16485,9 @@
       <c r="Q286" t="n">
         <v>0</v>
       </c>
+      <c r="R286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -15681,6 +16541,9 @@
       <c r="Q287" t="n">
         <v>0</v>
       </c>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -15734,6 +16597,9 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -15787,6 +16653,9 @@
       <c r="Q289" t="n">
         <v>0</v>
       </c>
+      <c r="R289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -15840,6 +16709,9 @@
       <c r="Q290" t="n">
         <v>0</v>
       </c>
+      <c r="R290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -15893,6 +16765,9 @@
       <c r="Q291" t="n">
         <v>0</v>
       </c>
+      <c r="R291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -15946,6 +16821,9 @@
       <c r="Q292" t="n">
         <v>0</v>
       </c>
+      <c r="R292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -15999,6 +16877,9 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
+      <c r="R293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -16052,6 +16933,9 @@
       <c r="Q294" t="n">
         <v>0</v>
       </c>
+      <c r="R294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -16105,6 +16989,9 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
+      <c r="R295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -16158,6 +17045,9 @@
       <c r="Q296" t="n">
         <v>0</v>
       </c>
+      <c r="R296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -16211,6 +17101,9 @@
       <c r="Q297" t="n">
         <v>0</v>
       </c>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -16264,6 +17157,9 @@
       <c r="Q298" t="n">
         <v>0</v>
       </c>
+      <c r="R298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -16317,6 +17213,9 @@
       <c r="Q299" t="n">
         <v>0</v>
       </c>
+      <c r="R299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -16370,6 +17269,9 @@
       <c r="Q300" t="n">
         <v>0</v>
       </c>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -16423,6 +17325,9 @@
       <c r="Q301" t="n">
         <v>0</v>
       </c>
+      <c r="R301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -16476,6 +17381,9 @@
       <c r="Q302" t="n">
         <v>0</v>
       </c>
+      <c r="R302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -16529,6 +17437,9 @@
       <c r="Q303" t="n">
         <v>0</v>
       </c>
+      <c r="R303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -16582,6 +17493,9 @@
       <c r="Q304" t="n">
         <v>0</v>
       </c>
+      <c r="R304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -16635,6 +17549,9 @@
       <c r="Q305" t="n">
         <v>0</v>
       </c>
+      <c r="R305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -16688,6 +17605,9 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
+      <c r="R306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -16741,6 +17661,9 @@
       <c r="Q307" t="n">
         <v>0</v>
       </c>
+      <c r="R307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -16794,6 +17717,9 @@
       <c r="Q308" t="n">
         <v>0</v>
       </c>
+      <c r="R308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -16847,6 +17773,9 @@
       <c r="Q309" t="n">
         <v>0</v>
       </c>
+      <c r="R309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -16900,6 +17829,9 @@
       <c r="Q310" t="n">
         <v>0</v>
       </c>
+      <c r="R310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -16953,6 +17885,9 @@
       <c r="Q311" t="n">
         <v>0</v>
       </c>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -17006,6 +17941,9 @@
       <c r="Q312" t="n">
         <v>0</v>
       </c>
+      <c r="R312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -17059,6 +17997,9 @@
       <c r="Q313" t="n">
         <v>0</v>
       </c>
+      <c r="R313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -17112,6 +18053,9 @@
       <c r="Q314" t="n">
         <v>0</v>
       </c>
+      <c r="R314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -17165,6 +18109,9 @@
       <c r="Q315" t="n">
         <v>0</v>
       </c>
+      <c r="R315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -17218,6 +18165,9 @@
       <c r="Q316" t="n">
         <v>0</v>
       </c>
+      <c r="R316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -17271,6 +18221,9 @@
       <c r="Q317" t="n">
         <v>0</v>
       </c>
+      <c r="R317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -17324,6 +18277,9 @@
       <c r="Q318" t="n">
         <v>0</v>
       </c>
+      <c r="R318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -17377,6 +18333,9 @@
       <c r="Q319" t="n">
         <v>0</v>
       </c>
+      <c r="R319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -17430,6 +18389,9 @@
       <c r="Q320" t="n">
         <v>0</v>
       </c>
+      <c r="R320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -17483,6 +18445,9 @@
       <c r="Q321" t="n">
         <v>0</v>
       </c>
+      <c r="R321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -17536,6 +18501,9 @@
       <c r="Q322" t="n">
         <v>0</v>
       </c>
+      <c r="R322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -17589,6 +18557,9 @@
       <c r="Q323" t="n">
         <v>0</v>
       </c>
+      <c r="R323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -17642,6 +18613,9 @@
       <c r="Q324" t="n">
         <v>0</v>
       </c>
+      <c r="R324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -17695,6 +18669,9 @@
       <c r="Q325" t="n">
         <v>0</v>
       </c>
+      <c r="R325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -17748,6 +18725,9 @@
       <c r="Q326" t="n">
         <v>0</v>
       </c>
+      <c r="R326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -17801,6 +18781,9 @@
       <c r="Q327" t="n">
         <v>0</v>
       </c>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -17854,6 +18837,9 @@
       <c r="Q328" t="n">
         <v>0</v>
       </c>
+      <c r="R328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -17907,6 +18893,9 @@
       <c r="Q329" t="n">
         <v>0</v>
       </c>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -17960,6 +18949,9 @@
       <c r="Q330" t="n">
         <v>0</v>
       </c>
+      <c r="R330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -18013,6 +19005,9 @@
       <c r="Q331" t="n">
         <v>0</v>
       </c>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -18066,6 +19061,9 @@
       <c r="Q332" t="n">
         <v>0</v>
       </c>
+      <c r="R332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -18119,6 +19117,9 @@
       <c r="Q333" t="n">
         <v>0</v>
       </c>
+      <c r="R333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -18172,6 +19173,9 @@
       <c r="Q334" t="n">
         <v>0</v>
       </c>
+      <c r="R334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -18225,6 +19229,9 @@
       <c r="Q335" t="n">
         <v>0</v>
       </c>
+      <c r="R335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -18278,6 +19285,9 @@
       <c r="Q336" t="n">
         <v>0</v>
       </c>
+      <c r="R336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -18331,6 +19341,9 @@
       <c r="Q337" t="n">
         <v>0</v>
       </c>
+      <c r="R337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -18384,6 +19397,9 @@
       <c r="Q338" t="n">
         <v>0</v>
       </c>
+      <c r="R338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -18437,6 +19453,9 @@
       <c r="Q339" t="n">
         <v>0</v>
       </c>
+      <c r="R339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -18490,6 +19509,9 @@
       <c r="Q340" t="n">
         <v>0</v>
       </c>
+      <c r="R340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -18543,6 +19565,9 @@
       <c r="Q341" t="n">
         <v>0</v>
       </c>
+      <c r="R341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -18596,6 +19621,9 @@
       <c r="Q342" t="n">
         <v>0</v>
       </c>
+      <c r="R342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -18649,6 +19677,9 @@
       <c r="Q343" t="n">
         <v>0</v>
       </c>
+      <c r="R343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -18702,6 +19733,9 @@
       <c r="Q344" t="n">
         <v>0</v>
       </c>
+      <c r="R344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -18755,6 +19789,9 @@
       <c r="Q345" t="n">
         <v>0</v>
       </c>
+      <c r="R345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -18808,6 +19845,9 @@
       <c r="Q346" t="n">
         <v>0</v>
       </c>
+      <c r="R346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -18861,6 +19901,9 @@
       <c r="Q347" t="n">
         <v>0</v>
       </c>
+      <c r="R347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -18914,6 +19957,9 @@
       <c r="Q348" t="n">
         <v>0</v>
       </c>
+      <c r="R348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -18967,6 +20013,9 @@
       <c r="Q349" t="n">
         <v>0</v>
       </c>
+      <c r="R349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -19020,6 +20069,9 @@
       <c r="Q350" t="n">
         <v>0</v>
       </c>
+      <c r="R350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -19073,6 +20125,9 @@
       <c r="Q351" t="n">
         <v>0</v>
       </c>
+      <c r="R351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -19126,6 +20181,9 @@
       <c r="Q352" t="n">
         <v>0</v>
       </c>
+      <c r="R352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -19179,6 +20237,9 @@
       <c r="Q353" t="n">
         <v>0</v>
       </c>
+      <c r="R353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -19232,6 +20293,9 @@
       <c r="Q354" t="n">
         <v>0</v>
       </c>
+      <c r="R354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -19285,6 +20349,9 @@
       <c r="Q355" t="n">
         <v>0</v>
       </c>
+      <c r="R355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -19338,6 +20405,9 @@
       <c r="Q356" t="n">
         <v>0</v>
       </c>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -19391,6 +20461,9 @@
       <c r="Q357" t="n">
         <v>0</v>
       </c>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -19444,6 +20517,9 @@
       <c r="Q358" t="n">
         <v>0</v>
       </c>
+      <c r="R358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -19497,6 +20573,9 @@
       <c r="Q359" t="n">
         <v>0</v>
       </c>
+      <c r="R359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -19550,6 +20629,9 @@
       <c r="Q360" t="n">
         <v>0</v>
       </c>
+      <c r="R360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -19603,6 +20685,9 @@
       <c r="Q361" t="n">
         <v>0</v>
       </c>
+      <c r="R361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -19656,6 +20741,9 @@
       <c r="Q362" t="n">
         <v>0</v>
       </c>
+      <c r="R362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -19709,6 +20797,9 @@
       <c r="Q363" t="n">
         <v>0</v>
       </c>
+      <c r="R363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -19762,6 +20853,9 @@
       <c r="Q364" t="n">
         <v>0</v>
       </c>
+      <c r="R364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -19815,6 +20909,9 @@
       <c r="Q365" t="n">
         <v>0</v>
       </c>
+      <c r="R365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -19868,6 +20965,9 @@
       <c r="Q366" t="n">
         <v>0</v>
       </c>
+      <c r="R366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -19921,6 +21021,9 @@
       <c r="Q367" t="n">
         <v>0</v>
       </c>
+      <c r="R367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -19974,6 +21077,9 @@
       <c r="Q368" t="n">
         <v>0</v>
       </c>
+      <c r="R368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -20027,6 +21133,9 @@
       <c r="Q369" t="n">
         <v>0</v>
       </c>
+      <c r="R369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -20080,6 +21189,9 @@
       <c r="Q370" t="n">
         <v>0</v>
       </c>
+      <c r="R370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -20133,6 +21245,9 @@
       <c r="Q371" t="n">
         <v>0</v>
       </c>
+      <c r="R371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -20186,6 +21301,9 @@
       <c r="Q372" t="n">
         <v>0</v>
       </c>
+      <c r="R372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -20239,6 +21357,9 @@
       <c r="Q373" t="n">
         <v>0</v>
       </c>
+      <c r="R373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -20292,6 +21413,9 @@
       <c r="Q374" t="n">
         <v>0</v>
       </c>
+      <c r="R374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -20345,6 +21469,9 @@
       <c r="Q375" t="n">
         <v>0</v>
       </c>
+      <c r="R375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -20398,6 +21525,9 @@
       <c r="Q376" t="n">
         <v>0</v>
       </c>
+      <c r="R376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -20451,6 +21581,9 @@
       <c r="Q377" t="n">
         <v>0</v>
       </c>
+      <c r="R377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -20504,6 +21637,9 @@
       <c r="Q378" t="n">
         <v>0</v>
       </c>
+      <c r="R378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -20557,6 +21693,9 @@
       <c r="Q379" t="n">
         <v>0</v>
       </c>
+      <c r="R379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -20610,6 +21749,9 @@
       <c r="Q380" t="n">
         <v>0</v>
       </c>
+      <c r="R380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -20663,6 +21805,9 @@
       <c r="Q381" t="n">
         <v>0</v>
       </c>
+      <c r="R381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -20716,6 +21861,9 @@
       <c r="Q382" t="n">
         <v>0</v>
       </c>
+      <c r="R382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -20769,6 +21917,9 @@
       <c r="Q383" t="n">
         <v>0</v>
       </c>
+      <c r="R383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -20822,6 +21973,9 @@
       <c r="Q384" t="n">
         <v>0</v>
       </c>
+      <c r="R384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -20875,6 +22029,9 @@
       <c r="Q385" t="n">
         <v>0</v>
       </c>
+      <c r="R385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -20928,6 +22085,9 @@
       <c r="Q386" t="n">
         <v>0</v>
       </c>
+      <c r="R386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -20981,6 +22141,9 @@
       <c r="Q387" t="n">
         <v>0</v>
       </c>
+      <c r="R387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -21034,6 +22197,9 @@
       <c r="Q388" t="n">
         <v>0</v>
       </c>
+      <c r="R388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
@@ -21087,6 +22253,9 @@
       <c r="Q389" t="n">
         <v>0</v>
       </c>
+      <c r="R389" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
@@ -21140,6 +22309,9 @@
       <c r="Q390" t="n">
         <v>0</v>
       </c>
+      <c r="R390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -21193,6 +22365,9 @@
       <c r="Q391" t="n">
         <v>0</v>
       </c>
+      <c r="R391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -21246,6 +22421,9 @@
       <c r="Q392" t="n">
         <v>0</v>
       </c>
+      <c r="R392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -21299,6 +22477,9 @@
       <c r="Q393" t="n">
         <v>0</v>
       </c>
+      <c r="R393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
@@ -21352,6 +22533,9 @@
       <c r="Q394" t="n">
         <v>0</v>
       </c>
+      <c r="R394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
@@ -21405,6 +22589,9 @@
       <c r="Q395" t="n">
         <v>0</v>
       </c>
+      <c r="R395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
@@ -21458,6 +22645,9 @@
       <c r="Q396" t="n">
         <v>0</v>
       </c>
+      <c r="R396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -21511,6 +22701,9 @@
       <c r="Q397" t="n">
         <v>0</v>
       </c>
+      <c r="R397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
@@ -21564,6 +22757,9 @@
       <c r="Q398" t="n">
         <v>0</v>
       </c>
+      <c r="R398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
@@ -21617,6 +22813,9 @@
       <c r="Q399" t="n">
         <v>0</v>
       </c>
+      <c r="R399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
@@ -21670,6 +22869,9 @@
       <c r="Q400" t="n">
         <v>0</v>
       </c>
+      <c r="R400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
@@ -21723,6 +22925,9 @@
       <c r="Q401" t="n">
         <v>0</v>
       </c>
+      <c r="R401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
@@ -21776,6 +22981,9 @@
       <c r="Q402" t="n">
         <v>0</v>
       </c>
+      <c r="R402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
@@ -21829,6 +23037,9 @@
       <c r="Q403" t="n">
         <v>0</v>
       </c>
+      <c r="R403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
@@ -21882,6 +23093,9 @@
       <c r="Q404" t="n">
         <v>0</v>
       </c>
+      <c r="R404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
@@ -21935,6 +23149,9 @@
       <c r="Q405" t="n">
         <v>0</v>
       </c>
+      <c r="R405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
@@ -21988,6 +23205,9 @@
       <c r="Q406" t="n">
         <v>0</v>
       </c>
+      <c r="R406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
@@ -22041,6 +23261,9 @@
       <c r="Q407" t="n">
         <v>0</v>
       </c>
+      <c r="R407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
@@ -22094,6 +23317,9 @@
       <c r="Q408" t="n">
         <v>0</v>
       </c>
+      <c r="R408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
@@ -22147,6 +23373,9 @@
       <c r="Q409" t="n">
         <v>0</v>
       </c>
+      <c r="R409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
@@ -22200,6 +23429,9 @@
       <c r="Q410" t="n">
         <v>0</v>
       </c>
+      <c r="R410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
@@ -22253,6 +23485,9 @@
       <c r="Q411" t="n">
         <v>0</v>
       </c>
+      <c r="R411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
@@ -22306,6 +23541,9 @@
       <c r="Q412" t="n">
         <v>0</v>
       </c>
+      <c r="R412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
@@ -22359,6 +23597,9 @@
       <c r="Q413" t="n">
         <v>0</v>
       </c>
+      <c r="R413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
@@ -22412,6 +23653,9 @@
       <c r="Q414" t="n">
         <v>0</v>
       </c>
+      <c r="R414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
@@ -22465,6 +23709,9 @@
       <c r="Q415" t="n">
         <v>0</v>
       </c>
+      <c r="R415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
@@ -22518,6 +23765,9 @@
       <c r="Q416" t="n">
         <v>0</v>
       </c>
+      <c r="R416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
@@ -22571,6 +23821,9 @@
       <c r="Q417" t="n">
         <v>0</v>
       </c>
+      <c r="R417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
@@ -22624,6 +23877,9 @@
       <c r="Q418" t="n">
         <v>0</v>
       </c>
+      <c r="R418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
@@ -22677,6 +23933,9 @@
       <c r="Q419" t="n">
         <v>0</v>
       </c>
+      <c r="R419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
@@ -22730,6 +23989,9 @@
       <c r="Q420" t="n">
         <v>0</v>
       </c>
+      <c r="R420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
@@ -22783,6 +24045,9 @@
       <c r="Q421" t="n">
         <v>0</v>
       </c>
+      <c r="R421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
@@ -22836,6 +24101,9 @@
       <c r="Q422" t="n">
         <v>0</v>
       </c>
+      <c r="R422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
@@ -22889,6 +24157,9 @@
       <c r="Q423" t="n">
         <v>0</v>
       </c>
+      <c r="R423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
@@ -22942,6 +24213,9 @@
       <c r="Q424" t="n">
         <v>0</v>
       </c>
+      <c r="R424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
@@ -22995,6 +24269,9 @@
       <c r="Q425" t="n">
         <v>0</v>
       </c>
+      <c r="R425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
@@ -23048,6 +24325,9 @@
       <c r="Q426" t="n">
         <v>0</v>
       </c>
+      <c r="R426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
@@ -23101,6 +24381,9 @@
       <c r="Q427" t="n">
         <v>0</v>
       </c>
+      <c r="R427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
@@ -23154,6 +24437,9 @@
       <c r="Q428" t="n">
         <v>0</v>
       </c>
+      <c r="R428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
@@ -23207,6 +24493,9 @@
       <c r="Q429" t="n">
         <v>0</v>
       </c>
+      <c r="R429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
@@ -23260,6 +24549,9 @@
       <c r="Q430" t="n">
         <v>0</v>
       </c>
+      <c r="R430" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
@@ -23313,6 +24605,9 @@
       <c r="Q431" t="n">
         <v>0</v>
       </c>
+      <c r="R431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
@@ -23366,6 +24661,9 @@
       <c r="Q432" t="n">
         <v>0</v>
       </c>
+      <c r="R432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
@@ -23419,6 +24717,9 @@
       <c r="Q433" t="n">
         <v>0</v>
       </c>
+      <c r="R433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
@@ -23472,6 +24773,9 @@
       <c r="Q434" t="n">
         <v>0</v>
       </c>
+      <c r="R434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
@@ -23525,6 +24829,9 @@
       <c r="Q435" t="n">
         <v>0</v>
       </c>
+      <c r="R435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
@@ -23578,6 +24885,9 @@
       <c r="Q436" t="n">
         <v>0</v>
       </c>
+      <c r="R436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
@@ -23631,6 +24941,9 @@
       <c r="Q437" t="n">
         <v>0</v>
       </c>
+      <c r="R437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
@@ -23684,6 +24997,9 @@
       <c r="Q438" t="n">
         <v>0</v>
       </c>
+      <c r="R438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
@@ -23737,6 +25053,9 @@
       <c r="Q439" t="n">
         <v>0</v>
       </c>
+      <c r="R439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
@@ -23790,6 +25109,9 @@
       <c r="Q440" t="n">
         <v>0</v>
       </c>
+      <c r="R440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
@@ -23843,6 +25165,9 @@
       <c r="Q441" t="n">
         <v>0</v>
       </c>
+      <c r="R441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
@@ -23896,6 +25221,9 @@
       <c r="Q442" t="n">
         <v>0</v>
       </c>
+      <c r="R442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
@@ -23949,6 +25277,9 @@
       <c r="Q443" t="n">
         <v>2</v>
       </c>
+      <c r="R443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
@@ -24002,6 +25333,9 @@
       <c r="Q444" t="n">
         <v>0</v>
       </c>
+      <c r="R444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
@@ -24055,6 +25389,9 @@
       <c r="Q445" t="n">
         <v>0</v>
       </c>
+      <c r="R445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
@@ -24108,6 +25445,9 @@
       <c r="Q446" t="n">
         <v>0</v>
       </c>
+      <c r="R446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
@@ -24161,6 +25501,9 @@
       <c r="Q447" t="n">
         <v>0</v>
       </c>
+      <c r="R447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
@@ -24214,6 +25557,9 @@
       <c r="Q448" t="n">
         <v>1</v>
       </c>
+      <c r="R448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
@@ -24267,6 +25613,9 @@
       <c r="Q449" t="n">
         <v>0</v>
       </c>
+      <c r="R449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
@@ -24320,6 +25669,9 @@
       <c r="Q450" t="n">
         <v>0</v>
       </c>
+      <c r="R450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
@@ -24373,6 +25725,9 @@
       <c r="Q451" t="n">
         <v>0</v>
       </c>
+      <c r="R451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
@@ -24426,6 +25781,9 @@
       <c r="Q452" t="n">
         <v>0</v>
       </c>
+      <c r="R452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
@@ -24479,6 +25837,9 @@
       <c r="Q453" t="n">
         <v>0</v>
       </c>
+      <c r="R453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
@@ -24532,6 +25893,9 @@
       <c r="Q454" t="n">
         <v>0</v>
       </c>
+      <c r="R454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
@@ -24585,6 +25949,9 @@
       <c r="Q455" t="n">
         <v>0</v>
       </c>
+      <c r="R455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
@@ -24638,6 +26005,9 @@
       <c r="Q456" t="n">
         <v>0</v>
       </c>
+      <c r="R456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
@@ -24691,6 +26061,9 @@
       <c r="Q457" t="n">
         <v>0</v>
       </c>
+      <c r="R457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
@@ -24744,6 +26117,9 @@
       <c r="Q458" t="n">
         <v>0</v>
       </c>
+      <c r="R458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
@@ -24797,6 +26173,9 @@
       <c r="Q459" t="n">
         <v>0</v>
       </c>
+      <c r="R459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
@@ -24850,6 +26229,9 @@
       <c r="Q460" t="n">
         <v>0</v>
       </c>
+      <c r="R460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
@@ -24903,6 +26285,9 @@
       <c r="Q461" t="n">
         <v>0</v>
       </c>
+      <c r="R461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
@@ -24956,6 +26341,9 @@
       <c r="Q462" t="n">
         <v>0</v>
       </c>
+      <c r="R462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
@@ -25009,6 +26397,9 @@
       <c r="Q463" t="n">
         <v>0</v>
       </c>
+      <c r="R463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
@@ -25062,6 +26453,9 @@
       <c r="Q464" t="n">
         <v>0</v>
       </c>
+      <c r="R464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
@@ -25115,6 +26509,9 @@
       <c r="Q465" t="n">
         <v>0</v>
       </c>
+      <c r="R465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
@@ -25168,6 +26565,9 @@
       <c r="Q466" t="n">
         <v>2</v>
       </c>
+      <c r="R466" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
@@ -25221,6 +26621,9 @@
       <c r="Q467" t="n">
         <v>0</v>
       </c>
+      <c r="R467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
@@ -25274,6 +26677,9 @@
       <c r="Q468" t="n">
         <v>0</v>
       </c>
+      <c r="R468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
@@ -25327,6 +26733,9 @@
       <c r="Q469" t="n">
         <v>0</v>
       </c>
+      <c r="R469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
@@ -25380,6 +26789,9 @@
       <c r="Q470" t="n">
         <v>0</v>
       </c>
+      <c r="R470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
@@ -25433,6 +26845,9 @@
       <c r="Q471" t="n">
         <v>0</v>
       </c>
+      <c r="R471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
@@ -25486,6 +26901,9 @@
       <c r="Q472" t="n">
         <v>0</v>
       </c>
+      <c r="R472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
@@ -25539,6 +26957,9 @@
       <c r="Q473" t="n">
         <v>0</v>
       </c>
+      <c r="R473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
@@ -25592,6 +27013,9 @@
       <c r="Q474" t="n">
         <v>0</v>
       </c>
+      <c r="R474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
@@ -25645,6 +27069,9 @@
       <c r="Q475" t="n">
         <v>1</v>
       </c>
+      <c r="R475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
@@ -25698,6 +27125,9 @@
       <c r="Q476" t="n">
         <v>0</v>
       </c>
+      <c r="R476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
@@ -25751,6 +27181,9 @@
       <c r="Q477" t="n">
         <v>0</v>
       </c>
+      <c r="R477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
@@ -25804,6 +27237,9 @@
       <c r="Q478" t="n">
         <v>0</v>
       </c>
+      <c r="R478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
@@ -25857,6 +27293,9 @@
       <c r="Q479" t="n">
         <v>0</v>
       </c>
+      <c r="R479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
@@ -25910,6 +27349,9 @@
       <c r="Q480" t="n">
         <v>0</v>
       </c>
+      <c r="R480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
@@ -25963,6 +27405,9 @@
       <c r="Q481" t="n">
         <v>0</v>
       </c>
+      <c r="R481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
@@ -26016,6 +27461,9 @@
       <c r="Q482" t="n">
         <v>0</v>
       </c>
+      <c r="R482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
@@ -26069,6 +27517,9 @@
       <c r="Q483" t="n">
         <v>0</v>
       </c>
+      <c r="R483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
@@ -26122,6 +27573,9 @@
       <c r="Q484" t="n">
         <v>0</v>
       </c>
+      <c r="R484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
@@ -26175,6 +27629,9 @@
       <c r="Q485" t="n">
         <v>0</v>
       </c>
+      <c r="R485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
@@ -26228,6 +27685,9 @@
       <c r="Q486" t="n">
         <v>0</v>
       </c>
+      <c r="R486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
@@ -26281,6 +27741,9 @@
       <c r="Q487" t="n">
         <v>0</v>
       </c>
+      <c r="R487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
@@ -26334,6 +27797,9 @@
       <c r="Q488" t="n">
         <v>0</v>
       </c>
+      <c r="R488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
@@ -26387,6 +27853,9 @@
       <c r="Q489" t="n">
         <v>0</v>
       </c>
+      <c r="R489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
@@ -26440,6 +27909,9 @@
       <c r="Q490" t="n">
         <v>0</v>
       </c>
+      <c r="R490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
@@ -26493,6 +27965,9 @@
       <c r="Q491" t="n">
         <v>0</v>
       </c>
+      <c r="R491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
@@ -26546,6 +28021,9 @@
       <c r="Q492" t="n">
         <v>0</v>
       </c>
+      <c r="R492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
@@ -26599,6 +28077,9 @@
       <c r="Q493" t="n">
         <v>0</v>
       </c>
+      <c r="R493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
@@ -26652,6 +28133,9 @@
       <c r="Q494" t="n">
         <v>0</v>
       </c>
+      <c r="R494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
@@ -26705,6 +28189,9 @@
       <c r="Q495" t="n">
         <v>0</v>
       </c>
+      <c r="R495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
@@ -26758,6 +28245,9 @@
       <c r="Q496" t="n">
         <v>0</v>
       </c>
+      <c r="R496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
@@ -26811,6 +28301,9 @@
       <c r="Q497" t="n">
         <v>0</v>
       </c>
+      <c r="R497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
@@ -26864,6 +28357,9 @@
       <c r="Q498" t="n">
         <v>0</v>
       </c>
+      <c r="R498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
@@ -26917,6 +28413,9 @@
       <c r="Q499" t="n">
         <v>0</v>
       </c>
+      <c r="R499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
@@ -26970,6 +28469,9 @@
       <c r="Q500" t="n">
         <v>0</v>
       </c>
+      <c r="R500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
@@ -27023,6 +28525,9 @@
       <c r="Q501" t="n">
         <v>0</v>
       </c>
+      <c r="R501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
@@ -27076,6 +28581,9 @@
       <c r="Q502" t="n">
         <v>0</v>
       </c>
+      <c r="R502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
@@ -27129,6 +28637,9 @@
       <c r="Q503" t="n">
         <v>0</v>
       </c>
+      <c r="R503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
@@ -27182,6 +28693,9 @@
       <c r="Q504" t="n">
         <v>0</v>
       </c>
+      <c r="R504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
@@ -27235,6 +28749,9 @@
       <c r="Q505" t="n">
         <v>0</v>
       </c>
+      <c r="R505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
@@ -27288,6 +28805,9 @@
       <c r="Q506" t="n">
         <v>0</v>
       </c>
+      <c r="R506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
@@ -27341,6 +28861,9 @@
       <c r="Q507" t="n">
         <v>0</v>
       </c>
+      <c r="R507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
@@ -27394,6 +28917,9 @@
       <c r="Q508" t="n">
         <v>0</v>
       </c>
+      <c r="R508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
@@ -27447,6 +28973,9 @@
       <c r="Q509" t="n">
         <v>0</v>
       </c>
+      <c r="R509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
@@ -27500,6 +29029,9 @@
       <c r="Q510" t="n">
         <v>0</v>
       </c>
+      <c r="R510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
@@ -27553,6 +29085,9 @@
       <c r="Q511" t="n">
         <v>0</v>
       </c>
+      <c r="R511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
@@ -27606,6 +29141,9 @@
       <c r="Q512" t="n">
         <v>0</v>
       </c>
+      <c r="R512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
@@ -27659,6 +29197,9 @@
       <c r="Q513" t="n">
         <v>0</v>
       </c>
+      <c r="R513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
@@ -27712,6 +29253,9 @@
       <c r="Q514" t="n">
         <v>0</v>
       </c>
+      <c r="R514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
@@ -27765,6 +29309,9 @@
       <c r="Q515" t="n">
         <v>0</v>
       </c>
+      <c r="R515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
@@ -27818,6 +29365,9 @@
       <c r="Q516" t="n">
         <v>0</v>
       </c>
+      <c r="R516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
@@ -27871,6 +29421,9 @@
       <c r="Q517" t="n">
         <v>0</v>
       </c>
+      <c r="R517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
@@ -27924,6 +29477,9 @@
       <c r="Q518" t="n">
         <v>0</v>
       </c>
+      <c r="R518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
@@ -27977,6 +29533,9 @@
       <c r="Q519" t="n">
         <v>0</v>
       </c>
+      <c r="R519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
@@ -28030,6 +29589,9 @@
       <c r="Q520" t="n">
         <v>0</v>
       </c>
+      <c r="R520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
@@ -28083,6 +29645,9 @@
       <c r="Q521" t="n">
         <v>2</v>
       </c>
+      <c r="R521" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
@@ -28136,6 +29701,9 @@
       <c r="Q522" t="n">
         <v>0</v>
       </c>
+      <c r="R522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
@@ -28189,6 +29757,9 @@
       <c r="Q523" t="n">
         <v>0</v>
       </c>
+      <c r="R523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
@@ -28242,6 +29813,9 @@
       <c r="Q524" t="n">
         <v>0</v>
       </c>
+      <c r="R524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
@@ -28295,6 +29869,9 @@
       <c r="Q525" t="n">
         <v>0</v>
       </c>
+      <c r="R525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
@@ -28348,6 +29925,9 @@
       <c r="Q526" t="n">
         <v>0</v>
       </c>
+      <c r="R526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
@@ -28401,6 +29981,9 @@
       <c r="Q527" t="n">
         <v>0</v>
       </c>
+      <c r="R527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
@@ -28454,6 +30037,9 @@
       <c r="Q528" t="n">
         <v>0</v>
       </c>
+      <c r="R528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
@@ -28507,6 +30093,9 @@
       <c r="Q529" t="n">
         <v>0</v>
       </c>
+      <c r="R529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
@@ -28560,6 +30149,9 @@
       <c r="Q530" t="n">
         <v>0</v>
       </c>
+      <c r="R530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
@@ -28613,6 +30205,9 @@
       <c r="Q531" t="n">
         <v>0</v>
       </c>
+      <c r="R531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
@@ -28666,6 +30261,9 @@
       <c r="Q532" t="n">
         <v>0</v>
       </c>
+      <c r="R532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
@@ -28719,6 +30317,9 @@
       <c r="Q533" t="n">
         <v>0</v>
       </c>
+      <c r="R533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
@@ -28772,6 +30373,9 @@
       <c r="Q534" t="n">
         <v>0</v>
       </c>
+      <c r="R534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
@@ -28825,6 +30429,9 @@
       <c r="Q535" t="n">
         <v>0</v>
       </c>
+      <c r="R535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
@@ -28878,6 +30485,9 @@
       <c r="Q536" t="n">
         <v>0</v>
       </c>
+      <c r="R536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
@@ -28931,6 +30541,9 @@
       <c r="Q537" t="n">
         <v>0</v>
       </c>
+      <c r="R537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
@@ -28984,6 +30597,9 @@
       <c r="Q538" t="n">
         <v>0</v>
       </c>
+      <c r="R538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
@@ -29037,6 +30653,9 @@
       <c r="Q539" t="n">
         <v>0</v>
       </c>
+      <c r="R539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
@@ -29090,6 +30709,9 @@
       <c r="Q540" t="n">
         <v>0</v>
       </c>
+      <c r="R540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
@@ -29143,6 +30765,9 @@
       <c r="Q541" t="n">
         <v>0</v>
       </c>
+      <c r="R541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
@@ -29196,6 +30821,9 @@
       <c r="Q542" t="n">
         <v>0</v>
       </c>
+      <c r="R542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
@@ -29249,6 +30877,9 @@
       <c r="Q543" t="n">
         <v>0</v>
       </c>
+      <c r="R543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
@@ -29302,6 +30933,9 @@
       <c r="Q544" t="n">
         <v>0</v>
       </c>
+      <c r="R544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
@@ -29355,6 +30989,9 @@
       <c r="Q545" t="n">
         <v>0</v>
       </c>
+      <c r="R545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
@@ -29408,6 +31045,9 @@
       <c r="Q546" t="n">
         <v>0</v>
       </c>
+      <c r="R546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
@@ -29461,6 +31101,9 @@
       <c r="Q547" t="n">
         <v>0</v>
       </c>
+      <c r="R547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
@@ -29514,6 +31157,9 @@
       <c r="Q548" t="n">
         <v>0</v>
       </c>
+      <c r="R548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
@@ -29567,6 +31213,9 @@
       <c r="Q549" t="n">
         <v>0</v>
       </c>
+      <c r="R549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
@@ -29620,6 +31269,9 @@
       <c r="Q550" t="n">
         <v>0</v>
       </c>
+      <c r="R550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
@@ -29673,6 +31325,9 @@
       <c r="Q551" t="n">
         <v>0</v>
       </c>
+      <c r="R551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
@@ -29726,6 +31381,9 @@
       <c r="Q552" t="n">
         <v>0</v>
       </c>
+      <c r="R552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
@@ -29779,6 +31437,9 @@
       <c r="Q553" t="n">
         <v>0</v>
       </c>
+      <c r="R553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
@@ -29832,6 +31493,9 @@
       <c r="Q554" t="n">
         <v>0</v>
       </c>
+      <c r="R554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
@@ -29885,6 +31549,9 @@
       <c r="Q555" t="n">
         <v>0</v>
       </c>
+      <c r="R555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
@@ -29938,6 +31605,9 @@
       <c r="Q556" t="n">
         <v>0</v>
       </c>
+      <c r="R556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
@@ -29991,6 +31661,9 @@
       <c r="Q557" t="n">
         <v>0</v>
       </c>
+      <c r="R557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
@@ -30044,6 +31717,9 @@
       <c r="Q558" t="n">
         <v>0</v>
       </c>
+      <c r="R558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
@@ -30097,6 +31773,9 @@
       <c r="Q559" t="n">
         <v>0</v>
       </c>
+      <c r="R559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
@@ -30150,6 +31829,9 @@
       <c r="Q560" t="n">
         <v>0</v>
       </c>
+      <c r="R560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
@@ -30203,6 +31885,9 @@
       <c r="Q561" t="n">
         <v>0</v>
       </c>
+      <c r="R561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
@@ -30256,6 +31941,9 @@
       <c r="Q562" t="n">
         <v>0</v>
       </c>
+      <c r="R562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
@@ -30309,6 +31997,9 @@
       <c r="Q563" t="n">
         <v>0</v>
       </c>
+      <c r="R563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
@@ -30362,6 +32053,9 @@
       <c r="Q564" t="n">
         <v>0</v>
       </c>
+      <c r="R564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
@@ -30415,6 +32109,9 @@
       <c r="Q565" t="n">
         <v>0</v>
       </c>
+      <c r="R565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
@@ -30468,6 +32165,9 @@
       <c r="Q566" t="n">
         <v>0</v>
       </c>
+      <c r="R566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
@@ -30521,6 +32221,9 @@
       <c r="Q567" t="n">
         <v>0</v>
       </c>
+      <c r="R567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
@@ -30574,6 +32277,9 @@
       <c r="Q568" t="n">
         <v>0</v>
       </c>
+      <c r="R568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
@@ -30627,6 +32333,9 @@
       <c r="Q569" t="n">
         <v>0</v>
       </c>
+      <c r="R569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
@@ -30680,6 +32389,9 @@
       <c r="Q570" t="n">
         <v>0</v>
       </c>
+      <c r="R570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
@@ -30733,6 +32445,9 @@
       <c r="Q571" t="n">
         <v>0</v>
       </c>
+      <c r="R571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
@@ -30786,6 +32501,9 @@
       <c r="Q572" t="n">
         <v>0</v>
       </c>
+      <c r="R572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
@@ -30839,6 +32557,9 @@
       <c r="Q573" t="n">
         <v>0</v>
       </c>
+      <c r="R573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
@@ -30892,6 +32613,9 @@
       <c r="Q574" t="n">
         <v>0</v>
       </c>
+      <c r="R574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
@@ -30945,6 +32669,9 @@
       <c r="Q575" t="n">
         <v>0</v>
       </c>
+      <c r="R575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
@@ -30998,6 +32725,9 @@
       <c r="Q576" t="n">
         <v>0</v>
       </c>
+      <c r="R576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
@@ -31051,6 +32781,9 @@
       <c r="Q577" t="n">
         <v>0</v>
       </c>
+      <c r="R577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
@@ -31104,6 +32837,9 @@
       <c r="Q578" t="n">
         <v>0</v>
       </c>
+      <c r="R578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
@@ -31157,6 +32893,9 @@
       <c r="Q579" t="n">
         <v>0</v>
       </c>
+      <c r="R579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
@@ -31210,6 +32949,9 @@
       <c r="Q580" t="n">
         <v>0</v>
       </c>
+      <c r="R580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
@@ -31263,6 +33005,9 @@
       <c r="Q581" t="n">
         <v>0</v>
       </c>
+      <c r="R581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
@@ -31316,6 +33061,9 @@
       <c r="Q582" t="n">
         <v>0</v>
       </c>
+      <c r="R582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
@@ -31369,6 +33117,9 @@
       <c r="Q583" t="n">
         <v>0</v>
       </c>
+      <c r="R583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
@@ -31422,6 +33173,9 @@
       <c r="Q584" t="n">
         <v>0</v>
       </c>
+      <c r="R584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
@@ -31475,6 +33229,9 @@
       <c r="Q585" t="n">
         <v>0</v>
       </c>
+      <c r="R585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
@@ -31528,6 +33285,9 @@
       <c r="Q586" t="n">
         <v>0</v>
       </c>
+      <c r="R586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
@@ -31581,6 +33341,9 @@
       <c r="Q587" t="n">
         <v>0</v>
       </c>
+      <c r="R587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
@@ -31634,6 +33397,9 @@
       <c r="Q588" t="n">
         <v>0</v>
       </c>
+      <c r="R588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
@@ -31687,6 +33453,9 @@
       <c r="Q589" t="n">
         <v>0</v>
       </c>
+      <c r="R589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
@@ -31740,6 +33509,9 @@
       <c r="Q590" t="n">
         <v>0</v>
       </c>
+      <c r="R590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
@@ -31793,6 +33565,9 @@
       <c r="Q591" t="n">
         <v>0</v>
       </c>
+      <c r="R591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
@@ -31846,6 +33621,9 @@
       <c r="Q592" t="n">
         <v>0</v>
       </c>
+      <c r="R592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
@@ -31899,6 +33677,9 @@
       <c r="Q593" t="n">
         <v>0</v>
       </c>
+      <c r="R593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
@@ -31952,6 +33733,9 @@
       <c r="Q594" t="n">
         <v>0</v>
       </c>
+      <c r="R594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
@@ -32005,6 +33789,9 @@
       <c r="Q595" t="n">
         <v>0</v>
       </c>
+      <c r="R595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
@@ -32058,6 +33845,9 @@
       <c r="Q596" t="n">
         <v>0</v>
       </c>
+      <c r="R596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
@@ -32111,6 +33901,9 @@
       <c r="Q597" t="n">
         <v>0</v>
       </c>
+      <c r="R597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
@@ -32164,6 +33957,9 @@
       <c r="Q598" t="n">
         <v>0</v>
       </c>
+      <c r="R598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
@@ -32217,6 +34013,9 @@
       <c r="Q599" t="n">
         <v>0</v>
       </c>
+      <c r="R599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
@@ -32270,6 +34069,9 @@
       <c r="Q600" t="n">
         <v>0</v>
       </c>
+      <c r="R600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
@@ -32323,6 +34125,9 @@
       <c r="Q601" t="n">
         <v>0</v>
       </c>
+      <c r="R601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
@@ -32376,6 +34181,9 @@
       <c r="Q602" t="n">
         <v>0</v>
       </c>
+      <c r="R602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
@@ -32429,6 +34237,9 @@
       <c r="Q603" t="n">
         <v>0</v>
       </c>
+      <c r="R603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
@@ -32482,6 +34293,9 @@
       <c r="Q604" t="n">
         <v>0</v>
       </c>
+      <c r="R604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
@@ -32535,6 +34349,9 @@
       <c r="Q605" t="n">
         <v>0</v>
       </c>
+      <c r="R605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
@@ -32588,6 +34405,9 @@
       <c r="Q606" t="n">
         <v>0</v>
       </c>
+      <c r="R606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
@@ -32641,6 +34461,9 @@
       <c r="Q607" t="n">
         <v>0</v>
       </c>
+      <c r="R607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
@@ -32694,6 +34517,9 @@
       <c r="Q608" t="n">
         <v>0</v>
       </c>
+      <c r="R608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
@@ -32747,6 +34573,9 @@
       <c r="Q609" t="n">
         <v>0</v>
       </c>
+      <c r="R609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
@@ -32800,6 +34629,9 @@
       <c r="Q610" t="n">
         <v>0</v>
       </c>
+      <c r="R610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
@@ -32853,6 +34685,9 @@
       <c r="Q611" t="n">
         <v>0</v>
       </c>
+      <c r="R611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
@@ -32906,6 +34741,9 @@
       <c r="Q612" t="n">
         <v>0</v>
       </c>
+      <c r="R612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
@@ -32959,6 +34797,9 @@
       <c r="Q613" t="n">
         <v>0</v>
       </c>
+      <c r="R613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
@@ -33012,6 +34853,9 @@
       <c r="Q614" t="n">
         <v>0</v>
       </c>
+      <c r="R614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
@@ -33065,6 +34909,9 @@
       <c r="Q615" t="n">
         <v>0</v>
       </c>
+      <c r="R615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
@@ -33118,6 +34965,9 @@
       <c r="Q616" t="n">
         <v>0</v>
       </c>
+      <c r="R616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
@@ -33171,6 +35021,9 @@
       <c r="Q617" t="n">
         <v>0</v>
       </c>
+      <c r="R617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
@@ -33224,6 +35077,9 @@
       <c r="Q618" t="n">
         <v>0</v>
       </c>
+      <c r="R618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
@@ -33277,6 +35133,9 @@
       <c r="Q619" t="n">
         <v>0</v>
       </c>
+      <c r="R619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
@@ -33330,6 +35189,9 @@
       <c r="Q620" t="n">
         <v>0</v>
       </c>
+      <c r="R620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
@@ -33383,6 +35245,9 @@
       <c r="Q621" t="n">
         <v>0</v>
       </c>
+      <c r="R621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
@@ -33436,6 +35301,9 @@
       <c r="Q622" t="n">
         <v>0</v>
       </c>
+      <c r="R622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
@@ -33489,6 +35357,9 @@
       <c r="Q623" t="n">
         <v>0</v>
       </c>
+      <c r="R623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
@@ -33542,6 +35413,9 @@
       <c r="Q624" t="n">
         <v>0</v>
       </c>
+      <c r="R624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
@@ -33595,6 +35469,9 @@
       <c r="Q625" t="n">
         <v>0</v>
       </c>
+      <c r="R625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
@@ -33648,6 +35525,9 @@
       <c r="Q626" t="n">
         <v>0</v>
       </c>
+      <c r="R626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
@@ -33701,6 +35581,9 @@
       <c r="Q627" t="n">
         <v>0</v>
       </c>
+      <c r="R627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
@@ -33754,6 +35637,63 @@
       <c r="Q628" t="n">
         <v>0</v>
       </c>
+      <c r="R628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B629" t="n">
+        <v>1292.900024414062</v>
+      </c>
+      <c r="C629" t="n">
+        <v>1328.849975585938</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1283.300048828125</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1301.800048828125</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1301.800048828125</v>
+      </c>
+      <c r="G629" t="n">
+        <v>568726</v>
+      </c>
+      <c r="H629" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I629" t="n">
+        <v>6</v>
+      </c>
+      <c r="J629" t="n">
+        <v>3</v>
+      </c>
+      <c r="K629" t="n">
+        <v>0</v>
+      </c>
+      <c r="L629" t="n">
+        <v>0</v>
+      </c>
+      <c r="M629" t="n">
+        <v>0</v>
+      </c>
+      <c r="N629" t="n">
+        <v>23</v>
+      </c>
+      <c r="O629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R629" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -35693,7 +35693,9 @@
       <c r="Q629" t="n">
         <v>0</v>
       </c>
-      <c r="R629" t="inlineStr"/>
+      <c r="R629" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q634"/>
+  <dimension ref="A1:R639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8738,6 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8791,6 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8844,6 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8897,6 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8950,6 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9003,6 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9056,6 +9541,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9109,6 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9162,6 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9215,6 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9268,6 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9321,6 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9374,6 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9427,6 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9480,6 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9533,6 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9586,6 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9639,6 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9692,6 +10213,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9745,6 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9798,6 +10325,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9851,6 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9904,6 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9957,6 +10493,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10010,6 +10549,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10063,6 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10116,6 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10169,6 +10717,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10222,6 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10275,6 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10328,6 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10381,6 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10434,6 +10997,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10487,6 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10540,6 +11109,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10593,6 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10646,6 +11221,9 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10699,6 +11277,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10752,6 +11333,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10805,6 +11389,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10858,6 +11445,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10911,6 +11501,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10964,6 +11557,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11017,6 +11613,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11070,6 +11669,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11123,6 +11725,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11176,6 +11781,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11229,6 +11837,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11282,6 +11893,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11335,6 +11949,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11388,6 +12005,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -11441,6 +12061,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -11494,6 +12117,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11547,6 +12173,9 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11600,6 +12229,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11653,6 +12285,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11706,6 +12341,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11759,6 +12397,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11812,6 +12453,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11865,6 +12509,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11918,6 +12565,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11971,6 +12621,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12024,6 +12677,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12077,6 +12733,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12130,6 +12789,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12183,6 +12845,9 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12236,6 +12901,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12289,6 +12957,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -12342,6 +13013,9 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -12395,6 +13069,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -12448,6 +13125,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12501,6 +13181,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12554,6 +13237,9 @@
       <c r="Q228" t="n">
         <v>1</v>
       </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -12607,6 +13293,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -12660,6 +13349,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12713,6 +13405,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12766,6 +13461,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12819,6 +13517,9 @@
       <c r="Q233" t="n">
         <v>0</v>
       </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12872,6 +13573,9 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12925,6 +13629,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12978,6 +13685,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -13031,6 +13741,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -13084,6 +13797,9 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -13137,6 +13853,9 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -13190,6 +13909,9 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -13243,6 +13965,9 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -13296,6 +14021,9 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -13349,6 +14077,9 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -13402,6 +14133,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -13455,6 +14189,9 @@
       <c r="Q245" t="n">
         <v>0</v>
       </c>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -13508,6 +14245,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -13561,6 +14301,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -13614,6 +14357,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -13667,6 +14413,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -13720,6 +14469,9 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -13773,6 +14525,9 @@
       <c r="Q251" t="n">
         <v>0</v>
       </c>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -13826,6 +14581,9 @@
       <c r="Q252" t="n">
         <v>0</v>
       </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -13879,6 +14637,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -13932,6 +14693,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -13985,6 +14749,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -14038,6 +14805,9 @@
       <c r="Q256" t="n">
         <v>0</v>
       </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -14091,6 +14861,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -14144,6 +14917,9 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -14197,6 +14973,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -14250,6 +15029,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -14303,6 +15085,9 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -14356,6 +15141,9 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -14409,6 +15197,9 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -14462,6 +15253,9 @@
       <c r="Q264" t="n">
         <v>0</v>
       </c>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -14515,6 +15309,9 @@
       <c r="Q265" t="n">
         <v>0</v>
       </c>
+      <c r="R265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -14568,6 +15365,9 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -14621,6 +15421,9 @@
       <c r="Q267" t="n">
         <v>0</v>
       </c>
+      <c r="R267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -14674,6 +15477,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -14727,6 +15533,9 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -14780,6 +15589,9 @@
       <c r="Q270" t="n">
         <v>0</v>
       </c>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -14833,6 +15645,9 @@
       <c r="Q271" t="n">
         <v>0</v>
       </c>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -14886,6 +15701,9 @@
       <c r="Q272" t="n">
         <v>0</v>
       </c>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -14939,6 +15757,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -14992,6 +15813,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -15045,6 +15869,9 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -15098,6 +15925,9 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -15151,6 +15981,9 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -15204,6 +16037,9 @@
       <c r="Q278" t="n">
         <v>0</v>
       </c>
+      <c r="R278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -15257,6 +16093,9 @@
       <c r="Q279" t="n">
         <v>0</v>
       </c>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -15310,6 +16149,9 @@
       <c r="Q280" t="n">
         <v>0</v>
       </c>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -15363,6 +16205,9 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
+      <c r="R281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -15416,6 +16261,9 @@
       <c r="Q282" t="n">
         <v>0</v>
       </c>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -15469,6 +16317,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
+      <c r="R283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -15522,6 +16373,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
+      <c r="R284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -15575,6 +16429,9 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -15628,6 +16485,9 @@
       <c r="Q286" t="n">
         <v>0</v>
       </c>
+      <c r="R286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -15681,6 +16541,9 @@
       <c r="Q287" t="n">
         <v>0</v>
       </c>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -15734,6 +16597,9 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -15787,6 +16653,9 @@
       <c r="Q289" t="n">
         <v>0</v>
       </c>
+      <c r="R289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -15840,6 +16709,9 @@
       <c r="Q290" t="n">
         <v>0</v>
       </c>
+      <c r="R290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -15893,6 +16765,9 @@
       <c r="Q291" t="n">
         <v>0</v>
       </c>
+      <c r="R291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -15946,6 +16821,9 @@
       <c r="Q292" t="n">
         <v>0</v>
       </c>
+      <c r="R292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -15999,6 +16877,9 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
+      <c r="R293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -16052,6 +16933,9 @@
       <c r="Q294" t="n">
         <v>0</v>
       </c>
+      <c r="R294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -16105,6 +16989,9 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
+      <c r="R295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -16158,6 +17045,9 @@
       <c r="Q296" t="n">
         <v>0</v>
       </c>
+      <c r="R296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -16211,6 +17101,9 @@
       <c r="Q297" t="n">
         <v>0</v>
       </c>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -16264,6 +17157,9 @@
       <c r="Q298" t="n">
         <v>0</v>
       </c>
+      <c r="R298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -16317,6 +17213,9 @@
       <c r="Q299" t="n">
         <v>0</v>
       </c>
+      <c r="R299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -16370,6 +17269,9 @@
       <c r="Q300" t="n">
         <v>0</v>
       </c>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -16423,6 +17325,9 @@
       <c r="Q301" t="n">
         <v>0</v>
       </c>
+      <c r="R301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -16476,6 +17381,9 @@
       <c r="Q302" t="n">
         <v>0</v>
       </c>
+      <c r="R302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -16529,6 +17437,9 @@
       <c r="Q303" t="n">
         <v>0</v>
       </c>
+      <c r="R303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -16582,6 +17493,9 @@
       <c r="Q304" t="n">
         <v>0</v>
       </c>
+      <c r="R304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -16635,6 +17549,9 @@
       <c r="Q305" t="n">
         <v>0</v>
       </c>
+      <c r="R305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -16688,6 +17605,9 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
+      <c r="R306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -16741,6 +17661,9 @@
       <c r="Q307" t="n">
         <v>0</v>
       </c>
+      <c r="R307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -16794,6 +17717,9 @@
       <c r="Q308" t="n">
         <v>0</v>
       </c>
+      <c r="R308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -16847,6 +17773,9 @@
       <c r="Q309" t="n">
         <v>0</v>
       </c>
+      <c r="R309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -16900,6 +17829,9 @@
       <c r="Q310" t="n">
         <v>0</v>
       </c>
+      <c r="R310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -16953,6 +17885,9 @@
       <c r="Q311" t="n">
         <v>0</v>
       </c>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -17006,6 +17941,9 @@
       <c r="Q312" t="n">
         <v>0</v>
       </c>
+      <c r="R312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -17059,6 +17997,9 @@
       <c r="Q313" t="n">
         <v>0</v>
       </c>
+      <c r="R313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -17112,6 +18053,9 @@
       <c r="Q314" t="n">
         <v>0</v>
       </c>
+      <c r="R314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -17165,6 +18109,9 @@
       <c r="Q315" t="n">
         <v>0</v>
       </c>
+      <c r="R315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -17218,6 +18165,9 @@
       <c r="Q316" t="n">
         <v>0</v>
       </c>
+      <c r="R316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -17271,6 +18221,9 @@
       <c r="Q317" t="n">
         <v>0</v>
       </c>
+      <c r="R317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -17324,6 +18277,9 @@
       <c r="Q318" t="n">
         <v>0</v>
       </c>
+      <c r="R318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -17377,6 +18333,9 @@
       <c r="Q319" t="n">
         <v>0</v>
       </c>
+      <c r="R319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -17430,6 +18389,9 @@
       <c r="Q320" t="n">
         <v>0</v>
       </c>
+      <c r="R320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -17483,6 +18445,9 @@
       <c r="Q321" t="n">
         <v>0</v>
       </c>
+      <c r="R321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -17536,6 +18501,9 @@
       <c r="Q322" t="n">
         <v>0</v>
       </c>
+      <c r="R322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -17589,6 +18557,9 @@
       <c r="Q323" t="n">
         <v>0</v>
       </c>
+      <c r="R323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -17642,6 +18613,9 @@
       <c r="Q324" t="n">
         <v>0</v>
       </c>
+      <c r="R324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -17695,6 +18669,9 @@
       <c r="Q325" t="n">
         <v>0</v>
       </c>
+      <c r="R325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -17748,6 +18725,9 @@
       <c r="Q326" t="n">
         <v>0</v>
       </c>
+      <c r="R326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -17801,6 +18781,9 @@
       <c r="Q327" t="n">
         <v>0</v>
       </c>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -17854,6 +18837,9 @@
       <c r="Q328" t="n">
         <v>0</v>
       </c>
+      <c r="R328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -17907,6 +18893,9 @@
       <c r="Q329" t="n">
         <v>0</v>
       </c>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -17960,6 +18949,9 @@
       <c r="Q330" t="n">
         <v>0</v>
       </c>
+      <c r="R330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -18013,6 +19005,9 @@
       <c r="Q331" t="n">
         <v>0</v>
       </c>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -18066,6 +19061,9 @@
       <c r="Q332" t="n">
         <v>0</v>
       </c>
+      <c r="R332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -18119,6 +19117,9 @@
       <c r="Q333" t="n">
         <v>0</v>
       </c>
+      <c r="R333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -18172,6 +19173,9 @@
       <c r="Q334" t="n">
         <v>0</v>
       </c>
+      <c r="R334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -18225,6 +19229,9 @@
       <c r="Q335" t="n">
         <v>0</v>
       </c>
+      <c r="R335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -18278,6 +19285,9 @@
       <c r="Q336" t="n">
         <v>0</v>
       </c>
+      <c r="R336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -18331,6 +19341,9 @@
       <c r="Q337" t="n">
         <v>0</v>
       </c>
+      <c r="R337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -18384,6 +19397,9 @@
       <c r="Q338" t="n">
         <v>0</v>
       </c>
+      <c r="R338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -18437,6 +19453,9 @@
       <c r="Q339" t="n">
         <v>0</v>
       </c>
+      <c r="R339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -18490,6 +19509,9 @@
       <c r="Q340" t="n">
         <v>0</v>
       </c>
+      <c r="R340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -18543,6 +19565,9 @@
       <c r="Q341" t="n">
         <v>0</v>
       </c>
+      <c r="R341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -18596,6 +19621,9 @@
       <c r="Q342" t="n">
         <v>0</v>
       </c>
+      <c r="R342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -18649,6 +19677,9 @@
       <c r="Q343" t="n">
         <v>0</v>
       </c>
+      <c r="R343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -18702,6 +19733,9 @@
       <c r="Q344" t="n">
         <v>0</v>
       </c>
+      <c r="R344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -18755,6 +19789,9 @@
       <c r="Q345" t="n">
         <v>0</v>
       </c>
+      <c r="R345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -18808,6 +19845,9 @@
       <c r="Q346" t="n">
         <v>0</v>
       </c>
+      <c r="R346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -18861,6 +19901,9 @@
       <c r="Q347" t="n">
         <v>0</v>
       </c>
+      <c r="R347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -18914,6 +19957,9 @@
       <c r="Q348" t="n">
         <v>0</v>
       </c>
+      <c r="R348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -18967,6 +20013,9 @@
       <c r="Q349" t="n">
         <v>0</v>
       </c>
+      <c r="R349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -19020,6 +20069,9 @@
       <c r="Q350" t="n">
         <v>0</v>
       </c>
+      <c r="R350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -19073,6 +20125,9 @@
       <c r="Q351" t="n">
         <v>0</v>
       </c>
+      <c r="R351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -19126,6 +20181,9 @@
       <c r="Q352" t="n">
         <v>0</v>
       </c>
+      <c r="R352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -19179,6 +20237,9 @@
       <c r="Q353" t="n">
         <v>0</v>
       </c>
+      <c r="R353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -19232,6 +20293,9 @@
       <c r="Q354" t="n">
         <v>0</v>
       </c>
+      <c r="R354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -19285,6 +20349,9 @@
       <c r="Q355" t="n">
         <v>0</v>
       </c>
+      <c r="R355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -19338,6 +20405,9 @@
       <c r="Q356" t="n">
         <v>0</v>
       </c>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -19391,6 +20461,9 @@
       <c r="Q357" t="n">
         <v>0</v>
       </c>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -19444,6 +20517,9 @@
       <c r="Q358" t="n">
         <v>0</v>
       </c>
+      <c r="R358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -19497,6 +20573,9 @@
       <c r="Q359" t="n">
         <v>0</v>
       </c>
+      <c r="R359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -19550,6 +20629,9 @@
       <c r="Q360" t="n">
         <v>0</v>
       </c>
+      <c r="R360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -19603,6 +20685,9 @@
       <c r="Q361" t="n">
         <v>0</v>
       </c>
+      <c r="R361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -19656,6 +20741,9 @@
       <c r="Q362" t="n">
         <v>0</v>
       </c>
+      <c r="R362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -19709,6 +20797,9 @@
       <c r="Q363" t="n">
         <v>0</v>
       </c>
+      <c r="R363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -19762,6 +20853,9 @@
       <c r="Q364" t="n">
         <v>0</v>
       </c>
+      <c r="R364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -19815,6 +20909,9 @@
       <c r="Q365" t="n">
         <v>0</v>
       </c>
+      <c r="R365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -19868,6 +20965,9 @@
       <c r="Q366" t="n">
         <v>0</v>
       </c>
+      <c r="R366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -19921,6 +21021,9 @@
       <c r="Q367" t="n">
         <v>0</v>
       </c>
+      <c r="R367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -19974,6 +21077,9 @@
       <c r="Q368" t="n">
         <v>0</v>
       </c>
+      <c r="R368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -20027,6 +21133,9 @@
       <c r="Q369" t="n">
         <v>0</v>
       </c>
+      <c r="R369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -20080,6 +21189,9 @@
       <c r="Q370" t="n">
         <v>0</v>
       </c>
+      <c r="R370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -20133,6 +21245,9 @@
       <c r="Q371" t="n">
         <v>0</v>
       </c>
+      <c r="R371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -20186,6 +21301,9 @@
       <c r="Q372" t="n">
         <v>0</v>
       </c>
+      <c r="R372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -20239,6 +21357,9 @@
       <c r="Q373" t="n">
         <v>0</v>
       </c>
+      <c r="R373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -20292,6 +21413,9 @@
       <c r="Q374" t="n">
         <v>0</v>
       </c>
+      <c r="R374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -20345,6 +21469,9 @@
       <c r="Q375" t="n">
         <v>0</v>
       </c>
+      <c r="R375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -20398,6 +21525,9 @@
       <c r="Q376" t="n">
         <v>0</v>
       </c>
+      <c r="R376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -20451,6 +21581,9 @@
       <c r="Q377" t="n">
         <v>0</v>
       </c>
+      <c r="R377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -20504,6 +21637,9 @@
       <c r="Q378" t="n">
         <v>0</v>
       </c>
+      <c r="R378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -20557,6 +21693,9 @@
       <c r="Q379" t="n">
         <v>0</v>
       </c>
+      <c r="R379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -20610,6 +21749,9 @@
       <c r="Q380" t="n">
         <v>0</v>
       </c>
+      <c r="R380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -20663,6 +21805,9 @@
       <c r="Q381" t="n">
         <v>0</v>
       </c>
+      <c r="R381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -20716,6 +21861,9 @@
       <c r="Q382" t="n">
         <v>0</v>
       </c>
+      <c r="R382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -20769,6 +21917,9 @@
       <c r="Q383" t="n">
         <v>0</v>
       </c>
+      <c r="R383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -20822,6 +21973,9 @@
       <c r="Q384" t="n">
         <v>0</v>
       </c>
+      <c r="R384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -20875,6 +22029,9 @@
       <c r="Q385" t="n">
         <v>0</v>
       </c>
+      <c r="R385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -20928,6 +22085,9 @@
       <c r="Q386" t="n">
         <v>0</v>
       </c>
+      <c r="R386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -20981,6 +22141,9 @@
       <c r="Q387" t="n">
         <v>0</v>
       </c>
+      <c r="R387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -21034,6 +22197,9 @@
       <c r="Q388" t="n">
         <v>0</v>
       </c>
+      <c r="R388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
@@ -21087,6 +22253,9 @@
       <c r="Q389" t="n">
         <v>0</v>
       </c>
+      <c r="R389" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
@@ -21140,6 +22309,9 @@
       <c r="Q390" t="n">
         <v>0</v>
       </c>
+      <c r="R390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -21193,6 +22365,9 @@
       <c r="Q391" t="n">
         <v>0</v>
       </c>
+      <c r="R391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -21246,6 +22421,9 @@
       <c r="Q392" t="n">
         <v>0</v>
       </c>
+      <c r="R392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -21299,6 +22477,9 @@
       <c r="Q393" t="n">
         <v>0</v>
       </c>
+      <c r="R393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
@@ -21352,6 +22533,9 @@
       <c r="Q394" t="n">
         <v>0</v>
       </c>
+      <c r="R394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
@@ -21405,6 +22589,9 @@
       <c r="Q395" t="n">
         <v>0</v>
       </c>
+      <c r="R395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
@@ -21458,6 +22645,9 @@
       <c r="Q396" t="n">
         <v>0</v>
       </c>
+      <c r="R396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -21511,6 +22701,9 @@
       <c r="Q397" t="n">
         <v>0</v>
       </c>
+      <c r="R397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
@@ -21564,6 +22757,9 @@
       <c r="Q398" t="n">
         <v>0</v>
       </c>
+      <c r="R398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
@@ -21617,6 +22813,9 @@
       <c r="Q399" t="n">
         <v>0</v>
       </c>
+      <c r="R399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
@@ -21670,6 +22869,9 @@
       <c r="Q400" t="n">
         <v>0</v>
       </c>
+      <c r="R400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
@@ -21723,6 +22925,9 @@
       <c r="Q401" t="n">
         <v>0</v>
       </c>
+      <c r="R401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
@@ -21776,6 +22981,9 @@
       <c r="Q402" t="n">
         <v>0</v>
       </c>
+      <c r="R402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
@@ -21829,6 +23037,9 @@
       <c r="Q403" t="n">
         <v>0</v>
       </c>
+      <c r="R403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
@@ -21882,6 +23093,9 @@
       <c r="Q404" t="n">
         <v>0</v>
       </c>
+      <c r="R404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
@@ -21935,6 +23149,9 @@
       <c r="Q405" t="n">
         <v>0</v>
       </c>
+      <c r="R405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
@@ -21988,6 +23205,9 @@
       <c r="Q406" t="n">
         <v>0</v>
       </c>
+      <c r="R406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
@@ -22041,6 +23261,9 @@
       <c r="Q407" t="n">
         <v>0</v>
       </c>
+      <c r="R407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
@@ -22094,6 +23317,9 @@
       <c r="Q408" t="n">
         <v>0</v>
       </c>
+      <c r="R408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
@@ -22147,6 +23373,9 @@
       <c r="Q409" t="n">
         <v>0</v>
       </c>
+      <c r="R409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
@@ -22200,6 +23429,9 @@
       <c r="Q410" t="n">
         <v>0</v>
       </c>
+      <c r="R410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
@@ -22253,6 +23485,9 @@
       <c r="Q411" t="n">
         <v>0</v>
       </c>
+      <c r="R411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
@@ -22306,6 +23541,9 @@
       <c r="Q412" t="n">
         <v>0</v>
       </c>
+      <c r="R412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
@@ -22359,6 +23597,9 @@
       <c r="Q413" t="n">
         <v>0</v>
       </c>
+      <c r="R413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
@@ -22412,6 +23653,9 @@
       <c r="Q414" t="n">
         <v>0</v>
       </c>
+      <c r="R414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
@@ -22465,6 +23709,9 @@
       <c r="Q415" t="n">
         <v>0</v>
       </c>
+      <c r="R415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
@@ -22518,6 +23765,9 @@
       <c r="Q416" t="n">
         <v>0</v>
       </c>
+      <c r="R416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
@@ -22571,6 +23821,9 @@
       <c r="Q417" t="n">
         <v>0</v>
       </c>
+      <c r="R417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
@@ -22624,6 +23877,9 @@
       <c r="Q418" t="n">
         <v>0</v>
       </c>
+      <c r="R418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
@@ -22677,6 +23933,9 @@
       <c r="Q419" t="n">
         <v>0</v>
       </c>
+      <c r="R419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
@@ -22730,6 +23989,9 @@
       <c r="Q420" t="n">
         <v>0</v>
       </c>
+      <c r="R420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
@@ -22783,6 +24045,9 @@
       <c r="Q421" t="n">
         <v>0</v>
       </c>
+      <c r="R421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
@@ -22836,6 +24101,9 @@
       <c r="Q422" t="n">
         <v>0</v>
       </c>
+      <c r="R422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
@@ -22889,6 +24157,9 @@
       <c r="Q423" t="n">
         <v>0</v>
       </c>
+      <c r="R423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
@@ -22942,6 +24213,9 @@
       <c r="Q424" t="n">
         <v>0</v>
       </c>
+      <c r="R424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
@@ -22995,6 +24269,9 @@
       <c r="Q425" t="n">
         <v>0</v>
       </c>
+      <c r="R425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
@@ -23048,6 +24325,9 @@
       <c r="Q426" t="n">
         <v>0</v>
       </c>
+      <c r="R426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
@@ -23101,6 +24381,9 @@
       <c r="Q427" t="n">
         <v>0</v>
       </c>
+      <c r="R427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
@@ -23154,6 +24437,9 @@
       <c r="Q428" t="n">
         <v>0</v>
       </c>
+      <c r="R428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
@@ -23207,6 +24493,9 @@
       <c r="Q429" t="n">
         <v>0</v>
       </c>
+      <c r="R429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
@@ -23260,6 +24549,9 @@
       <c r="Q430" t="n">
         <v>0</v>
       </c>
+      <c r="R430" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
@@ -23313,6 +24605,9 @@
       <c r="Q431" t="n">
         <v>0</v>
       </c>
+      <c r="R431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
@@ -23366,6 +24661,9 @@
       <c r="Q432" t="n">
         <v>0</v>
       </c>
+      <c r="R432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
@@ -23419,6 +24717,9 @@
       <c r="Q433" t="n">
         <v>0</v>
       </c>
+      <c r="R433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
@@ -23472,6 +24773,9 @@
       <c r="Q434" t="n">
         <v>0</v>
       </c>
+      <c r="R434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
@@ -23525,6 +24829,9 @@
       <c r="Q435" t="n">
         <v>0</v>
       </c>
+      <c r="R435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
@@ -23578,6 +24885,9 @@
       <c r="Q436" t="n">
         <v>0</v>
       </c>
+      <c r="R436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
@@ -23631,6 +24941,9 @@
       <c r="Q437" t="n">
         <v>0</v>
       </c>
+      <c r="R437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
@@ -23684,6 +24997,9 @@
       <c r="Q438" t="n">
         <v>0</v>
       </c>
+      <c r="R438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
@@ -23737,6 +25053,9 @@
       <c r="Q439" t="n">
         <v>0</v>
       </c>
+      <c r="R439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
@@ -23790,6 +25109,9 @@
       <c r="Q440" t="n">
         <v>0</v>
       </c>
+      <c r="R440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
@@ -23843,6 +25165,9 @@
       <c r="Q441" t="n">
         <v>0</v>
       </c>
+      <c r="R441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
@@ -23896,6 +25221,9 @@
       <c r="Q442" t="n">
         <v>0</v>
       </c>
+      <c r="R442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
@@ -23949,6 +25277,9 @@
       <c r="Q443" t="n">
         <v>2</v>
       </c>
+      <c r="R443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
@@ -24002,6 +25333,9 @@
       <c r="Q444" t="n">
         <v>0</v>
       </c>
+      <c r="R444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
@@ -24055,6 +25389,9 @@
       <c r="Q445" t="n">
         <v>0</v>
       </c>
+      <c r="R445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
@@ -24108,6 +25445,9 @@
       <c r="Q446" t="n">
         <v>0</v>
       </c>
+      <c r="R446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
@@ -24161,6 +25501,9 @@
       <c r="Q447" t="n">
         <v>0</v>
       </c>
+      <c r="R447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
@@ -24214,6 +25557,9 @@
       <c r="Q448" t="n">
         <v>1</v>
       </c>
+      <c r="R448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
@@ -24267,6 +25613,9 @@
       <c r="Q449" t="n">
         <v>0</v>
       </c>
+      <c r="R449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
@@ -24320,6 +25669,9 @@
       <c r="Q450" t="n">
         <v>0</v>
       </c>
+      <c r="R450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
@@ -24373,6 +25725,9 @@
       <c r="Q451" t="n">
         <v>0</v>
       </c>
+      <c r="R451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
@@ -24426,6 +25781,9 @@
       <c r="Q452" t="n">
         <v>0</v>
       </c>
+      <c r="R452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
@@ -24479,6 +25837,9 @@
       <c r="Q453" t="n">
         <v>0</v>
       </c>
+      <c r="R453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
@@ -24532,6 +25893,9 @@
       <c r="Q454" t="n">
         <v>0</v>
       </c>
+      <c r="R454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
@@ -24585,6 +25949,9 @@
       <c r="Q455" t="n">
         <v>0</v>
       </c>
+      <c r="R455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
@@ -24638,6 +26005,9 @@
       <c r="Q456" t="n">
         <v>0</v>
       </c>
+      <c r="R456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
@@ -24691,6 +26061,9 @@
       <c r="Q457" t="n">
         <v>0</v>
       </c>
+      <c r="R457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
@@ -24744,6 +26117,9 @@
       <c r="Q458" t="n">
         <v>0</v>
       </c>
+      <c r="R458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
@@ -24797,6 +26173,9 @@
       <c r="Q459" t="n">
         <v>0</v>
       </c>
+      <c r="R459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
@@ -24850,6 +26229,9 @@
       <c r="Q460" t="n">
         <v>0</v>
       </c>
+      <c r="R460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
@@ -24903,6 +26285,9 @@
       <c r="Q461" t="n">
         <v>0</v>
       </c>
+      <c r="R461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
@@ -24956,6 +26341,9 @@
       <c r="Q462" t="n">
         <v>0</v>
       </c>
+      <c r="R462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
@@ -25009,6 +26397,9 @@
       <c r="Q463" t="n">
         <v>0</v>
       </c>
+      <c r="R463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
@@ -25062,6 +26453,9 @@
       <c r="Q464" t="n">
         <v>0</v>
       </c>
+      <c r="R464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
@@ -25115,6 +26509,9 @@
       <c r="Q465" t="n">
         <v>0</v>
       </c>
+      <c r="R465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
@@ -25168,6 +26565,9 @@
       <c r="Q466" t="n">
         <v>2</v>
       </c>
+      <c r="R466" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
@@ -25221,6 +26621,9 @@
       <c r="Q467" t="n">
         <v>0</v>
       </c>
+      <c r="R467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
@@ -25274,6 +26677,9 @@
       <c r="Q468" t="n">
         <v>0</v>
       </c>
+      <c r="R468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
@@ -25327,6 +26733,9 @@
       <c r="Q469" t="n">
         <v>0</v>
       </c>
+      <c r="R469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
@@ -25380,6 +26789,9 @@
       <c r="Q470" t="n">
         <v>0</v>
       </c>
+      <c r="R470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
@@ -25433,6 +26845,9 @@
       <c r="Q471" t="n">
         <v>0</v>
       </c>
+      <c r="R471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
@@ -25486,6 +26901,9 @@
       <c r="Q472" t="n">
         <v>0</v>
       </c>
+      <c r="R472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
@@ -25539,6 +26957,9 @@
       <c r="Q473" t="n">
         <v>0</v>
       </c>
+      <c r="R473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
@@ -25592,6 +27013,9 @@
       <c r="Q474" t="n">
         <v>0</v>
       </c>
+      <c r="R474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
@@ -25645,6 +27069,9 @@
       <c r="Q475" t="n">
         <v>1</v>
       </c>
+      <c r="R475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
@@ -25698,6 +27125,9 @@
       <c r="Q476" t="n">
         <v>0</v>
       </c>
+      <c r="R476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
@@ -25751,6 +27181,9 @@
       <c r="Q477" t="n">
         <v>0</v>
       </c>
+      <c r="R477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
@@ -25804,6 +27237,9 @@
       <c r="Q478" t="n">
         <v>0</v>
       </c>
+      <c r="R478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
@@ -25857,6 +27293,9 @@
       <c r="Q479" t="n">
         <v>0</v>
       </c>
+      <c r="R479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
@@ -25910,6 +27349,9 @@
       <c r="Q480" t="n">
         <v>0</v>
       </c>
+      <c r="R480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
@@ -25963,6 +27405,9 @@
       <c r="Q481" t="n">
         <v>0</v>
       </c>
+      <c r="R481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
@@ -26016,6 +27461,9 @@
       <c r="Q482" t="n">
         <v>0</v>
       </c>
+      <c r="R482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
@@ -26069,6 +27517,9 @@
       <c r="Q483" t="n">
         <v>0</v>
       </c>
+      <c r="R483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
@@ -26122,6 +27573,9 @@
       <c r="Q484" t="n">
         <v>0</v>
       </c>
+      <c r="R484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
@@ -26175,6 +27629,9 @@
       <c r="Q485" t="n">
         <v>0</v>
       </c>
+      <c r="R485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
@@ -26228,6 +27685,9 @@
       <c r="Q486" t="n">
         <v>0</v>
       </c>
+      <c r="R486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
@@ -26281,6 +27741,9 @@
       <c r="Q487" t="n">
         <v>0</v>
       </c>
+      <c r="R487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
@@ -26334,6 +27797,9 @@
       <c r="Q488" t="n">
         <v>0</v>
       </c>
+      <c r="R488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
@@ -26387,6 +27853,9 @@
       <c r="Q489" t="n">
         <v>0</v>
       </c>
+      <c r="R489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
@@ -26440,6 +27909,9 @@
       <c r="Q490" t="n">
         <v>0</v>
       </c>
+      <c r="R490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
@@ -26493,6 +27965,9 @@
       <c r="Q491" t="n">
         <v>0</v>
       </c>
+      <c r="R491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
@@ -26546,6 +28021,9 @@
       <c r="Q492" t="n">
         <v>0</v>
       </c>
+      <c r="R492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
@@ -26599,6 +28077,9 @@
       <c r="Q493" t="n">
         <v>0</v>
       </c>
+      <c r="R493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
@@ -26652,6 +28133,9 @@
       <c r="Q494" t="n">
         <v>0</v>
       </c>
+      <c r="R494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
@@ -26705,6 +28189,9 @@
       <c r="Q495" t="n">
         <v>0</v>
       </c>
+      <c r="R495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
@@ -26758,6 +28245,9 @@
       <c r="Q496" t="n">
         <v>0</v>
       </c>
+      <c r="R496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
@@ -26811,6 +28301,9 @@
       <c r="Q497" t="n">
         <v>0</v>
       </c>
+      <c r="R497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
@@ -26864,6 +28357,9 @@
       <c r="Q498" t="n">
         <v>0</v>
       </c>
+      <c r="R498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
@@ -26917,6 +28413,9 @@
       <c r="Q499" t="n">
         <v>0</v>
       </c>
+      <c r="R499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
@@ -26970,6 +28469,9 @@
       <c r="Q500" t="n">
         <v>0</v>
       </c>
+      <c r="R500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
@@ -27023,6 +28525,9 @@
       <c r="Q501" t="n">
         <v>0</v>
       </c>
+      <c r="R501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
@@ -27076,6 +28581,9 @@
       <c r="Q502" t="n">
         <v>0</v>
       </c>
+      <c r="R502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
@@ -27129,6 +28637,9 @@
       <c r="Q503" t="n">
         <v>0</v>
       </c>
+      <c r="R503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
@@ -27182,6 +28693,9 @@
       <c r="Q504" t="n">
         <v>0</v>
       </c>
+      <c r="R504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
@@ -27235,6 +28749,9 @@
       <c r="Q505" t="n">
         <v>0</v>
       </c>
+      <c r="R505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
@@ -27288,6 +28805,9 @@
       <c r="Q506" t="n">
         <v>0</v>
       </c>
+      <c r="R506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
@@ -27341,6 +28861,9 @@
       <c r="Q507" t="n">
         <v>0</v>
       </c>
+      <c r="R507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
@@ -27394,6 +28917,9 @@
       <c r="Q508" t="n">
         <v>0</v>
       </c>
+      <c r="R508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
@@ -27447,6 +28973,9 @@
       <c r="Q509" t="n">
         <v>0</v>
       </c>
+      <c r="R509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
@@ -27500,6 +29029,9 @@
       <c r="Q510" t="n">
         <v>0</v>
       </c>
+      <c r="R510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
@@ -27553,6 +29085,9 @@
       <c r="Q511" t="n">
         <v>0</v>
       </c>
+      <c r="R511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
@@ -27606,6 +29141,9 @@
       <c r="Q512" t="n">
         <v>0</v>
       </c>
+      <c r="R512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
@@ -27659,6 +29197,9 @@
       <c r="Q513" t="n">
         <v>0</v>
       </c>
+      <c r="R513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
@@ -27712,6 +29253,9 @@
       <c r="Q514" t="n">
         <v>0</v>
       </c>
+      <c r="R514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
@@ -27765,6 +29309,9 @@
       <c r="Q515" t="n">
         <v>0</v>
       </c>
+      <c r="R515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
@@ -27818,6 +29365,9 @@
       <c r="Q516" t="n">
         <v>0</v>
       </c>
+      <c r="R516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
@@ -27871,6 +29421,9 @@
       <c r="Q517" t="n">
         <v>0</v>
       </c>
+      <c r="R517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
@@ -27924,6 +29477,9 @@
       <c r="Q518" t="n">
         <v>0</v>
       </c>
+      <c r="R518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
@@ -27977,6 +29533,9 @@
       <c r="Q519" t="n">
         <v>0</v>
       </c>
+      <c r="R519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
@@ -28030,6 +29589,9 @@
       <c r="Q520" t="n">
         <v>0</v>
       </c>
+      <c r="R520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
@@ -28083,6 +29645,9 @@
       <c r="Q521" t="n">
         <v>2</v>
       </c>
+      <c r="R521" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
@@ -28136,6 +29701,9 @@
       <c r="Q522" t="n">
         <v>0</v>
       </c>
+      <c r="R522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
@@ -28189,6 +29757,9 @@
       <c r="Q523" t="n">
         <v>0</v>
       </c>
+      <c r="R523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
@@ -28242,6 +29813,9 @@
       <c r="Q524" t="n">
         <v>0</v>
       </c>
+      <c r="R524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
@@ -28295,6 +29869,9 @@
       <c r="Q525" t="n">
         <v>0</v>
       </c>
+      <c r="R525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
@@ -28348,6 +29925,9 @@
       <c r="Q526" t="n">
         <v>0</v>
       </c>
+      <c r="R526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
@@ -28401,6 +29981,9 @@
       <c r="Q527" t="n">
         <v>0</v>
       </c>
+      <c r="R527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
@@ -28454,6 +30037,9 @@
       <c r="Q528" t="n">
         <v>0</v>
       </c>
+      <c r="R528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
@@ -28507,6 +30093,9 @@
       <c r="Q529" t="n">
         <v>0</v>
       </c>
+      <c r="R529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
@@ -28560,6 +30149,9 @@
       <c r="Q530" t="n">
         <v>0</v>
       </c>
+      <c r="R530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
@@ -28613,6 +30205,9 @@
       <c r="Q531" t="n">
         <v>0</v>
       </c>
+      <c r="R531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
@@ -28666,6 +30261,9 @@
       <c r="Q532" t="n">
         <v>0</v>
       </c>
+      <c r="R532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
@@ -28719,6 +30317,9 @@
       <c r="Q533" t="n">
         <v>0</v>
       </c>
+      <c r="R533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
@@ -28772,6 +30373,9 @@
       <c r="Q534" t="n">
         <v>0</v>
       </c>
+      <c r="R534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
@@ -28825,6 +30429,9 @@
       <c r="Q535" t="n">
         <v>0</v>
       </c>
+      <c r="R535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
@@ -28878,6 +30485,9 @@
       <c r="Q536" t="n">
         <v>0</v>
       </c>
+      <c r="R536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
@@ -28931,6 +30541,9 @@
       <c r="Q537" t="n">
         <v>0</v>
       </c>
+      <c r="R537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
@@ -28984,6 +30597,9 @@
       <c r="Q538" t="n">
         <v>0</v>
       </c>
+      <c r="R538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
@@ -29037,6 +30653,9 @@
       <c r="Q539" t="n">
         <v>0</v>
       </c>
+      <c r="R539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
@@ -29090,6 +30709,9 @@
       <c r="Q540" t="n">
         <v>0</v>
       </c>
+      <c r="R540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
@@ -29143,6 +30765,9 @@
       <c r="Q541" t="n">
         <v>0</v>
       </c>
+      <c r="R541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
@@ -29196,6 +30821,9 @@
       <c r="Q542" t="n">
         <v>0</v>
       </c>
+      <c r="R542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
@@ -29249,6 +30877,9 @@
       <c r="Q543" t="n">
         <v>0</v>
       </c>
+      <c r="R543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
@@ -29302,6 +30933,9 @@
       <c r="Q544" t="n">
         <v>0</v>
       </c>
+      <c r="R544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
@@ -29355,6 +30989,9 @@
       <c r="Q545" t="n">
         <v>0</v>
       </c>
+      <c r="R545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
@@ -29408,6 +31045,9 @@
       <c r="Q546" t="n">
         <v>0</v>
       </c>
+      <c r="R546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
@@ -29461,6 +31101,9 @@
       <c r="Q547" t="n">
         <v>0</v>
       </c>
+      <c r="R547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
@@ -29514,6 +31157,9 @@
       <c r="Q548" t="n">
         <v>0</v>
       </c>
+      <c r="R548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
@@ -29567,6 +31213,9 @@
       <c r="Q549" t="n">
         <v>0</v>
       </c>
+      <c r="R549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
@@ -29620,6 +31269,9 @@
       <c r="Q550" t="n">
         <v>0</v>
       </c>
+      <c r="R550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
@@ -29673,6 +31325,9 @@
       <c r="Q551" t="n">
         <v>0</v>
       </c>
+      <c r="R551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
@@ -29726,6 +31381,9 @@
       <c r="Q552" t="n">
         <v>0</v>
       </c>
+      <c r="R552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
@@ -29779,6 +31437,9 @@
       <c r="Q553" t="n">
         <v>0</v>
       </c>
+      <c r="R553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
@@ -29832,6 +31493,9 @@
       <c r="Q554" t="n">
         <v>0</v>
       </c>
+      <c r="R554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
@@ -29885,6 +31549,9 @@
       <c r="Q555" t="n">
         <v>0</v>
       </c>
+      <c r="R555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
@@ -29938,6 +31605,9 @@
       <c r="Q556" t="n">
         <v>0</v>
       </c>
+      <c r="R556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
@@ -29991,6 +31661,9 @@
       <c r="Q557" t="n">
         <v>0</v>
       </c>
+      <c r="R557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
@@ -30044,6 +31717,9 @@
       <c r="Q558" t="n">
         <v>0</v>
       </c>
+      <c r="R558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
@@ -30097,6 +31773,9 @@
       <c r="Q559" t="n">
         <v>0</v>
       </c>
+      <c r="R559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
@@ -30150,6 +31829,9 @@
       <c r="Q560" t="n">
         <v>0</v>
       </c>
+      <c r="R560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
@@ -30203,6 +31885,9 @@
       <c r="Q561" t="n">
         <v>0</v>
       </c>
+      <c r="R561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
@@ -30256,6 +31941,9 @@
       <c r="Q562" t="n">
         <v>0</v>
       </c>
+      <c r="R562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
@@ -30309,6 +31997,9 @@
       <c r="Q563" t="n">
         <v>0</v>
       </c>
+      <c r="R563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
@@ -30362,6 +32053,9 @@
       <c r="Q564" t="n">
         <v>0</v>
       </c>
+      <c r="R564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
@@ -30415,6 +32109,9 @@
       <c r="Q565" t="n">
         <v>0</v>
       </c>
+      <c r="R565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
@@ -30468,6 +32165,9 @@
       <c r="Q566" t="n">
         <v>0</v>
       </c>
+      <c r="R566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
@@ -30521,6 +32221,9 @@
       <c r="Q567" t="n">
         <v>0</v>
       </c>
+      <c r="R567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
@@ -30574,6 +32277,9 @@
       <c r="Q568" t="n">
         <v>0</v>
       </c>
+      <c r="R568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
@@ -30627,6 +32333,9 @@
       <c r="Q569" t="n">
         <v>0</v>
       </c>
+      <c r="R569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
@@ -30680,6 +32389,9 @@
       <c r="Q570" t="n">
         <v>0</v>
       </c>
+      <c r="R570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
@@ -30733,6 +32445,9 @@
       <c r="Q571" t="n">
         <v>0</v>
       </c>
+      <c r="R571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
@@ -30786,6 +32501,9 @@
       <c r="Q572" t="n">
         <v>0</v>
       </c>
+      <c r="R572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
@@ -30839,6 +32557,9 @@
       <c r="Q573" t="n">
         <v>0</v>
       </c>
+      <c r="R573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
@@ -30892,6 +32613,9 @@
       <c r="Q574" t="n">
         <v>0</v>
       </c>
+      <c r="R574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
@@ -30945,6 +32669,9 @@
       <c r="Q575" t="n">
         <v>0</v>
       </c>
+      <c r="R575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
@@ -30998,6 +32725,9 @@
       <c r="Q576" t="n">
         <v>0</v>
       </c>
+      <c r="R576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
@@ -31051,6 +32781,9 @@
       <c r="Q577" t="n">
         <v>0</v>
       </c>
+      <c r="R577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
@@ -31104,6 +32837,9 @@
       <c r="Q578" t="n">
         <v>0</v>
       </c>
+      <c r="R578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
@@ -31157,6 +32893,9 @@
       <c r="Q579" t="n">
         <v>0</v>
       </c>
+      <c r="R579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
@@ -31210,6 +32949,9 @@
       <c r="Q580" t="n">
         <v>0</v>
       </c>
+      <c r="R580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
@@ -31263,6 +33005,9 @@
       <c r="Q581" t="n">
         <v>0</v>
       </c>
+      <c r="R581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
@@ -31316,6 +33061,9 @@
       <c r="Q582" t="n">
         <v>0</v>
       </c>
+      <c r="R582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
@@ -31369,6 +33117,9 @@
       <c r="Q583" t="n">
         <v>0</v>
       </c>
+      <c r="R583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
@@ -31422,6 +33173,9 @@
       <c r="Q584" t="n">
         <v>0</v>
       </c>
+      <c r="R584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
@@ -31475,6 +33229,9 @@
       <c r="Q585" t="n">
         <v>0</v>
       </c>
+      <c r="R585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
@@ -31528,6 +33285,9 @@
       <c r="Q586" t="n">
         <v>0</v>
       </c>
+      <c r="R586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
@@ -31581,6 +33341,9 @@
       <c r="Q587" t="n">
         <v>0</v>
       </c>
+      <c r="R587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
@@ -31634,6 +33397,9 @@
       <c r="Q588" t="n">
         <v>0</v>
       </c>
+      <c r="R588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
@@ -31687,6 +33453,9 @@
       <c r="Q589" t="n">
         <v>0</v>
       </c>
+      <c r="R589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
@@ -31740,6 +33509,9 @@
       <c r="Q590" t="n">
         <v>0</v>
       </c>
+      <c r="R590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
@@ -31793,6 +33565,9 @@
       <c r="Q591" t="n">
         <v>0</v>
       </c>
+      <c r="R591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
@@ -31846,6 +33621,9 @@
       <c r="Q592" t="n">
         <v>0</v>
       </c>
+      <c r="R592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
@@ -31899,6 +33677,9 @@
       <c r="Q593" t="n">
         <v>0</v>
       </c>
+      <c r="R593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
@@ -31952,6 +33733,9 @@
       <c r="Q594" t="n">
         <v>0</v>
       </c>
+      <c r="R594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
@@ -32005,6 +33789,9 @@
       <c r="Q595" t="n">
         <v>0</v>
       </c>
+      <c r="R595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
@@ -32058,6 +33845,9 @@
       <c r="Q596" t="n">
         <v>0</v>
       </c>
+      <c r="R596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
@@ -32111,6 +33901,9 @@
       <c r="Q597" t="n">
         <v>0</v>
       </c>
+      <c r="R597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
@@ -32164,6 +33957,9 @@
       <c r="Q598" t="n">
         <v>0</v>
       </c>
+      <c r="R598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
@@ -32217,6 +34013,9 @@
       <c r="Q599" t="n">
         <v>0</v>
       </c>
+      <c r="R599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
@@ -32270,6 +34069,9 @@
       <c r="Q600" t="n">
         <v>0</v>
       </c>
+      <c r="R600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
@@ -32323,6 +34125,9 @@
       <c r="Q601" t="n">
         <v>0</v>
       </c>
+      <c r="R601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
@@ -32376,6 +34181,9 @@
       <c r="Q602" t="n">
         <v>0</v>
       </c>
+      <c r="R602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
@@ -32429,6 +34237,9 @@
       <c r="Q603" t="n">
         <v>0</v>
       </c>
+      <c r="R603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
@@ -32482,6 +34293,9 @@
       <c r="Q604" t="n">
         <v>0</v>
       </c>
+      <c r="R604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
@@ -32535,6 +34349,9 @@
       <c r="Q605" t="n">
         <v>0</v>
       </c>
+      <c r="R605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
@@ -32588,6 +34405,9 @@
       <c r="Q606" t="n">
         <v>0</v>
       </c>
+      <c r="R606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
@@ -32641,6 +34461,9 @@
       <c r="Q607" t="n">
         <v>0</v>
       </c>
+      <c r="R607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
@@ -32694,6 +34517,9 @@
       <c r="Q608" t="n">
         <v>0</v>
       </c>
+      <c r="R608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
@@ -32747,6 +34573,9 @@
       <c r="Q609" t="n">
         <v>0</v>
       </c>
+      <c r="R609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
@@ -32800,6 +34629,9 @@
       <c r="Q610" t="n">
         <v>0</v>
       </c>
+      <c r="R610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
@@ -32853,6 +34685,9 @@
       <c r="Q611" t="n">
         <v>0</v>
       </c>
+      <c r="R611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
@@ -32906,6 +34741,9 @@
       <c r="Q612" t="n">
         <v>0</v>
       </c>
+      <c r="R612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
@@ -32959,6 +34797,9 @@
       <c r="Q613" t="n">
         <v>0</v>
       </c>
+      <c r="R613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
@@ -33012,6 +34853,9 @@
       <c r="Q614" t="n">
         <v>0</v>
       </c>
+      <c r="R614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
@@ -33065,6 +34909,9 @@
       <c r="Q615" t="n">
         <v>0</v>
       </c>
+      <c r="R615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
@@ -33118,6 +34965,9 @@
       <c r="Q616" t="n">
         <v>0</v>
       </c>
+      <c r="R616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
@@ -33171,6 +35021,9 @@
       <c r="Q617" t="n">
         <v>0</v>
       </c>
+      <c r="R617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
@@ -33224,6 +35077,9 @@
       <c r="Q618" t="n">
         <v>0</v>
       </c>
+      <c r="R618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
@@ -33277,6 +35133,9 @@
       <c r="Q619" t="n">
         <v>0</v>
       </c>
+      <c r="R619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
@@ -33330,6 +35189,9 @@
       <c r="Q620" t="n">
         <v>0</v>
       </c>
+      <c r="R620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
@@ -33383,6 +35245,9 @@
       <c r="Q621" t="n">
         <v>0</v>
       </c>
+      <c r="R621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
@@ -33436,6 +35301,9 @@
       <c r="Q622" t="n">
         <v>0</v>
       </c>
+      <c r="R622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
@@ -33489,6 +35357,9 @@
       <c r="Q623" t="n">
         <v>0</v>
       </c>
+      <c r="R623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
@@ -33542,6 +35413,9 @@
       <c r="Q624" t="n">
         <v>0</v>
       </c>
+      <c r="R624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
@@ -33595,6 +35469,9 @@
       <c r="Q625" t="n">
         <v>0</v>
       </c>
+      <c r="R625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
@@ -33648,6 +35525,9 @@
       <c r="Q626" t="n">
         <v>0</v>
       </c>
+      <c r="R626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
@@ -33693,12 +35573,15 @@
         <v>22</v>
       </c>
       <c r="O627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P627" t="n">
         <v>0</v>
       </c>
       <c r="Q627" t="n">
+        <v>0</v>
+      </c>
+      <c r="R627" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33754,6 +35637,9 @@
       <c r="Q628" t="n">
         <v>0</v>
       </c>
+      <c r="R628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
@@ -33807,6 +35693,9 @@
       <c r="Q629" t="n">
         <v>0</v>
       </c>
+      <c r="R629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
@@ -33860,6 +35749,9 @@
       <c r="Q630" t="n">
         <v>0</v>
       </c>
+      <c r="R630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
@@ -33913,6 +35805,9 @@
       <c r="Q631" t="n">
         <v>0</v>
       </c>
+      <c r="R631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
@@ -33966,6 +35861,9 @@
       <c r="Q632" t="n">
         <v>0</v>
       </c>
+      <c r="R632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
@@ -34019,6 +35917,9 @@
       <c r="Q633" t="n">
         <v>0</v>
       </c>
+      <c r="R633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
@@ -34072,6 +35973,279 @@
       <c r="Q634" t="n">
         <v>0</v>
       </c>
+      <c r="R634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B635" t="n">
+        <v>1294</v>
+      </c>
+      <c r="C635" t="n">
+        <v>1332.099975585938</v>
+      </c>
+      <c r="D635" t="n">
+        <v>1282.449951171875</v>
+      </c>
+      <c r="E635" t="n">
+        <v>1293.75</v>
+      </c>
+      <c r="F635" t="n">
+        <v>1293.75</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1159150</v>
+      </c>
+      <c r="H635" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I635" t="n">
+        <v>6</v>
+      </c>
+      <c r="J635" t="n">
+        <v>10</v>
+      </c>
+      <c r="K635" t="n">
+        <v>0</v>
+      </c>
+      <c r="L635" t="n">
+        <v>0</v>
+      </c>
+      <c r="M635" t="n">
+        <v>0</v>
+      </c>
+      <c r="N635" t="n">
+        <v>24</v>
+      </c>
+      <c r="O635" t="n">
+        <v>0</v>
+      </c>
+      <c r="P635" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q635" t="n">
+        <v>0</v>
+      </c>
+      <c r="R635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B636" t="n">
+        <v>1290</v>
+      </c>
+      <c r="C636" t="n">
+        <v>1317.449951171875</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1283</v>
+      </c>
+      <c r="E636" t="n">
+        <v>1299.449951171875</v>
+      </c>
+      <c r="F636" t="n">
+        <v>1299.449951171875</v>
+      </c>
+      <c r="G636" t="n">
+        <v>562593</v>
+      </c>
+      <c r="H636" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I636" t="n">
+        <v>6</v>
+      </c>
+      <c r="J636" t="n">
+        <v>11</v>
+      </c>
+      <c r="K636" t="n">
+        <v>0</v>
+      </c>
+      <c r="L636" t="n">
+        <v>0</v>
+      </c>
+      <c r="M636" t="n">
+        <v>0</v>
+      </c>
+      <c r="N636" t="n">
+        <v>24</v>
+      </c>
+      <c r="O636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P636" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q636" t="n">
+        <v>0</v>
+      </c>
+      <c r="R636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B637" t="n">
+        <v>1314.849975585938</v>
+      </c>
+      <c r="C637" t="n">
+        <v>1328</v>
+      </c>
+      <c r="D637" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E637" t="n">
+        <v>1311.550048828125</v>
+      </c>
+      <c r="F637" t="n">
+        <v>1311.550048828125</v>
+      </c>
+      <c r="G637" t="n">
+        <v>625482</v>
+      </c>
+      <c r="H637" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I637" t="n">
+        <v>6</v>
+      </c>
+      <c r="J637" t="n">
+        <v>12</v>
+      </c>
+      <c r="K637" t="n">
+        <v>0</v>
+      </c>
+      <c r="L637" t="n">
+        <v>0</v>
+      </c>
+      <c r="M637" t="n">
+        <v>0</v>
+      </c>
+      <c r="N637" t="n">
+        <v>24</v>
+      </c>
+      <c r="O637" t="n">
+        <v>0</v>
+      </c>
+      <c r="P637" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q637" t="n">
+        <v>0</v>
+      </c>
+      <c r="R637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B638" t="n">
+        <v>1328</v>
+      </c>
+      <c r="C638" t="n">
+        <v>1349.75</v>
+      </c>
+      <c r="D638" t="n">
+        <v>1306.400024414062</v>
+      </c>
+      <c r="E638" t="n">
+        <v>1316.599975585938</v>
+      </c>
+      <c r="F638" t="n">
+        <v>1316.599975585938</v>
+      </c>
+      <c r="G638" t="n">
+        <v>546196</v>
+      </c>
+      <c r="H638" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I638" t="n">
+        <v>6</v>
+      </c>
+      <c r="J638" t="n">
+        <v>13</v>
+      </c>
+      <c r="K638" t="n">
+        <v>0</v>
+      </c>
+      <c r="L638" t="n">
+        <v>0</v>
+      </c>
+      <c r="M638" t="n">
+        <v>0</v>
+      </c>
+      <c r="N638" t="n">
+        <v>24</v>
+      </c>
+      <c r="O638" t="n">
+        <v>0</v>
+      </c>
+      <c r="P638" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q638" t="n">
+        <v>0</v>
+      </c>
+      <c r="R638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B639" t="n">
+        <v>1325</v>
+      </c>
+      <c r="C639" t="n">
+        <v>1378.699951171875</v>
+      </c>
+      <c r="D639" t="n">
+        <v>1304.900024414062</v>
+      </c>
+      <c r="E639" t="n">
+        <v>1372.050048828125</v>
+      </c>
+      <c r="F639" t="n">
+        <v>1372.050048828125</v>
+      </c>
+      <c r="G639" t="n">
+        <v>1474421</v>
+      </c>
+      <c r="H639" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I639" t="n">
+        <v>6</v>
+      </c>
+      <c r="J639" t="n">
+        <v>14</v>
+      </c>
+      <c r="K639" t="n">
+        <v>0</v>
+      </c>
+      <c r="L639" t="n">
+        <v>0</v>
+      </c>
+      <c r="M639" t="n">
+        <v>0</v>
+      </c>
+      <c r="N639" t="n">
+        <v>24</v>
+      </c>
+      <c r="O639" t="n">
+        <v>0</v>
+      </c>
+      <c r="P639" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q639" t="n">
+        <v>0</v>
+      </c>
+      <c r="R639" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -36029,7 +36029,9 @@
       <c r="Q635" t="n">
         <v>0</v>
       </c>
-      <c r="R635" t="inlineStr"/>
+      <c r="R635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
@@ -36083,7 +36085,9 @@
       <c r="Q636" t="n">
         <v>0</v>
       </c>
-      <c r="R636" t="inlineStr"/>
+      <c r="R636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
@@ -36137,7 +36141,9 @@
       <c r="Q637" t="n">
         <v>0</v>
       </c>
-      <c r="R637" t="inlineStr"/>
+      <c r="R637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
@@ -36191,7 +36197,9 @@
       <c r="Q638" t="n">
         <v>0</v>
       </c>
-      <c r="R638" t="inlineStr"/>
+      <c r="R638" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
@@ -36245,7 +36253,9 @@
       <c r="Q639" t="n">
         <v>0</v>
       </c>
-      <c r="R639" t="inlineStr"/>
+      <c r="R639" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R639"/>
+  <dimension ref="A1:R640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36257,6 +36257,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B640" t="n">
+        <v>1386.25</v>
+      </c>
+      <c r="C640" t="n">
+        <v>1404.5</v>
+      </c>
+      <c r="D640" t="n">
+        <v>1351.75</v>
+      </c>
+      <c r="E640" t="n">
+        <v>1365.150024414062</v>
+      </c>
+      <c r="F640" t="n">
+        <v>1365.150024414062</v>
+      </c>
+      <c r="G640" t="n">
+        <v>826154</v>
+      </c>
+      <c r="H640" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I640" t="n">
+        <v>6</v>
+      </c>
+      <c r="J640" t="n">
+        <v>18</v>
+      </c>
+      <c r="K640" t="n">
+        <v>0</v>
+      </c>
+      <c r="L640" t="n">
+        <v>0</v>
+      </c>
+      <c r="M640" t="n">
+        <v>0</v>
+      </c>
+      <c r="N640" t="n">
+        <v>25</v>
+      </c>
+      <c r="O640" t="n">
+        <v>0</v>
+      </c>
+      <c r="P640" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q640" t="n">
+        <v>0</v>
+      </c>
+      <c r="R640" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R640"/>
+  <dimension ref="A1:R641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36309,7 +36309,63 @@
       <c r="Q640" t="n">
         <v>0</v>
       </c>
-      <c r="R640" t="inlineStr"/>
+      <c r="R640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B641" t="n">
+        <v>1379.849975585938</v>
+      </c>
+      <c r="C641" t="n">
+        <v>1379.849975585938</v>
+      </c>
+      <c r="D641" t="n">
+        <v>1331.050048828125</v>
+      </c>
+      <c r="E641" t="n">
+        <v>1354.099975585938</v>
+      </c>
+      <c r="F641" t="n">
+        <v>1354.099975585938</v>
+      </c>
+      <c r="G641" t="n">
+        <v>902985</v>
+      </c>
+      <c r="H641" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I641" t="n">
+        <v>6</v>
+      </c>
+      <c r="J641" t="n">
+        <v>19</v>
+      </c>
+      <c r="K641" t="n">
+        <v>0</v>
+      </c>
+      <c r="L641" t="n">
+        <v>0</v>
+      </c>
+      <c r="M641" t="n">
+        <v>0</v>
+      </c>
+      <c r="N641" t="n">
+        <v>25</v>
+      </c>
+      <c r="O641" t="n">
+        <v>0</v>
+      </c>
+      <c r="P641" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q641" t="n">
+        <v>0</v>
+      </c>
+      <c r="R641" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R641"/>
+  <dimension ref="A1:R648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36365,7 +36365,387 @@
       <c r="Q641" t="n">
         <v>0</v>
       </c>
-      <c r="R641" t="inlineStr"/>
+      <c r="R641" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B642" t="n">
+        <v>1354.099975585938</v>
+      </c>
+      <c r="C642" t="n">
+        <v>1370</v>
+      </c>
+      <c r="D642" t="n">
+        <v>1345.550048828125</v>
+      </c>
+      <c r="E642" t="n">
+        <v>1355</v>
+      </c>
+      <c r="F642" t="n">
+        <v>1355</v>
+      </c>
+      <c r="G642" t="n">
+        <v>795109</v>
+      </c>
+      <c r="H642" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I642" t="n">
+        <v>6</v>
+      </c>
+      <c r="J642" t="n">
+        <v>20</v>
+      </c>
+      <c r="K642" t="n">
+        <v>0</v>
+      </c>
+      <c r="L642" t="n">
+        <v>0</v>
+      </c>
+      <c r="M642" t="n">
+        <v>0</v>
+      </c>
+      <c r="N642" t="n">
+        <v>25</v>
+      </c>
+      <c r="O642" t="n">
+        <v>0</v>
+      </c>
+      <c r="P642" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q642" t="n">
+        <v>0</v>
+      </c>
+      <c r="R642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B643" t="n">
+        <v>1360</v>
+      </c>
+      <c r="C643" t="n">
+        <v>1366.300048828125</v>
+      </c>
+      <c r="D643" t="n">
+        <v>1322</v>
+      </c>
+      <c r="E643" t="n">
+        <v>1335.199951171875</v>
+      </c>
+      <c r="F643" t="n">
+        <v>1335.199951171875</v>
+      </c>
+      <c r="G643" t="n">
+        <v>1187004</v>
+      </c>
+      <c r="H643" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I643" t="n">
+        <v>6</v>
+      </c>
+      <c r="J643" t="n">
+        <v>21</v>
+      </c>
+      <c r="K643" t="n">
+        <v>0</v>
+      </c>
+      <c r="L643" t="n">
+        <v>0</v>
+      </c>
+      <c r="M643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N643" t="n">
+        <v>25</v>
+      </c>
+      <c r="O643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q643" t="n">
+        <v>0</v>
+      </c>
+      <c r="R643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B644" t="n">
+        <v>1340.75</v>
+      </c>
+      <c r="C644" t="n">
+        <v>1342.400024414062</v>
+      </c>
+      <c r="D644" t="n">
+        <v>1273.050048828125</v>
+      </c>
+      <c r="E644" t="n">
+        <v>1285.050048828125</v>
+      </c>
+      <c r="F644" t="n">
+        <v>1285.050048828125</v>
+      </c>
+      <c r="G644" t="n">
+        <v>955142</v>
+      </c>
+      <c r="H644" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I644" t="n">
+        <v>6</v>
+      </c>
+      <c r="J644" t="n">
+        <v>24</v>
+      </c>
+      <c r="K644" t="n">
+        <v>0</v>
+      </c>
+      <c r="L644" t="n">
+        <v>0</v>
+      </c>
+      <c r="M644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N644" t="n">
+        <v>26</v>
+      </c>
+      <c r="O644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B645" t="n">
+        <v>1288.800048828125</v>
+      </c>
+      <c r="C645" t="n">
+        <v>1335</v>
+      </c>
+      <c r="D645" t="n">
+        <v>1272.800048828125</v>
+      </c>
+      <c r="E645" t="n">
+        <v>1326.300048828125</v>
+      </c>
+      <c r="F645" t="n">
+        <v>1326.300048828125</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1311446</v>
+      </c>
+      <c r="H645" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I645" t="n">
+        <v>6</v>
+      </c>
+      <c r="J645" t="n">
+        <v>25</v>
+      </c>
+      <c r="K645" t="n">
+        <v>0</v>
+      </c>
+      <c r="L645" t="n">
+        <v>0</v>
+      </c>
+      <c r="M645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N645" t="n">
+        <v>26</v>
+      </c>
+      <c r="O645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B646" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C646" t="n">
+        <v>1361.150024414062</v>
+      </c>
+      <c r="D646" t="n">
+        <v>1316.849975585938</v>
+      </c>
+      <c r="E646" t="n">
+        <v>1345.199951171875</v>
+      </c>
+      <c r="F646" t="n">
+        <v>1345.199951171875</v>
+      </c>
+      <c r="G646" t="n">
+        <v>1799720</v>
+      </c>
+      <c r="H646" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I646" t="n">
+        <v>6</v>
+      </c>
+      <c r="J646" t="n">
+        <v>26</v>
+      </c>
+      <c r="K646" t="n">
+        <v>0</v>
+      </c>
+      <c r="L646" t="n">
+        <v>0</v>
+      </c>
+      <c r="M646" t="n">
+        <v>0</v>
+      </c>
+      <c r="N646" t="n">
+        <v>26</v>
+      </c>
+      <c r="O646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q646" t="n">
+        <v>0</v>
+      </c>
+      <c r="R646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B647" t="n">
+        <v>1379.449951171875</v>
+      </c>
+      <c r="C647" t="n">
+        <v>1415</v>
+      </c>
+      <c r="D647" t="n">
+        <v>1360.25</v>
+      </c>
+      <c r="E647" t="n">
+        <v>1384.099975585938</v>
+      </c>
+      <c r="F647" t="n">
+        <v>1384.099975585938</v>
+      </c>
+      <c r="G647" t="n">
+        <v>4899306</v>
+      </c>
+      <c r="H647" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I647" t="n">
+        <v>6</v>
+      </c>
+      <c r="J647" t="n">
+        <v>27</v>
+      </c>
+      <c r="K647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L647" t="n">
+        <v>0</v>
+      </c>
+      <c r="M647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N647" t="n">
+        <v>26</v>
+      </c>
+      <c r="O647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B648" t="n">
+        <v>1395.400024414062</v>
+      </c>
+      <c r="C648" t="n">
+        <v>1458</v>
+      </c>
+      <c r="D648" t="n">
+        <v>1384.099975585938</v>
+      </c>
+      <c r="E648" t="n">
+        <v>1397.25</v>
+      </c>
+      <c r="F648" t="n">
+        <v>1397.25</v>
+      </c>
+      <c r="G648" t="n">
+        <v>2641241</v>
+      </c>
+      <c r="H648" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I648" t="n">
+        <v>6</v>
+      </c>
+      <c r="J648" t="n">
+        <v>28</v>
+      </c>
+      <c r="K648" t="n">
+        <v>0</v>
+      </c>
+      <c r="L648" t="n">
+        <v>0</v>
+      </c>
+      <c r="M648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N648" t="n">
+        <v>26</v>
+      </c>
+      <c r="O648" t="n">
+        <v>0</v>
+      </c>
+      <c r="P648" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q648" t="n">
+        <v>0</v>
+      </c>
+      <c r="R648" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -36421,7 +36421,9 @@
       <c r="Q642" t="n">
         <v>0</v>
       </c>
-      <c r="R642" t="inlineStr"/>
+      <c r="R642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
@@ -36475,7 +36477,9 @@
       <c r="Q643" t="n">
         <v>0</v>
       </c>
-      <c r="R643" t="inlineStr"/>
+      <c r="R643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
@@ -36529,7 +36533,9 @@
       <c r="Q644" t="n">
         <v>0</v>
       </c>
-      <c r="R644" t="inlineStr"/>
+      <c r="R644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
@@ -36583,7 +36589,9 @@
       <c r="Q645" t="n">
         <v>0</v>
       </c>
-      <c r="R645" t="inlineStr"/>
+      <c r="R645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
@@ -36637,7 +36645,9 @@
       <c r="Q646" t="n">
         <v>0</v>
       </c>
-      <c r="R646" t="inlineStr"/>
+      <c r="R646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
@@ -36691,7 +36701,9 @@
       <c r="Q647" t="n">
         <v>0</v>
       </c>
-      <c r="R647" t="inlineStr"/>
+      <c r="R647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
@@ -36745,7 +36757,9 @@
       <c r="Q648" t="n">
         <v>0</v>
       </c>
-      <c r="R648" t="inlineStr"/>
+      <c r="R648" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R648"/>
+  <dimension ref="A1:R653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36761,6 +36761,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B649" t="n">
+        <v>1400.199951171875</v>
+      </c>
+      <c r="C649" t="n">
+        <v>1543</v>
+      </c>
+      <c r="D649" t="n">
+        <v>1400.199951171875</v>
+      </c>
+      <c r="E649" t="n">
+        <v>1517.150024414062</v>
+      </c>
+      <c r="F649" t="n">
+        <v>1517.150024414062</v>
+      </c>
+      <c r="G649" t="n">
+        <v>3895938</v>
+      </c>
+      <c r="H649" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I649" t="n">
+        <v>7</v>
+      </c>
+      <c r="J649" t="n">
+        <v>1</v>
+      </c>
+      <c r="K649" t="n">
+        <v>0</v>
+      </c>
+      <c r="L649" t="n">
+        <v>0</v>
+      </c>
+      <c r="M649" t="n">
+        <v>0</v>
+      </c>
+      <c r="N649" t="n">
+        <v>27</v>
+      </c>
+      <c r="O649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P649" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q649" t="n">
+        <v>0</v>
+      </c>
+      <c r="R649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B650" t="n">
+        <v>1516.75</v>
+      </c>
+      <c r="C650" t="n">
+        <v>1516.75</v>
+      </c>
+      <c r="D650" t="n">
+        <v>1461.050048828125</v>
+      </c>
+      <c r="E650" t="n">
+        <v>1485.650024414062</v>
+      </c>
+      <c r="F650" t="n">
+        <v>1485.650024414062</v>
+      </c>
+      <c r="G650" t="n">
+        <v>2134391</v>
+      </c>
+      <c r="H650" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I650" t="n">
+        <v>7</v>
+      </c>
+      <c r="J650" t="n">
+        <v>2</v>
+      </c>
+      <c r="K650" t="n">
+        <v>0</v>
+      </c>
+      <c r="L650" t="n">
+        <v>0</v>
+      </c>
+      <c r="M650" t="n">
+        <v>0</v>
+      </c>
+      <c r="N650" t="n">
+        <v>27</v>
+      </c>
+      <c r="O650" t="n">
+        <v>0</v>
+      </c>
+      <c r="P650" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q650" t="n">
+        <v>0</v>
+      </c>
+      <c r="R650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B651" t="n">
+        <v>1487.5</v>
+      </c>
+      <c r="C651" t="n">
+        <v>1488.650024414062</v>
+      </c>
+      <c r="D651" t="n">
+        <v>1430.050048828125</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1462.75</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1462.75</v>
+      </c>
+      <c r="G651" t="n">
+        <v>1095139</v>
+      </c>
+      <c r="H651" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I651" t="n">
+        <v>7</v>
+      </c>
+      <c r="J651" t="n">
+        <v>3</v>
+      </c>
+      <c r="K651" t="n">
+        <v>0</v>
+      </c>
+      <c r="L651" t="n">
+        <v>0</v>
+      </c>
+      <c r="M651" t="n">
+        <v>0</v>
+      </c>
+      <c r="N651" t="n">
+        <v>27</v>
+      </c>
+      <c r="O651" t="n">
+        <v>0</v>
+      </c>
+      <c r="P651" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q651" t="n">
+        <v>0</v>
+      </c>
+      <c r="R651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B652" t="n">
+        <v>1472</v>
+      </c>
+      <c r="C652" t="n">
+        <v>1472</v>
+      </c>
+      <c r="D652" t="n">
+        <v>1405.550048828125</v>
+      </c>
+      <c r="E652" t="n">
+        <v>1420.25</v>
+      </c>
+      <c r="F652" t="n">
+        <v>1420.25</v>
+      </c>
+      <c r="G652" t="n">
+        <v>2532801</v>
+      </c>
+      <c r="H652" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I652" t="n">
+        <v>7</v>
+      </c>
+      <c r="J652" t="n">
+        <v>4</v>
+      </c>
+      <c r="K652" t="n">
+        <v>0</v>
+      </c>
+      <c r="L652" t="n">
+        <v>0</v>
+      </c>
+      <c r="M652" t="n">
+        <v>0</v>
+      </c>
+      <c r="N652" t="n">
+        <v>27</v>
+      </c>
+      <c r="O652" t="n">
+        <v>0</v>
+      </c>
+      <c r="P652" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q652" t="n">
+        <v>0</v>
+      </c>
+      <c r="R652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B653" t="n">
+        <v>1411.300048828125</v>
+      </c>
+      <c r="C653" t="n">
+        <v>1420.300048828125</v>
+      </c>
+      <c r="D653" t="n">
+        <v>1375</v>
+      </c>
+      <c r="E653" t="n">
+        <v>1379.449951171875</v>
+      </c>
+      <c r="F653" t="n">
+        <v>1379.449951171875</v>
+      </c>
+      <c r="G653" t="n">
+        <v>824765</v>
+      </c>
+      <c r="H653" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I653" t="n">
+        <v>7</v>
+      </c>
+      <c r="J653" t="n">
+        <v>5</v>
+      </c>
+      <c r="K653" t="n">
+        <v>0</v>
+      </c>
+      <c r="L653" t="n">
+        <v>0</v>
+      </c>
+      <c r="M653" t="n">
+        <v>0</v>
+      </c>
+      <c r="N653" t="n">
+        <v>27</v>
+      </c>
+      <c r="O653" t="n">
+        <v>0</v>
+      </c>
+      <c r="P653" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q653" t="n">
+        <v>0</v>
+      </c>
+      <c r="R653" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R653"/>
+  <dimension ref="A1:R662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36581,7 +36581,7 @@
         <v>26</v>
       </c>
       <c r="O645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P645" t="n">
         <v>0</v>
@@ -36805,7 +36805,7 @@
         <v>27</v>
       </c>
       <c r="O649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P649" t="n">
         <v>0</v>
@@ -36813,7 +36813,9 @@
       <c r="Q649" t="n">
         <v>0</v>
       </c>
-      <c r="R649" t="inlineStr"/>
+      <c r="R649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
@@ -36867,7 +36869,9 @@
       <c r="Q650" t="n">
         <v>0</v>
       </c>
-      <c r="R650" t="inlineStr"/>
+      <c r="R650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
@@ -36921,7 +36925,9 @@
       <c r="Q651" t="n">
         <v>0</v>
       </c>
-      <c r="R651" t="inlineStr"/>
+      <c r="R651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
@@ -36975,7 +36981,9 @@
       <c r="Q652" t="n">
         <v>0</v>
       </c>
-      <c r="R652" t="inlineStr"/>
+      <c r="R652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
@@ -37029,7 +37037,495 @@
       <c r="Q653" t="n">
         <v>0</v>
       </c>
-      <c r="R653" t="inlineStr"/>
+      <c r="R653" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B654" t="n">
+        <v>1381.150024414062</v>
+      </c>
+      <c r="C654" t="n">
+        <v>1438.400024414062</v>
+      </c>
+      <c r="D654" t="n">
+        <v>1380.300048828125</v>
+      </c>
+      <c r="E654" t="n">
+        <v>1410.900024414062</v>
+      </c>
+      <c r="F654" t="n">
+        <v>1410.900024414062</v>
+      </c>
+      <c r="G654" t="n">
+        <v>1550003</v>
+      </c>
+      <c r="H654" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I654" t="n">
+        <v>7</v>
+      </c>
+      <c r="J654" t="n">
+        <v>8</v>
+      </c>
+      <c r="K654" t="n">
+        <v>0</v>
+      </c>
+      <c r="L654" t="n">
+        <v>0</v>
+      </c>
+      <c r="M654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N654" t="n">
+        <v>28</v>
+      </c>
+      <c r="O654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q654" t="n">
+        <v>0</v>
+      </c>
+      <c r="R654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B655" t="n">
+        <v>1423.949951171875</v>
+      </c>
+      <c r="C655" t="n">
+        <v>1435</v>
+      </c>
+      <c r="D655" t="n">
+        <v>1408.949951171875</v>
+      </c>
+      <c r="E655" t="n">
+        <v>1425.099975585938</v>
+      </c>
+      <c r="F655" t="n">
+        <v>1425.099975585938</v>
+      </c>
+      <c r="G655" t="n">
+        <v>516323</v>
+      </c>
+      <c r="H655" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I655" t="n">
+        <v>7</v>
+      </c>
+      <c r="J655" t="n">
+        <v>9</v>
+      </c>
+      <c r="K655" t="n">
+        <v>0</v>
+      </c>
+      <c r="L655" t="n">
+        <v>0</v>
+      </c>
+      <c r="M655" t="n">
+        <v>0</v>
+      </c>
+      <c r="N655" t="n">
+        <v>28</v>
+      </c>
+      <c r="O655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q655" t="n">
+        <v>0</v>
+      </c>
+      <c r="R655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B656" t="n">
+        <v>1426.150024414062</v>
+      </c>
+      <c r="C656" t="n">
+        <v>1438.800048828125</v>
+      </c>
+      <c r="D656" t="n">
+        <v>1362.550048828125</v>
+      </c>
+      <c r="E656" t="n">
+        <v>1420.599975585938</v>
+      </c>
+      <c r="F656" t="n">
+        <v>1420.599975585938</v>
+      </c>
+      <c r="G656" t="n">
+        <v>672931</v>
+      </c>
+      <c r="H656" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I656" t="n">
+        <v>7</v>
+      </c>
+      <c r="J656" t="n">
+        <v>10</v>
+      </c>
+      <c r="K656" t="n">
+        <v>0</v>
+      </c>
+      <c r="L656" t="n">
+        <v>0</v>
+      </c>
+      <c r="M656" t="n">
+        <v>0</v>
+      </c>
+      <c r="N656" t="n">
+        <v>28</v>
+      </c>
+      <c r="O656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P656" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q656" t="n">
+        <v>1</v>
+      </c>
+      <c r="R656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B657" t="n">
+        <v>1419</v>
+      </c>
+      <c r="C657" t="n">
+        <v>1475</v>
+      </c>
+      <c r="D657" t="n">
+        <v>1415.400024414062</v>
+      </c>
+      <c r="E657" t="n">
+        <v>1470.849975585938</v>
+      </c>
+      <c r="F657" t="n">
+        <v>1470.849975585938</v>
+      </c>
+      <c r="G657" t="n">
+        <v>1360719</v>
+      </c>
+      <c r="H657" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I657" t="n">
+        <v>7</v>
+      </c>
+      <c r="J657" t="n">
+        <v>11</v>
+      </c>
+      <c r="K657" t="n">
+        <v>0</v>
+      </c>
+      <c r="L657" t="n">
+        <v>0</v>
+      </c>
+      <c r="M657" t="n">
+        <v>0</v>
+      </c>
+      <c r="N657" t="n">
+        <v>28</v>
+      </c>
+      <c r="O657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q657" t="n">
+        <v>0</v>
+      </c>
+      <c r="R657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B658" t="n">
+        <v>1468</v>
+      </c>
+      <c r="C658" t="n">
+        <v>1474</v>
+      </c>
+      <c r="D658" t="n">
+        <v>1419.25</v>
+      </c>
+      <c r="E658" t="n">
+        <v>1464.199951171875</v>
+      </c>
+      <c r="F658" t="n">
+        <v>1464.199951171875</v>
+      </c>
+      <c r="G658" t="n">
+        <v>697745</v>
+      </c>
+      <c r="H658" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I658" t="n">
+        <v>7</v>
+      </c>
+      <c r="J658" t="n">
+        <v>12</v>
+      </c>
+      <c r="K658" t="n">
+        <v>0</v>
+      </c>
+      <c r="L658" t="n">
+        <v>0</v>
+      </c>
+      <c r="M658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N658" t="n">
+        <v>28</v>
+      </c>
+      <c r="O658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q658" t="n">
+        <v>0</v>
+      </c>
+      <c r="R658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B659" t="n">
+        <v>1464.199951171875</v>
+      </c>
+      <c r="C659" t="n">
+        <v>1487</v>
+      </c>
+      <c r="D659" t="n">
+        <v>1429.599975585938</v>
+      </c>
+      <c r="E659" t="n">
+        <v>1442.900024414062</v>
+      </c>
+      <c r="F659" t="n">
+        <v>1442.900024414062</v>
+      </c>
+      <c r="G659" t="n">
+        <v>665275</v>
+      </c>
+      <c r="H659" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I659" t="n">
+        <v>7</v>
+      </c>
+      <c r="J659" t="n">
+        <v>15</v>
+      </c>
+      <c r="K659" t="n">
+        <v>0</v>
+      </c>
+      <c r="L659" t="n">
+        <v>0</v>
+      </c>
+      <c r="M659" t="n">
+        <v>0</v>
+      </c>
+      <c r="N659" t="n">
+        <v>29</v>
+      </c>
+      <c r="O659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P659" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q659" t="n">
+        <v>0</v>
+      </c>
+      <c r="R659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B660" t="n">
+        <v>1443</v>
+      </c>
+      <c r="C660" t="n">
+        <v>1448.800048828125</v>
+      </c>
+      <c r="D660" t="n">
+        <v>1404.300048828125</v>
+      </c>
+      <c r="E660" t="n">
+        <v>1422.550048828125</v>
+      </c>
+      <c r="F660" t="n">
+        <v>1422.550048828125</v>
+      </c>
+      <c r="G660" t="n">
+        <v>734692</v>
+      </c>
+      <c r="H660" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I660" t="n">
+        <v>7</v>
+      </c>
+      <c r="J660" t="n">
+        <v>16</v>
+      </c>
+      <c r="K660" t="n">
+        <v>0</v>
+      </c>
+      <c r="L660" t="n">
+        <v>0</v>
+      </c>
+      <c r="M660" t="n">
+        <v>0</v>
+      </c>
+      <c r="N660" t="n">
+        <v>29</v>
+      </c>
+      <c r="O660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q660" t="n">
+        <v>0</v>
+      </c>
+      <c r="R660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B661" t="n">
+        <v>1422.5</v>
+      </c>
+      <c r="C661" t="n">
+        <v>1482</v>
+      </c>
+      <c r="D661" t="n">
+        <v>1386</v>
+      </c>
+      <c r="E661" t="n">
+        <v>1454.599975585938</v>
+      </c>
+      <c r="F661" t="n">
+        <v>1454.599975585938</v>
+      </c>
+      <c r="G661" t="n">
+        <v>762255</v>
+      </c>
+      <c r="H661" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I661" t="n">
+        <v>7</v>
+      </c>
+      <c r="J661" t="n">
+        <v>18</v>
+      </c>
+      <c r="K661" t="n">
+        <v>0</v>
+      </c>
+      <c r="L661" t="n">
+        <v>0</v>
+      </c>
+      <c r="M661" t="n">
+        <v>0</v>
+      </c>
+      <c r="N661" t="n">
+        <v>29</v>
+      </c>
+      <c r="O661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q661" t="n">
+        <v>0</v>
+      </c>
+      <c r="R661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B662" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C662" t="n">
+        <v>1454.550048828125</v>
+      </c>
+      <c r="D662" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E662" t="n">
+        <v>1413.050048828125</v>
+      </c>
+      <c r="F662" t="n">
+        <v>1413.050048828125</v>
+      </c>
+      <c r="G662" t="n">
+        <v>519363</v>
+      </c>
+      <c r="H662" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I662" t="n">
+        <v>7</v>
+      </c>
+      <c r="J662" t="n">
+        <v>19</v>
+      </c>
+      <c r="K662" t="n">
+        <v>0</v>
+      </c>
+      <c r="L662" t="n">
+        <v>0</v>
+      </c>
+      <c r="M662" t="n">
+        <v>0</v>
+      </c>
+      <c r="N662" t="n">
+        <v>29</v>
+      </c>
+      <c r="O662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q662" t="n">
+        <v>0</v>
+      </c>
+      <c r="R662" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R662"/>
+  <dimension ref="A1:R672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37093,7 +37093,9 @@
       <c r="Q654" t="n">
         <v>0</v>
       </c>
-      <c r="R654" t="inlineStr"/>
+      <c r="R654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
@@ -37147,7 +37149,9 @@
       <c r="Q655" t="n">
         <v>0</v>
       </c>
-      <c r="R655" t="inlineStr"/>
+      <c r="R655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
@@ -37201,7 +37205,9 @@
       <c r="Q656" t="n">
         <v>1</v>
       </c>
-      <c r="R656" t="inlineStr"/>
+      <c r="R656" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
@@ -37255,7 +37261,9 @@
       <c r="Q657" t="n">
         <v>0</v>
       </c>
-      <c r="R657" t="inlineStr"/>
+      <c r="R657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
@@ -37309,7 +37317,9 @@
       <c r="Q658" t="n">
         <v>0</v>
       </c>
-      <c r="R658" t="inlineStr"/>
+      <c r="R658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
@@ -37363,7 +37373,9 @@
       <c r="Q659" t="n">
         <v>0</v>
       </c>
-      <c r="R659" t="inlineStr"/>
+      <c r="R659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
@@ -37417,7 +37429,9 @@
       <c r="Q660" t="n">
         <v>0</v>
       </c>
-      <c r="R660" t="inlineStr"/>
+      <c r="R660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
@@ -37471,7 +37485,9 @@
       <c r="Q661" t="n">
         <v>0</v>
       </c>
-      <c r="R661" t="inlineStr"/>
+      <c r="R661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
@@ -37525,7 +37541,549 @@
       <c r="Q662" t="n">
         <v>0</v>
       </c>
-      <c r="R662" t="inlineStr"/>
+      <c r="R662" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B663" t="n">
+        <v>1423.699951171875</v>
+      </c>
+      <c r="C663" t="n">
+        <v>1475</v>
+      </c>
+      <c r="D663" t="n">
+        <v>1394.150024414062</v>
+      </c>
+      <c r="E663" t="n">
+        <v>1465.800048828125</v>
+      </c>
+      <c r="F663" t="n">
+        <v>1465.800048828125</v>
+      </c>
+      <c r="G663" t="n">
+        <v>770848</v>
+      </c>
+      <c r="H663" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I663" t="n">
+        <v>7</v>
+      </c>
+      <c r="J663" t="n">
+        <v>22</v>
+      </c>
+      <c r="K663" t="n">
+        <v>0</v>
+      </c>
+      <c r="L663" t="n">
+        <v>0</v>
+      </c>
+      <c r="M663" t="n">
+        <v>0</v>
+      </c>
+      <c r="N663" t="n">
+        <v>30</v>
+      </c>
+      <c r="O663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q663" t="n">
+        <v>0</v>
+      </c>
+      <c r="R663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B664" t="n">
+        <v>1465</v>
+      </c>
+      <c r="C664" t="n">
+        <v>1473</v>
+      </c>
+      <c r="D664" t="n">
+        <v>1434.050048828125</v>
+      </c>
+      <c r="E664" t="n">
+        <v>1450.300048828125</v>
+      </c>
+      <c r="F664" t="n">
+        <v>1450.300048828125</v>
+      </c>
+      <c r="G664" t="n">
+        <v>543452</v>
+      </c>
+      <c r="H664" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I664" t="n">
+        <v>7</v>
+      </c>
+      <c r="J664" t="n">
+        <v>23</v>
+      </c>
+      <c r="K664" t="n">
+        <v>0</v>
+      </c>
+      <c r="L664" t="n">
+        <v>0</v>
+      </c>
+      <c r="M664" t="n">
+        <v>0</v>
+      </c>
+      <c r="N664" t="n">
+        <v>30</v>
+      </c>
+      <c r="O664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q664" t="n">
+        <v>0</v>
+      </c>
+      <c r="R664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B665" t="n">
+        <v>1428.550048828125</v>
+      </c>
+      <c r="C665" t="n">
+        <v>1510.199951171875</v>
+      </c>
+      <c r="D665" t="n">
+        <v>1415.300048828125</v>
+      </c>
+      <c r="E665" t="n">
+        <v>1497.75</v>
+      </c>
+      <c r="F665" t="n">
+        <v>1497.75</v>
+      </c>
+      <c r="G665" t="n">
+        <v>1159657</v>
+      </c>
+      <c r="H665" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I665" t="n">
+        <v>7</v>
+      </c>
+      <c r="J665" t="n">
+        <v>24</v>
+      </c>
+      <c r="K665" t="n">
+        <v>0</v>
+      </c>
+      <c r="L665" t="n">
+        <v>0</v>
+      </c>
+      <c r="M665" t="n">
+        <v>0</v>
+      </c>
+      <c r="N665" t="n">
+        <v>30</v>
+      </c>
+      <c r="O665" t="n">
+        <v>0</v>
+      </c>
+      <c r="P665" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q665" t="n">
+        <v>0</v>
+      </c>
+      <c r="R665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B666" t="n">
+        <v>1480.75</v>
+      </c>
+      <c r="C666" t="n">
+        <v>1490.050048828125</v>
+      </c>
+      <c r="D666" t="n">
+        <v>1454.099975585938</v>
+      </c>
+      <c r="E666" t="n">
+        <v>1476.050048828125</v>
+      </c>
+      <c r="F666" t="n">
+        <v>1476.050048828125</v>
+      </c>
+      <c r="G666" t="n">
+        <v>291915</v>
+      </c>
+      <c r="H666" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I666" t="n">
+        <v>7</v>
+      </c>
+      <c r="J666" t="n">
+        <v>25</v>
+      </c>
+      <c r="K666" t="n">
+        <v>0</v>
+      </c>
+      <c r="L666" t="n">
+        <v>0</v>
+      </c>
+      <c r="M666" t="n">
+        <v>0</v>
+      </c>
+      <c r="N666" t="n">
+        <v>30</v>
+      </c>
+      <c r="O666" t="n">
+        <v>0</v>
+      </c>
+      <c r="P666" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q666" t="n">
+        <v>0</v>
+      </c>
+      <c r="R666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B667" t="n">
+        <v>1475.199951171875</v>
+      </c>
+      <c r="C667" t="n">
+        <v>1512</v>
+      </c>
+      <c r="D667" t="n">
+        <v>1466</v>
+      </c>
+      <c r="E667" t="n">
+        <v>1498.900024414062</v>
+      </c>
+      <c r="F667" t="n">
+        <v>1498.900024414062</v>
+      </c>
+      <c r="G667" t="n">
+        <v>359770</v>
+      </c>
+      <c r="H667" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I667" t="n">
+        <v>7</v>
+      </c>
+      <c r="J667" t="n">
+        <v>26</v>
+      </c>
+      <c r="K667" t="n">
+        <v>0</v>
+      </c>
+      <c r="L667" t="n">
+        <v>0</v>
+      </c>
+      <c r="M667" t="n">
+        <v>0</v>
+      </c>
+      <c r="N667" t="n">
+        <v>30</v>
+      </c>
+      <c r="O667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q667" t="n">
+        <v>0</v>
+      </c>
+      <c r="R667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B668" t="n">
+        <v>1499</v>
+      </c>
+      <c r="C668" t="n">
+        <v>1521.699951171875</v>
+      </c>
+      <c r="D668" t="n">
+        <v>1466.449951171875</v>
+      </c>
+      <c r="E668" t="n">
+        <v>1493.25</v>
+      </c>
+      <c r="F668" t="n">
+        <v>1493.25</v>
+      </c>
+      <c r="G668" t="n">
+        <v>1019431</v>
+      </c>
+      <c r="H668" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I668" t="n">
+        <v>7</v>
+      </c>
+      <c r="J668" t="n">
+        <v>29</v>
+      </c>
+      <c r="K668" t="n">
+        <v>0</v>
+      </c>
+      <c r="L668" t="n">
+        <v>0</v>
+      </c>
+      <c r="M668" t="n">
+        <v>0</v>
+      </c>
+      <c r="N668" t="n">
+        <v>31</v>
+      </c>
+      <c r="O668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q668" t="n">
+        <v>0</v>
+      </c>
+      <c r="R668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B669" t="n">
+        <v>1484</v>
+      </c>
+      <c r="C669" t="n">
+        <v>1497.349975585938</v>
+      </c>
+      <c r="D669" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E669" t="n">
+        <v>1456.199951171875</v>
+      </c>
+      <c r="F669" t="n">
+        <v>1456.199951171875</v>
+      </c>
+      <c r="G669" t="n">
+        <v>603034</v>
+      </c>
+      <c r="H669" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I669" t="n">
+        <v>7</v>
+      </c>
+      <c r="J669" t="n">
+        <v>30</v>
+      </c>
+      <c r="K669" t="n">
+        <v>0</v>
+      </c>
+      <c r="L669" t="n">
+        <v>0</v>
+      </c>
+      <c r="M669" t="n">
+        <v>0</v>
+      </c>
+      <c r="N669" t="n">
+        <v>31</v>
+      </c>
+      <c r="O669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q669" t="n">
+        <v>0</v>
+      </c>
+      <c r="R669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B670" t="n">
+        <v>1460.050048828125</v>
+      </c>
+      <c r="C670" t="n">
+        <v>1485</v>
+      </c>
+      <c r="D670" t="n">
+        <v>1439.599975585938</v>
+      </c>
+      <c r="E670" t="n">
+        <v>1453</v>
+      </c>
+      <c r="F670" t="n">
+        <v>1453</v>
+      </c>
+      <c r="G670" t="n">
+        <v>743445</v>
+      </c>
+      <c r="H670" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I670" t="n">
+        <v>7</v>
+      </c>
+      <c r="J670" t="n">
+        <v>31</v>
+      </c>
+      <c r="K670" t="n">
+        <v>0</v>
+      </c>
+      <c r="L670" t="n">
+        <v>0</v>
+      </c>
+      <c r="M670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N670" t="n">
+        <v>31</v>
+      </c>
+      <c r="O670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q670" t="n">
+        <v>0</v>
+      </c>
+      <c r="R670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B671" t="n">
+        <v>1458.650024414062</v>
+      </c>
+      <c r="C671" t="n">
+        <v>1465.349975585938</v>
+      </c>
+      <c r="D671" t="n">
+        <v>1424.199951171875</v>
+      </c>
+      <c r="E671" t="n">
+        <v>1441.25</v>
+      </c>
+      <c r="F671" t="n">
+        <v>1441.25</v>
+      </c>
+      <c r="G671" t="n">
+        <v>1764030</v>
+      </c>
+      <c r="H671" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I671" t="n">
+        <v>8</v>
+      </c>
+      <c r="J671" t="n">
+        <v>1</v>
+      </c>
+      <c r="K671" t="n">
+        <v>0</v>
+      </c>
+      <c r="L671" t="n">
+        <v>0</v>
+      </c>
+      <c r="M671" t="n">
+        <v>0</v>
+      </c>
+      <c r="N671" t="n">
+        <v>31</v>
+      </c>
+      <c r="O671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q671" t="n">
+        <v>0</v>
+      </c>
+      <c r="R671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B672" t="n">
+        <v>1430.150024414062</v>
+      </c>
+      <c r="C672" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D672" t="n">
+        <v>1430.099975585938</v>
+      </c>
+      <c r="E672" t="n">
+        <v>1500.800048828125</v>
+      </c>
+      <c r="F672" t="n">
+        <v>1500.800048828125</v>
+      </c>
+      <c r="G672" t="n">
+        <v>1001141</v>
+      </c>
+      <c r="H672" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I672" t="n">
+        <v>8</v>
+      </c>
+      <c r="J672" t="n">
+        <v>2</v>
+      </c>
+      <c r="K672" t="n">
+        <v>0</v>
+      </c>
+      <c r="L672" t="n">
+        <v>0</v>
+      </c>
+      <c r="M672" t="n">
+        <v>0</v>
+      </c>
+      <c r="N672" t="n">
+        <v>31</v>
+      </c>
+      <c r="O672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q672" t="n">
+        <v>0</v>
+      </c>
+      <c r="R672" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R672"/>
+  <dimension ref="A1:R677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37597,7 +37597,9 @@
       <c r="Q663" t="n">
         <v>0</v>
       </c>
-      <c r="R663" t="inlineStr"/>
+      <c r="R663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
@@ -37651,7 +37653,9 @@
       <c r="Q664" t="n">
         <v>0</v>
       </c>
-      <c r="R664" t="inlineStr"/>
+      <c r="R664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
@@ -37705,7 +37709,9 @@
       <c r="Q665" t="n">
         <v>0</v>
       </c>
-      <c r="R665" t="inlineStr"/>
+      <c r="R665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
@@ -37759,7 +37765,9 @@
       <c r="Q666" t="n">
         <v>0</v>
       </c>
-      <c r="R666" t="inlineStr"/>
+      <c r="R666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
@@ -37813,7 +37821,9 @@
       <c r="Q667" t="n">
         <v>0</v>
       </c>
-      <c r="R667" t="inlineStr"/>
+      <c r="R667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
@@ -37867,7 +37877,9 @@
       <c r="Q668" t="n">
         <v>0</v>
       </c>
-      <c r="R668" t="inlineStr"/>
+      <c r="R668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
@@ -37921,7 +37933,9 @@
       <c r="Q669" t="n">
         <v>0</v>
       </c>
-      <c r="R669" t="inlineStr"/>
+      <c r="R669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
@@ -37975,7 +37989,9 @@
       <c r="Q670" t="n">
         <v>0</v>
       </c>
-      <c r="R670" t="inlineStr"/>
+      <c r="R670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
@@ -38029,7 +38045,9 @@
       <c r="Q671" t="n">
         <v>0</v>
       </c>
-      <c r="R671" t="inlineStr"/>
+      <c r="R671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
@@ -38083,7 +38101,279 @@
       <c r="Q672" t="n">
         <v>0</v>
       </c>
-      <c r="R672" t="inlineStr"/>
+      <c r="R672" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B673" t="n">
+        <v>1484.449951171875</v>
+      </c>
+      <c r="C673" t="n">
+        <v>1518.949951171875</v>
+      </c>
+      <c r="D673" t="n">
+        <v>1429.150024414062</v>
+      </c>
+      <c r="E673" t="n">
+        <v>1473.5</v>
+      </c>
+      <c r="F673" t="n">
+        <v>1473.5</v>
+      </c>
+      <c r="G673" t="n">
+        <v>1205266</v>
+      </c>
+      <c r="H673" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I673" t="n">
+        <v>8</v>
+      </c>
+      <c r="J673" t="n">
+        <v>5</v>
+      </c>
+      <c r="K673" t="n">
+        <v>0</v>
+      </c>
+      <c r="L673" t="n">
+        <v>0</v>
+      </c>
+      <c r="M673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N673" t="n">
+        <v>32</v>
+      </c>
+      <c r="O673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q673" t="n">
+        <v>0</v>
+      </c>
+      <c r="R673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B674" t="n">
+        <v>1486.449951171875</v>
+      </c>
+      <c r="C674" t="n">
+        <v>1528</v>
+      </c>
+      <c r="D674" t="n">
+        <v>1416</v>
+      </c>
+      <c r="E674" t="n">
+        <v>1434.849975585938</v>
+      </c>
+      <c r="F674" t="n">
+        <v>1434.849975585938</v>
+      </c>
+      <c r="G674" t="n">
+        <v>1062147</v>
+      </c>
+      <c r="H674" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I674" t="n">
+        <v>8</v>
+      </c>
+      <c r="J674" t="n">
+        <v>6</v>
+      </c>
+      <c r="K674" t="n">
+        <v>0</v>
+      </c>
+      <c r="L674" t="n">
+        <v>0</v>
+      </c>
+      <c r="M674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N674" t="n">
+        <v>32</v>
+      </c>
+      <c r="O674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q674" t="n">
+        <v>0</v>
+      </c>
+      <c r="R674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B675" t="n">
+        <v>1512</v>
+      </c>
+      <c r="C675" t="n">
+        <v>1551.949951171875</v>
+      </c>
+      <c r="D675" t="n">
+        <v>1432</v>
+      </c>
+      <c r="E675" t="n">
+        <v>1513.5</v>
+      </c>
+      <c r="F675" t="n">
+        <v>1513.5</v>
+      </c>
+      <c r="G675" t="n">
+        <v>2670502</v>
+      </c>
+      <c r="H675" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I675" t="n">
+        <v>8</v>
+      </c>
+      <c r="J675" t="n">
+        <v>7</v>
+      </c>
+      <c r="K675" t="n">
+        <v>0</v>
+      </c>
+      <c r="L675" t="n">
+        <v>0</v>
+      </c>
+      <c r="M675" t="n">
+        <v>0</v>
+      </c>
+      <c r="N675" t="n">
+        <v>32</v>
+      </c>
+      <c r="O675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q675" t="n">
+        <v>0</v>
+      </c>
+      <c r="R675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B676" t="n">
+        <v>1510</v>
+      </c>
+      <c r="C676" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D676" t="n">
+        <v>1455</v>
+      </c>
+      <c r="E676" t="n">
+        <v>1476</v>
+      </c>
+      <c r="F676" t="n">
+        <v>1476</v>
+      </c>
+      <c r="G676" t="n">
+        <v>1006758</v>
+      </c>
+      <c r="H676" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I676" t="n">
+        <v>8</v>
+      </c>
+      <c r="J676" t="n">
+        <v>8</v>
+      </c>
+      <c r="K676" t="n">
+        <v>0</v>
+      </c>
+      <c r="L676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N676" t="n">
+        <v>32</v>
+      </c>
+      <c r="O676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B677" t="n">
+        <v>1489.949951171875</v>
+      </c>
+      <c r="C677" t="n">
+        <v>1489.949951171875</v>
+      </c>
+      <c r="D677" t="n">
+        <v>1432.199951171875</v>
+      </c>
+      <c r="E677" t="n">
+        <v>1462.449951171875</v>
+      </c>
+      <c r="F677" t="n">
+        <v>1462.449951171875</v>
+      </c>
+      <c r="G677" t="n">
+        <v>987502</v>
+      </c>
+      <c r="H677" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I677" t="n">
+        <v>8</v>
+      </c>
+      <c r="J677" t="n">
+        <v>9</v>
+      </c>
+      <c r="K677" t="n">
+        <v>0</v>
+      </c>
+      <c r="L677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N677" t="n">
+        <v>32</v>
+      </c>
+      <c r="O677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q677" t="n">
+        <v>0</v>
+      </c>
+      <c r="R677" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R677"/>
+  <dimension ref="A1:R681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38157,7 +38157,9 @@
       <c r="Q673" t="n">
         <v>0</v>
       </c>
-      <c r="R673" t="inlineStr"/>
+      <c r="R673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
@@ -38211,7 +38213,9 @@
       <c r="Q674" t="n">
         <v>0</v>
       </c>
-      <c r="R674" t="inlineStr"/>
+      <c r="R674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
@@ -38265,7 +38269,9 @@
       <c r="Q675" t="n">
         <v>0</v>
       </c>
-      <c r="R675" t="inlineStr"/>
+      <c r="R675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
@@ -38319,7 +38325,9 @@
       <c r="Q676" t="n">
         <v>0</v>
       </c>
-      <c r="R676" t="inlineStr"/>
+      <c r="R676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
@@ -38373,7 +38381,225 @@
       <c r="Q677" t="n">
         <v>0</v>
       </c>
-      <c r="R677" t="inlineStr"/>
+      <c r="R677" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B678" t="n">
+        <v>1435</v>
+      </c>
+      <c r="C678" t="n">
+        <v>1462.400024414062</v>
+      </c>
+      <c r="D678" t="n">
+        <v>1421.300048828125</v>
+      </c>
+      <c r="E678" t="n">
+        <v>1428.099975585938</v>
+      </c>
+      <c r="F678" t="n">
+        <v>1428.099975585938</v>
+      </c>
+      <c r="G678" t="n">
+        <v>1000263</v>
+      </c>
+      <c r="H678" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I678" t="n">
+        <v>8</v>
+      </c>
+      <c r="J678" t="n">
+        <v>12</v>
+      </c>
+      <c r="K678" t="n">
+        <v>0</v>
+      </c>
+      <c r="L678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N678" t="n">
+        <v>33</v>
+      </c>
+      <c r="O678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B679" t="n">
+        <v>1449.349975585938</v>
+      </c>
+      <c r="C679" t="n">
+        <v>1490</v>
+      </c>
+      <c r="D679" t="n">
+        <v>1437.900024414062</v>
+      </c>
+      <c r="E679" t="n">
+        <v>1482.650024414062</v>
+      </c>
+      <c r="F679" t="n">
+        <v>1482.650024414062</v>
+      </c>
+      <c r="G679" t="n">
+        <v>911312</v>
+      </c>
+      <c r="H679" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I679" t="n">
+        <v>8</v>
+      </c>
+      <c r="J679" t="n">
+        <v>13</v>
+      </c>
+      <c r="K679" t="n">
+        <v>0</v>
+      </c>
+      <c r="L679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N679" t="n">
+        <v>33</v>
+      </c>
+      <c r="O679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B680" t="n">
+        <v>1484.050048828125</v>
+      </c>
+      <c r="C680" t="n">
+        <v>1709.949951171875</v>
+      </c>
+      <c r="D680" t="n">
+        <v>1484.050048828125</v>
+      </c>
+      <c r="E680" t="n">
+        <v>1574.050048828125</v>
+      </c>
+      <c r="F680" t="n">
+        <v>1574.050048828125</v>
+      </c>
+      <c r="G680" t="n">
+        <v>10969737</v>
+      </c>
+      <c r="H680" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I680" t="n">
+        <v>8</v>
+      </c>
+      <c r="J680" t="n">
+        <v>14</v>
+      </c>
+      <c r="K680" t="n">
+        <v>0</v>
+      </c>
+      <c r="L680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N680" t="n">
+        <v>33</v>
+      </c>
+      <c r="O680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q680" t="n">
+        <v>0</v>
+      </c>
+      <c r="R680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B681" t="n">
+        <v>1585</v>
+      </c>
+      <c r="C681" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D681" t="n">
+        <v>1562.050048828125</v>
+      </c>
+      <c r="E681" t="n">
+        <v>1691.949951171875</v>
+      </c>
+      <c r="F681" t="n">
+        <v>1691.949951171875</v>
+      </c>
+      <c r="G681" t="n">
+        <v>3053564</v>
+      </c>
+      <c r="H681" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I681" t="n">
+        <v>8</v>
+      </c>
+      <c r="J681" t="n">
+        <v>16</v>
+      </c>
+      <c r="K681" t="n">
+        <v>0</v>
+      </c>
+      <c r="L681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N681" t="n">
+        <v>33</v>
+      </c>
+      <c r="O681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R681" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R681"/>
+  <dimension ref="A1:R686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38437,7 +38437,9 @@
       <c r="Q678" t="n">
         <v>0</v>
       </c>
-      <c r="R678" t="inlineStr"/>
+      <c r="R678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
@@ -38491,7 +38493,9 @@
       <c r="Q679" t="n">
         <v>0</v>
       </c>
-      <c r="R679" t="inlineStr"/>
+      <c r="R679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
@@ -38545,7 +38549,9 @@
       <c r="Q680" t="n">
         <v>0</v>
       </c>
-      <c r="R680" t="inlineStr"/>
+      <c r="R680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
@@ -38599,7 +38605,279 @@
       <c r="Q681" t="n">
         <v>0</v>
       </c>
-      <c r="R681" t="inlineStr"/>
+      <c r="R681" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B682" t="n">
+        <v>1703.849975585938</v>
+      </c>
+      <c r="C682" t="n">
+        <v>1703.849975585938</v>
+      </c>
+      <c r="D682" t="n">
+        <v>1590.150024414062</v>
+      </c>
+      <c r="E682" t="n">
+        <v>1652.5</v>
+      </c>
+      <c r="F682" t="n">
+        <v>1652.5</v>
+      </c>
+      <c r="G682" t="n">
+        <v>2067265</v>
+      </c>
+      <c r="H682" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I682" t="n">
+        <v>8</v>
+      </c>
+      <c r="J682" t="n">
+        <v>19</v>
+      </c>
+      <c r="K682" t="n">
+        <v>0</v>
+      </c>
+      <c r="L682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N682" t="n">
+        <v>34</v>
+      </c>
+      <c r="O682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B683" t="n">
+        <v>1653</v>
+      </c>
+      <c r="C683" t="n">
+        <v>1763.199951171875</v>
+      </c>
+      <c r="D683" t="n">
+        <v>1643.050048828125</v>
+      </c>
+      <c r="E683" t="n">
+        <v>1661.050048828125</v>
+      </c>
+      <c r="F683" t="n">
+        <v>1661.050048828125</v>
+      </c>
+      <c r="G683" t="n">
+        <v>2188330</v>
+      </c>
+      <c r="H683" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I683" t="n">
+        <v>8</v>
+      </c>
+      <c r="J683" t="n">
+        <v>20</v>
+      </c>
+      <c r="K683" t="n">
+        <v>0</v>
+      </c>
+      <c r="L683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N683" t="n">
+        <v>34</v>
+      </c>
+      <c r="O683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B684" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C684" t="n">
+        <v>1700.800048828125</v>
+      </c>
+      <c r="D684" t="n">
+        <v>1671.050048828125</v>
+      </c>
+      <c r="E684" t="n">
+        <v>1683.550048828125</v>
+      </c>
+      <c r="F684" t="n">
+        <v>1683.550048828125</v>
+      </c>
+      <c r="G684" t="n">
+        <v>931841</v>
+      </c>
+      <c r="H684" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I684" t="n">
+        <v>8</v>
+      </c>
+      <c r="J684" t="n">
+        <v>21</v>
+      </c>
+      <c r="K684" t="n">
+        <v>0</v>
+      </c>
+      <c r="L684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N684" t="n">
+        <v>34</v>
+      </c>
+      <c r="O684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B685" t="n">
+        <v>1685</v>
+      </c>
+      <c r="C685" t="n">
+        <v>1706</v>
+      </c>
+      <c r="D685" t="n">
+        <v>1656.949951171875</v>
+      </c>
+      <c r="E685" t="n">
+        <v>1696.050048828125</v>
+      </c>
+      <c r="F685" t="n">
+        <v>1696.050048828125</v>
+      </c>
+      <c r="G685" t="n">
+        <v>645564</v>
+      </c>
+      <c r="H685" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I685" t="n">
+        <v>8</v>
+      </c>
+      <c r="J685" t="n">
+        <v>22</v>
+      </c>
+      <c r="K685" t="n">
+        <v>0</v>
+      </c>
+      <c r="L685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N685" t="n">
+        <v>34</v>
+      </c>
+      <c r="O685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B686" t="n">
+        <v>1704.550048828125</v>
+      </c>
+      <c r="C686" t="n">
+        <v>1726.099975585938</v>
+      </c>
+      <c r="D686" t="n">
+        <v>1675</v>
+      </c>
+      <c r="E686" t="n">
+        <v>1685.949951171875</v>
+      </c>
+      <c r="F686" t="n">
+        <v>1685.949951171875</v>
+      </c>
+      <c r="G686" t="n">
+        <v>674240</v>
+      </c>
+      <c r="H686" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I686" t="n">
+        <v>8</v>
+      </c>
+      <c r="J686" t="n">
+        <v>23</v>
+      </c>
+      <c r="K686" t="n">
+        <v>0</v>
+      </c>
+      <c r="L686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N686" t="n">
+        <v>34</v>
+      </c>
+      <c r="O686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q686" t="n">
+        <v>0</v>
+      </c>
+      <c r="R686" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R686"/>
+  <dimension ref="A1:R691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38661,7 +38661,9 @@
       <c r="Q682" t="n">
         <v>0</v>
       </c>
-      <c r="R682" t="inlineStr"/>
+      <c r="R682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
@@ -38715,7 +38717,9 @@
       <c r="Q683" t="n">
         <v>0</v>
       </c>
-      <c r="R683" t="inlineStr"/>
+      <c r="R683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
@@ -38769,7 +38773,9 @@
       <c r="Q684" t="n">
         <v>0</v>
       </c>
-      <c r="R684" t="inlineStr"/>
+      <c r="R684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
@@ -38823,7 +38829,9 @@
       <c r="Q685" t="n">
         <v>0</v>
       </c>
-      <c r="R685" t="inlineStr"/>
+      <c r="R685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
@@ -38877,7 +38885,279 @@
       <c r="Q686" t="n">
         <v>0</v>
       </c>
-      <c r="R686" t="inlineStr"/>
+      <c r="R686" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B687" t="n">
+        <v>1701.099975585938</v>
+      </c>
+      <c r="C687" t="n">
+        <v>1849.900024414062</v>
+      </c>
+      <c r="D687" t="n">
+        <v>1670.050048828125</v>
+      </c>
+      <c r="E687" t="n">
+        <v>1819.349975585938</v>
+      </c>
+      <c r="F687" t="n">
+        <v>1819.349975585938</v>
+      </c>
+      <c r="G687" t="n">
+        <v>2525922</v>
+      </c>
+      <c r="H687" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I687" t="n">
+        <v>8</v>
+      </c>
+      <c r="J687" t="n">
+        <v>26</v>
+      </c>
+      <c r="K687" t="n">
+        <v>0</v>
+      </c>
+      <c r="L687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N687" t="n">
+        <v>35</v>
+      </c>
+      <c r="O687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B688" t="n">
+        <v>1803.050048828125</v>
+      </c>
+      <c r="C688" t="n">
+        <v>1803.050048828125</v>
+      </c>
+      <c r="D688" t="n">
+        <v>1767.099975585938</v>
+      </c>
+      <c r="E688" t="n">
+        <v>1777.949951171875</v>
+      </c>
+      <c r="F688" t="n">
+        <v>1777.949951171875</v>
+      </c>
+      <c r="G688" t="n">
+        <v>1082557</v>
+      </c>
+      <c r="H688" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I688" t="n">
+        <v>8</v>
+      </c>
+      <c r="J688" t="n">
+        <v>27</v>
+      </c>
+      <c r="K688" t="n">
+        <v>0</v>
+      </c>
+      <c r="L688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N688" t="n">
+        <v>35</v>
+      </c>
+      <c r="O688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B689" t="n">
+        <v>1782.349975585938</v>
+      </c>
+      <c r="C689" t="n">
+        <v>1782.849975585938</v>
+      </c>
+      <c r="D689" t="n">
+        <v>1726</v>
+      </c>
+      <c r="E689" t="n">
+        <v>1737.900024414062</v>
+      </c>
+      <c r="F689" t="n">
+        <v>1737.900024414062</v>
+      </c>
+      <c r="G689" t="n">
+        <v>701465</v>
+      </c>
+      <c r="H689" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I689" t="n">
+        <v>8</v>
+      </c>
+      <c r="J689" t="n">
+        <v>28</v>
+      </c>
+      <c r="K689" t="n">
+        <v>0</v>
+      </c>
+      <c r="L689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N689" t="n">
+        <v>35</v>
+      </c>
+      <c r="O689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B690" t="n">
+        <v>1780</v>
+      </c>
+      <c r="C690" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D690" t="n">
+        <v>1718</v>
+      </c>
+      <c r="E690" t="n">
+        <v>1726.550048828125</v>
+      </c>
+      <c r="F690" t="n">
+        <v>1726.550048828125</v>
+      </c>
+      <c r="G690" t="n">
+        <v>1921009</v>
+      </c>
+      <c r="H690" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I690" t="n">
+        <v>8</v>
+      </c>
+      <c r="J690" t="n">
+        <v>29</v>
+      </c>
+      <c r="K690" t="n">
+        <v>0</v>
+      </c>
+      <c r="L690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N690" t="n">
+        <v>35</v>
+      </c>
+      <c r="O690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q690" t="n">
+        <v>0</v>
+      </c>
+      <c r="R690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B691" t="n">
+        <v>1749.150024414062</v>
+      </c>
+      <c r="C691" t="n">
+        <v>1810</v>
+      </c>
+      <c r="D691" t="n">
+        <v>1698</v>
+      </c>
+      <c r="E691" t="n">
+        <v>1772.25</v>
+      </c>
+      <c r="F691" t="n">
+        <v>1772.25</v>
+      </c>
+      <c r="G691" t="n">
+        <v>2606668</v>
+      </c>
+      <c r="H691" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I691" t="n">
+        <v>8</v>
+      </c>
+      <c r="J691" t="n">
+        <v>30</v>
+      </c>
+      <c r="K691" t="n">
+        <v>0</v>
+      </c>
+      <c r="L691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N691" t="n">
+        <v>35</v>
+      </c>
+      <c r="O691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R691" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R691"/>
+  <dimension ref="A1:R696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38941,7 +38941,9 @@
       <c r="Q687" t="n">
         <v>0</v>
       </c>
-      <c r="R687" t="inlineStr"/>
+      <c r="R687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
@@ -38995,7 +38997,9 @@
       <c r="Q688" t="n">
         <v>0</v>
       </c>
-      <c r="R688" t="inlineStr"/>
+      <c r="R688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
@@ -39049,7 +39053,9 @@
       <c r="Q689" t="n">
         <v>0</v>
       </c>
-      <c r="R689" t="inlineStr"/>
+      <c r="R689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
@@ -39103,7 +39109,9 @@
       <c r="Q690" t="n">
         <v>0</v>
       </c>
-      <c r="R690" t="inlineStr"/>
+      <c r="R690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
@@ -39157,7 +39165,279 @@
       <c r="Q691" t="n">
         <v>0</v>
       </c>
-      <c r="R691" t="inlineStr"/>
+      <c r="R691" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B692" t="n">
+        <v>1783</v>
+      </c>
+      <c r="C692" t="n">
+        <v>1783.5</v>
+      </c>
+      <c r="D692" t="n">
+        <v>1719</v>
+      </c>
+      <c r="E692" t="n">
+        <v>1749.5</v>
+      </c>
+      <c r="F692" t="n">
+        <v>1749.5</v>
+      </c>
+      <c r="G692" t="n">
+        <v>1043919</v>
+      </c>
+      <c r="H692" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I692" t="n">
+        <v>9</v>
+      </c>
+      <c r="J692" t="n">
+        <v>2</v>
+      </c>
+      <c r="K692" t="n">
+        <v>0</v>
+      </c>
+      <c r="L692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N692" t="n">
+        <v>36</v>
+      </c>
+      <c r="O692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B693" t="n">
+        <v>1735.050048828125</v>
+      </c>
+      <c r="C693" t="n">
+        <v>1743.449951171875</v>
+      </c>
+      <c r="D693" t="n">
+        <v>1712.449951171875</v>
+      </c>
+      <c r="E693" t="n">
+        <v>1718.75</v>
+      </c>
+      <c r="F693" t="n">
+        <v>1718.75</v>
+      </c>
+      <c r="G693" t="n">
+        <v>1667552</v>
+      </c>
+      <c r="H693" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I693" t="n">
+        <v>9</v>
+      </c>
+      <c r="J693" t="n">
+        <v>3</v>
+      </c>
+      <c r="K693" t="n">
+        <v>0</v>
+      </c>
+      <c r="L693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N693" t="n">
+        <v>36</v>
+      </c>
+      <c r="O693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B694" t="n">
+        <v>1718.75</v>
+      </c>
+      <c r="C694" t="n">
+        <v>1748.75</v>
+      </c>
+      <c r="D694" t="n">
+        <v>1709.099975585938</v>
+      </c>
+      <c r="E694" t="n">
+        <v>1729.550048828125</v>
+      </c>
+      <c r="F694" t="n">
+        <v>1729.550048828125</v>
+      </c>
+      <c r="G694" t="n">
+        <v>1194203</v>
+      </c>
+      <c r="H694" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I694" t="n">
+        <v>9</v>
+      </c>
+      <c r="J694" t="n">
+        <v>4</v>
+      </c>
+      <c r="K694" t="n">
+        <v>0</v>
+      </c>
+      <c r="L694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N694" t="n">
+        <v>36</v>
+      </c>
+      <c r="O694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B695" t="n">
+        <v>1728</v>
+      </c>
+      <c r="C695" t="n">
+        <v>1755</v>
+      </c>
+      <c r="D695" t="n">
+        <v>1716.199951171875</v>
+      </c>
+      <c r="E695" t="n">
+        <v>1720.75</v>
+      </c>
+      <c r="F695" t="n">
+        <v>1720.75</v>
+      </c>
+      <c r="G695" t="n">
+        <v>759833</v>
+      </c>
+      <c r="H695" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I695" t="n">
+        <v>9</v>
+      </c>
+      <c r="J695" t="n">
+        <v>5</v>
+      </c>
+      <c r="K695" t="n">
+        <v>0</v>
+      </c>
+      <c r="L695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N695" t="n">
+        <v>36</v>
+      </c>
+      <c r="O695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B696" t="n">
+        <v>1721.75</v>
+      </c>
+      <c r="C696" t="n">
+        <v>1739</v>
+      </c>
+      <c r="D696" t="n">
+        <v>1710.900024414062</v>
+      </c>
+      <c r="E696" t="n">
+        <v>1715</v>
+      </c>
+      <c r="F696" t="n">
+        <v>1715</v>
+      </c>
+      <c r="G696" t="n">
+        <v>420006</v>
+      </c>
+      <c r="H696" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I696" t="n">
+        <v>9</v>
+      </c>
+      <c r="J696" t="n">
+        <v>6</v>
+      </c>
+      <c r="K696" t="n">
+        <v>0</v>
+      </c>
+      <c r="L696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N696" t="n">
+        <v>36</v>
+      </c>
+      <c r="O696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R696" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R696"/>
+  <dimension ref="A1:R701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38933,7 +38933,7 @@
         <v>35</v>
       </c>
       <c r="O687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P687" t="n">
         <v>0</v>
@@ -39221,7 +39221,9 @@
       <c r="Q692" t="n">
         <v>0</v>
       </c>
-      <c r="R692" t="inlineStr"/>
+      <c r="R692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
@@ -39275,7 +39277,9 @@
       <c r="Q693" t="n">
         <v>0</v>
       </c>
-      <c r="R693" t="inlineStr"/>
+      <c r="R693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
@@ -39329,7 +39333,9 @@
       <c r="Q694" t="n">
         <v>0</v>
       </c>
-      <c r="R694" t="inlineStr"/>
+      <c r="R694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
@@ -39383,7 +39389,9 @@
       <c r="Q695" t="n">
         <v>0</v>
       </c>
-      <c r="R695" t="inlineStr"/>
+      <c r="R695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
@@ -39437,7 +39445,279 @@
       <c r="Q696" t="n">
         <v>0</v>
       </c>
-      <c r="R696" t="inlineStr"/>
+      <c r="R696" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B697" t="n">
+        <v>1715</v>
+      </c>
+      <c r="C697" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D697" t="n">
+        <v>1680.550048828125</v>
+      </c>
+      <c r="E697" t="n">
+        <v>1741.199951171875</v>
+      </c>
+      <c r="F697" t="n">
+        <v>1741.199951171875</v>
+      </c>
+      <c r="G697" t="n">
+        <v>627026</v>
+      </c>
+      <c r="H697" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I697" t="n">
+        <v>9</v>
+      </c>
+      <c r="J697" t="n">
+        <v>9</v>
+      </c>
+      <c r="K697" t="n">
+        <v>0</v>
+      </c>
+      <c r="L697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N697" t="n">
+        <v>37</v>
+      </c>
+      <c r="O697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B698" t="n">
+        <v>1751</v>
+      </c>
+      <c r="C698" t="n">
+        <v>1776.699951171875</v>
+      </c>
+      <c r="D698" t="n">
+        <v>1735.050048828125</v>
+      </c>
+      <c r="E698" t="n">
+        <v>1745.150024414062</v>
+      </c>
+      <c r="F698" t="n">
+        <v>1745.150024414062</v>
+      </c>
+      <c r="G698" t="n">
+        <v>609220</v>
+      </c>
+      <c r="H698" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I698" t="n">
+        <v>9</v>
+      </c>
+      <c r="J698" t="n">
+        <v>10</v>
+      </c>
+      <c r="K698" t="n">
+        <v>0</v>
+      </c>
+      <c r="L698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N698" t="n">
+        <v>37</v>
+      </c>
+      <c r="O698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B699" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C699" t="n">
+        <v>1792.900024414062</v>
+      </c>
+      <c r="D699" t="n">
+        <v>1738.550048828125</v>
+      </c>
+      <c r="E699" t="n">
+        <v>1782.650024414062</v>
+      </c>
+      <c r="F699" t="n">
+        <v>1782.650024414062</v>
+      </c>
+      <c r="G699" t="n">
+        <v>1011015</v>
+      </c>
+      <c r="H699" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I699" t="n">
+        <v>9</v>
+      </c>
+      <c r="J699" t="n">
+        <v>11</v>
+      </c>
+      <c r="K699" t="n">
+        <v>0</v>
+      </c>
+      <c r="L699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N699" t="n">
+        <v>37</v>
+      </c>
+      <c r="O699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B700" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C700" t="n">
+        <v>1835</v>
+      </c>
+      <c r="D700" t="n">
+        <v>1781.449951171875</v>
+      </c>
+      <c r="E700" t="n">
+        <v>1812.75</v>
+      </c>
+      <c r="F700" t="n">
+        <v>1812.75</v>
+      </c>
+      <c r="G700" t="n">
+        <v>826262</v>
+      </c>
+      <c r="H700" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I700" t="n">
+        <v>9</v>
+      </c>
+      <c r="J700" t="n">
+        <v>12</v>
+      </c>
+      <c r="K700" t="n">
+        <v>0</v>
+      </c>
+      <c r="L700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N700" t="n">
+        <v>37</v>
+      </c>
+      <c r="O700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B701" t="n">
+        <v>1836.800048828125</v>
+      </c>
+      <c r="C701" t="n">
+        <v>1837.300048828125</v>
+      </c>
+      <c r="D701" t="n">
+        <v>1804</v>
+      </c>
+      <c r="E701" t="n">
+        <v>1814.099975585938</v>
+      </c>
+      <c r="F701" t="n">
+        <v>1814.099975585938</v>
+      </c>
+      <c r="G701" t="n">
+        <v>772863</v>
+      </c>
+      <c r="H701" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I701" t="n">
+        <v>9</v>
+      </c>
+      <c r="J701" t="n">
+        <v>13</v>
+      </c>
+      <c r="K701" t="n">
+        <v>0</v>
+      </c>
+      <c r="L701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N701" t="n">
+        <v>37</v>
+      </c>
+      <c r="O701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R701" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R701"/>
+  <dimension ref="A1:R706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39501,7 +39501,9 @@
       <c r="Q697" t="n">
         <v>0</v>
       </c>
-      <c r="R697" t="inlineStr"/>
+      <c r="R697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
@@ -39555,7 +39557,9 @@
       <c r="Q698" t="n">
         <v>0</v>
       </c>
-      <c r="R698" t="inlineStr"/>
+      <c r="R698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
@@ -39609,7 +39613,9 @@
       <c r="Q699" t="n">
         <v>0</v>
       </c>
-      <c r="R699" t="inlineStr"/>
+      <c r="R699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
@@ -39663,7 +39669,9 @@
       <c r="Q700" t="n">
         <v>0</v>
       </c>
-      <c r="R700" t="inlineStr"/>
+      <c r="R700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
@@ -39717,7 +39725,279 @@
       <c r="Q701" t="n">
         <v>0</v>
       </c>
-      <c r="R701" t="inlineStr"/>
+      <c r="R701" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B702" t="n">
+        <v>1839.25</v>
+      </c>
+      <c r="C702" t="n">
+        <v>1839.25</v>
+      </c>
+      <c r="D702" t="n">
+        <v>1751.849975585938</v>
+      </c>
+      <c r="E702" t="n">
+        <v>1797.199951171875</v>
+      </c>
+      <c r="F702" t="n">
+        <v>1797.199951171875</v>
+      </c>
+      <c r="G702" t="n">
+        <v>664916</v>
+      </c>
+      <c r="H702" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I702" t="n">
+        <v>9</v>
+      </c>
+      <c r="J702" t="n">
+        <v>16</v>
+      </c>
+      <c r="K702" t="n">
+        <v>0</v>
+      </c>
+      <c r="L702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N702" t="n">
+        <v>38</v>
+      </c>
+      <c r="O702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B703" t="n">
+        <v>1801</v>
+      </c>
+      <c r="C703" t="n">
+        <v>1871.400024414062</v>
+      </c>
+      <c r="D703" t="n">
+        <v>1776.400024414062</v>
+      </c>
+      <c r="E703" t="n">
+        <v>1848.5</v>
+      </c>
+      <c r="F703" t="n">
+        <v>1848.5</v>
+      </c>
+      <c r="G703" t="n">
+        <v>1671977</v>
+      </c>
+      <c r="H703" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I703" t="n">
+        <v>9</v>
+      </c>
+      <c r="J703" t="n">
+        <v>17</v>
+      </c>
+      <c r="K703" t="n">
+        <v>0</v>
+      </c>
+      <c r="L703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N703" t="n">
+        <v>38</v>
+      </c>
+      <c r="O703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B704" t="n">
+        <v>1835</v>
+      </c>
+      <c r="C704" t="n">
+        <v>1885</v>
+      </c>
+      <c r="D704" t="n">
+        <v>1798.949951171875</v>
+      </c>
+      <c r="E704" t="n">
+        <v>1805.599975585938</v>
+      </c>
+      <c r="F704" t="n">
+        <v>1805.599975585938</v>
+      </c>
+      <c r="G704" t="n">
+        <v>719866</v>
+      </c>
+      <c r="H704" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I704" t="n">
+        <v>9</v>
+      </c>
+      <c r="J704" t="n">
+        <v>18</v>
+      </c>
+      <c r="K704" t="n">
+        <v>0</v>
+      </c>
+      <c r="L704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N704" t="n">
+        <v>38</v>
+      </c>
+      <c r="O704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B705" t="n">
+        <v>1839.5</v>
+      </c>
+      <c r="C705" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D705" t="n">
+        <v>1821.400024414062</v>
+      </c>
+      <c r="E705" t="n">
+        <v>1877.449951171875</v>
+      </c>
+      <c r="F705" t="n">
+        <v>1877.449951171875</v>
+      </c>
+      <c r="G705" t="n">
+        <v>1711588</v>
+      </c>
+      <c r="H705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I705" t="n">
+        <v>9</v>
+      </c>
+      <c r="J705" t="n">
+        <v>19</v>
+      </c>
+      <c r="K705" t="n">
+        <v>0</v>
+      </c>
+      <c r="L705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N705" t="n">
+        <v>38</v>
+      </c>
+      <c r="O705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B706" t="n">
+        <v>1864</v>
+      </c>
+      <c r="C706" t="n">
+        <v>1966.5</v>
+      </c>
+      <c r="D706" t="n">
+        <v>1855</v>
+      </c>
+      <c r="E706" t="n">
+        <v>1931.449951171875</v>
+      </c>
+      <c r="F706" t="n">
+        <v>1931.449951171875</v>
+      </c>
+      <c r="G706" t="n">
+        <v>1787515</v>
+      </c>
+      <c r="H706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I706" t="n">
+        <v>9</v>
+      </c>
+      <c r="J706" t="n">
+        <v>20</v>
+      </c>
+      <c r="K706" t="n">
+        <v>0</v>
+      </c>
+      <c r="L706" t="n">
+        <v>0</v>
+      </c>
+      <c r="M706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N706" t="n">
+        <v>38</v>
+      </c>
+      <c r="O706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R706" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R706"/>
+  <dimension ref="A1:R711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39781,7 +39781,9 @@
       <c r="Q702" t="n">
         <v>0</v>
       </c>
-      <c r="R702" t="inlineStr"/>
+      <c r="R702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
@@ -39835,7 +39837,9 @@
       <c r="Q703" t="n">
         <v>0</v>
       </c>
-      <c r="R703" t="inlineStr"/>
+      <c r="R703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
@@ -39889,7 +39893,9 @@
       <c r="Q704" t="n">
         <v>0</v>
       </c>
-      <c r="R704" t="inlineStr"/>
+      <c r="R704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
@@ -39943,7 +39949,9 @@
       <c r="Q705" t="n">
         <v>0</v>
       </c>
-      <c r="R705" t="inlineStr"/>
+      <c r="R705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
@@ -39997,7 +40005,279 @@
       <c r="Q706" t="n">
         <v>0</v>
       </c>
-      <c r="R706" t="inlineStr"/>
+      <c r="R706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B707" t="n">
+        <v>1930.300048828125</v>
+      </c>
+      <c r="C707" t="n">
+        <v>1932.25</v>
+      </c>
+      <c r="D707" t="n">
+        <v>1885</v>
+      </c>
+      <c r="E707" t="n">
+        <v>1920.400024414062</v>
+      </c>
+      <c r="F707" t="n">
+        <v>1920.400024414062</v>
+      </c>
+      <c r="G707" t="n">
+        <v>785448</v>
+      </c>
+      <c r="H707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I707" t="n">
+        <v>9</v>
+      </c>
+      <c r="J707" t="n">
+        <v>23</v>
+      </c>
+      <c r="K707" t="n">
+        <v>0</v>
+      </c>
+      <c r="L707" t="n">
+        <v>0</v>
+      </c>
+      <c r="M707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N707" t="n">
+        <v>39</v>
+      </c>
+      <c r="O707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B708" t="n">
+        <v>1933.900024414062</v>
+      </c>
+      <c r="C708" t="n">
+        <v>1933.900024414062</v>
+      </c>
+      <c r="D708" t="n">
+        <v>1796.75</v>
+      </c>
+      <c r="E708" t="n">
+        <v>1838.75</v>
+      </c>
+      <c r="F708" t="n">
+        <v>1838.75</v>
+      </c>
+      <c r="G708" t="n">
+        <v>1693004</v>
+      </c>
+      <c r="H708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I708" t="n">
+        <v>9</v>
+      </c>
+      <c r="J708" t="n">
+        <v>24</v>
+      </c>
+      <c r="K708" t="n">
+        <v>0</v>
+      </c>
+      <c r="L708" t="n">
+        <v>0</v>
+      </c>
+      <c r="M708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N708" t="n">
+        <v>39</v>
+      </c>
+      <c r="O708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B709" t="n">
+        <v>1830</v>
+      </c>
+      <c r="C709" t="n">
+        <v>1830</v>
+      </c>
+      <c r="D709" t="n">
+        <v>1685</v>
+      </c>
+      <c r="E709" t="n">
+        <v>1722.050048828125</v>
+      </c>
+      <c r="F709" t="n">
+        <v>1722.050048828125</v>
+      </c>
+      <c r="G709" t="n">
+        <v>3892371</v>
+      </c>
+      <c r="H709" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I709" t="n">
+        <v>9</v>
+      </c>
+      <c r="J709" t="n">
+        <v>25</v>
+      </c>
+      <c r="K709" t="n">
+        <v>0</v>
+      </c>
+      <c r="L709" t="n">
+        <v>0</v>
+      </c>
+      <c r="M709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N709" t="n">
+        <v>39</v>
+      </c>
+      <c r="O709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B710" t="n">
+        <v>1722</v>
+      </c>
+      <c r="C710" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D710" t="n">
+        <v>1545.050048828125</v>
+      </c>
+      <c r="E710" t="n">
+        <v>1685.900024414062</v>
+      </c>
+      <c r="F710" t="n">
+        <v>1685.900024414062</v>
+      </c>
+      <c r="G710" t="n">
+        <v>10662189</v>
+      </c>
+      <c r="H710" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I710" t="n">
+        <v>9</v>
+      </c>
+      <c r="J710" t="n">
+        <v>26</v>
+      </c>
+      <c r="K710" t="n">
+        <v>0</v>
+      </c>
+      <c r="L710" t="n">
+        <v>0</v>
+      </c>
+      <c r="M710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N710" t="n">
+        <v>39</v>
+      </c>
+      <c r="O710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B711" t="n">
+        <v>1718.800048828125</v>
+      </c>
+      <c r="C711" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D711" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E711" t="n">
+        <v>1640.800048828125</v>
+      </c>
+      <c r="F711" t="n">
+        <v>1640.800048828125</v>
+      </c>
+      <c r="G711" t="n">
+        <v>4251031</v>
+      </c>
+      <c r="H711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I711" t="n">
+        <v>9</v>
+      </c>
+      <c r="J711" t="n">
+        <v>27</v>
+      </c>
+      <c r="K711" t="n">
+        <v>0</v>
+      </c>
+      <c r="L711" t="n">
+        <v>0</v>
+      </c>
+      <c r="M711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N711" t="n">
+        <v>39</v>
+      </c>
+      <c r="O711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R711" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R711"/>
+  <dimension ref="A1:R715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40061,7 +40061,9 @@
       <c r="Q707" t="n">
         <v>0</v>
       </c>
-      <c r="R707" t="inlineStr"/>
+      <c r="R707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
@@ -40115,7 +40117,9 @@
       <c r="Q708" t="n">
         <v>0</v>
       </c>
-      <c r="R708" t="inlineStr"/>
+      <c r="R708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
@@ -40169,7 +40173,9 @@
       <c r="Q709" t="n">
         <v>0</v>
       </c>
-      <c r="R709" t="inlineStr"/>
+      <c r="R709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
@@ -40223,7 +40229,9 @@
       <c r="Q710" t="n">
         <v>0</v>
       </c>
-      <c r="R710" t="inlineStr"/>
+      <c r="R710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
@@ -40277,7 +40285,225 @@
       <c r="Q711" t="n">
         <v>0</v>
       </c>
-      <c r="R711" t="inlineStr"/>
+      <c r="R711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B712" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C712" t="n">
+        <v>1713.699951171875</v>
+      </c>
+      <c r="D712" t="n">
+        <v>1603.199951171875</v>
+      </c>
+      <c r="E712" t="n">
+        <v>1619.949951171875</v>
+      </c>
+      <c r="F712" t="n">
+        <v>1619.949951171875</v>
+      </c>
+      <c r="G712" t="n">
+        <v>5179483</v>
+      </c>
+      <c r="H712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I712" t="n">
+        <v>9</v>
+      </c>
+      <c r="J712" t="n">
+        <v>30</v>
+      </c>
+      <c r="K712" t="n">
+        <v>0</v>
+      </c>
+      <c r="L712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N712" t="n">
+        <v>40</v>
+      </c>
+      <c r="O712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B713" t="n">
+        <v>1645</v>
+      </c>
+      <c r="C713" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D713" t="n">
+        <v>1595.400024414062</v>
+      </c>
+      <c r="E713" t="n">
+        <v>1730.449951171875</v>
+      </c>
+      <c r="F713" t="n">
+        <v>1730.449951171875</v>
+      </c>
+      <c r="G713" t="n">
+        <v>4776243</v>
+      </c>
+      <c r="H713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I713" t="n">
+        <v>10</v>
+      </c>
+      <c r="J713" t="n">
+        <v>1</v>
+      </c>
+      <c r="K713" t="n">
+        <v>0</v>
+      </c>
+      <c r="L713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N713" t="n">
+        <v>40</v>
+      </c>
+      <c r="O713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B714" t="n">
+        <v>1724</v>
+      </c>
+      <c r="C714" t="n">
+        <v>1779</v>
+      </c>
+      <c r="D714" t="n">
+        <v>1693.75</v>
+      </c>
+      <c r="E714" t="n">
+        <v>1706.900024414062</v>
+      </c>
+      <c r="F714" t="n">
+        <v>1706.900024414062</v>
+      </c>
+      <c r="G714" t="n">
+        <v>2436688</v>
+      </c>
+      <c r="H714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I714" t="n">
+        <v>10</v>
+      </c>
+      <c r="J714" t="n">
+        <v>3</v>
+      </c>
+      <c r="K714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N714" t="n">
+        <v>40</v>
+      </c>
+      <c r="O714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B715" t="n">
+        <v>1699.949951171875</v>
+      </c>
+      <c r="C715" t="n">
+        <v>1726.449951171875</v>
+      </c>
+      <c r="D715" t="n">
+        <v>1631.400024414062</v>
+      </c>
+      <c r="E715" t="n">
+        <v>1713.550048828125</v>
+      </c>
+      <c r="F715" t="n">
+        <v>1713.550048828125</v>
+      </c>
+      <c r="G715" t="n">
+        <v>1808095</v>
+      </c>
+      <c r="H715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I715" t="n">
+        <v>10</v>
+      </c>
+      <c r="J715" t="n">
+        <v>4</v>
+      </c>
+      <c r="K715" t="n">
+        <v>0</v>
+      </c>
+      <c r="L715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N715" t="n">
+        <v>40</v>
+      </c>
+      <c r="O715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R715" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R715"/>
+  <dimension ref="A1:R720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39997,7 +39997,7 @@
         <v>38</v>
       </c>
       <c r="O706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P706" t="n">
         <v>0</v>
@@ -40221,7 +40221,7 @@
         <v>39</v>
       </c>
       <c r="O710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P710" t="n">
         <v>0</v>
@@ -40341,7 +40341,9 @@
       <c r="Q712" t="n">
         <v>0</v>
       </c>
-      <c r="R712" t="inlineStr"/>
+      <c r="R712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
@@ -40395,7 +40397,9 @@
       <c r="Q713" t="n">
         <v>0</v>
       </c>
-      <c r="R713" t="inlineStr"/>
+      <c r="R713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
@@ -40449,7 +40453,9 @@
       <c r="Q714" t="n">
         <v>0</v>
       </c>
-      <c r="R714" t="inlineStr"/>
+      <c r="R714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
@@ -40503,7 +40509,279 @@
       <c r="Q715" t="n">
         <v>0</v>
       </c>
-      <c r="R715" t="inlineStr"/>
+      <c r="R715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B716" t="n">
+        <v>1705</v>
+      </c>
+      <c r="C716" t="n">
+        <v>1747.800048828125</v>
+      </c>
+      <c r="D716" t="n">
+        <v>1681.550048828125</v>
+      </c>
+      <c r="E716" t="n">
+        <v>1690.75</v>
+      </c>
+      <c r="F716" t="n">
+        <v>1690.75</v>
+      </c>
+      <c r="G716" t="n">
+        <v>1582055</v>
+      </c>
+      <c r="H716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I716" t="n">
+        <v>10</v>
+      </c>
+      <c r="J716" t="n">
+        <v>7</v>
+      </c>
+      <c r="K716" t="n">
+        <v>0</v>
+      </c>
+      <c r="L716" t="n">
+        <v>0</v>
+      </c>
+      <c r="M716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N716" t="n">
+        <v>41</v>
+      </c>
+      <c r="O716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B717" t="n">
+        <v>1675</v>
+      </c>
+      <c r="C717" t="n">
+        <v>1681</v>
+      </c>
+      <c r="D717" t="n">
+        <v>1646.400024414062</v>
+      </c>
+      <c r="E717" t="n">
+        <v>1661.550048828125</v>
+      </c>
+      <c r="F717" t="n">
+        <v>1661.550048828125</v>
+      </c>
+      <c r="G717" t="n">
+        <v>2869109</v>
+      </c>
+      <c r="H717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I717" t="n">
+        <v>10</v>
+      </c>
+      <c r="J717" t="n">
+        <v>8</v>
+      </c>
+      <c r="K717" t="n">
+        <v>0</v>
+      </c>
+      <c r="L717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N717" t="n">
+        <v>41</v>
+      </c>
+      <c r="O717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B718" t="n">
+        <v>1667</v>
+      </c>
+      <c r="C718" t="n">
+        <v>1688.650024414062</v>
+      </c>
+      <c r="D718" t="n">
+        <v>1641.25</v>
+      </c>
+      <c r="E718" t="n">
+        <v>1655.199951171875</v>
+      </c>
+      <c r="F718" t="n">
+        <v>1655.199951171875</v>
+      </c>
+      <c r="G718" t="n">
+        <v>763358</v>
+      </c>
+      <c r="H718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I718" t="n">
+        <v>10</v>
+      </c>
+      <c r="J718" t="n">
+        <v>9</v>
+      </c>
+      <c r="K718" t="n">
+        <v>0</v>
+      </c>
+      <c r="L718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N718" t="n">
+        <v>41</v>
+      </c>
+      <c r="O718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B719" t="n">
+        <v>1690</v>
+      </c>
+      <c r="C719" t="n">
+        <v>1690</v>
+      </c>
+      <c r="D719" t="n">
+        <v>1615.650024414062</v>
+      </c>
+      <c r="E719" t="n">
+        <v>1631.900024414062</v>
+      </c>
+      <c r="F719" t="n">
+        <v>1631.900024414062</v>
+      </c>
+      <c r="G719" t="n">
+        <v>1709381</v>
+      </c>
+      <c r="H719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I719" t="n">
+        <v>10</v>
+      </c>
+      <c r="J719" t="n">
+        <v>10</v>
+      </c>
+      <c r="K719" t="n">
+        <v>0</v>
+      </c>
+      <c r="L719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N719" t="n">
+        <v>41</v>
+      </c>
+      <c r="O719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B720" t="n">
+        <v>1631.900024414062</v>
+      </c>
+      <c r="C720" t="n">
+        <v>1656</v>
+      </c>
+      <c r="D720" t="n">
+        <v>1605</v>
+      </c>
+      <c r="E720" t="n">
+        <v>1639.050048828125</v>
+      </c>
+      <c r="F720" t="n">
+        <v>1639.050048828125</v>
+      </c>
+      <c r="G720" t="n">
+        <v>1109644</v>
+      </c>
+      <c r="H720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I720" t="n">
+        <v>10</v>
+      </c>
+      <c r="J720" t="n">
+        <v>11</v>
+      </c>
+      <c r="K720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N720" t="n">
+        <v>41</v>
+      </c>
+      <c r="O720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R720" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R720"/>
+  <dimension ref="A1:R725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40565,7 +40565,9 @@
       <c r="Q716" t="n">
         <v>0</v>
       </c>
-      <c r="R716" t="inlineStr"/>
+      <c r="R716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
@@ -40619,7 +40621,9 @@
       <c r="Q717" t="n">
         <v>0</v>
       </c>
-      <c r="R717" t="inlineStr"/>
+      <c r="R717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
@@ -40673,7 +40677,9 @@
       <c r="Q718" t="n">
         <v>0</v>
       </c>
-      <c r="R718" t="inlineStr"/>
+      <c r="R718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
@@ -40727,7 +40733,9 @@
       <c r="Q719" t="n">
         <v>0</v>
       </c>
-      <c r="R719" t="inlineStr"/>
+      <c r="R719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
@@ -40781,7 +40789,279 @@
       <c r="Q720" t="n">
         <v>0</v>
       </c>
-      <c r="R720" t="inlineStr"/>
+      <c r="R720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B721" t="n">
+        <v>1654</v>
+      </c>
+      <c r="C721" t="n">
+        <v>1673.849975585938</v>
+      </c>
+      <c r="D721" t="n">
+        <v>1642.449951171875</v>
+      </c>
+      <c r="E721" t="n">
+        <v>1652.650024414062</v>
+      </c>
+      <c r="F721" t="n">
+        <v>1652.650024414062</v>
+      </c>
+      <c r="G721" t="n">
+        <v>2282889</v>
+      </c>
+      <c r="H721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I721" t="n">
+        <v>10</v>
+      </c>
+      <c r="J721" t="n">
+        <v>14</v>
+      </c>
+      <c r="K721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N721" t="n">
+        <v>42</v>
+      </c>
+      <c r="O721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q721" t="n">
+        <v>1</v>
+      </c>
+      <c r="R721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B722" t="n">
+        <v>1652.75</v>
+      </c>
+      <c r="C722" t="n">
+        <v>1687.949951171875</v>
+      </c>
+      <c r="D722" t="n">
+        <v>1652</v>
+      </c>
+      <c r="E722" t="n">
+        <v>1676.150024414062</v>
+      </c>
+      <c r="F722" t="n">
+        <v>1676.150024414062</v>
+      </c>
+      <c r="G722" t="n">
+        <v>1009190</v>
+      </c>
+      <c r="H722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I722" t="n">
+        <v>10</v>
+      </c>
+      <c r="J722" t="n">
+        <v>15</v>
+      </c>
+      <c r="K722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N722" t="n">
+        <v>42</v>
+      </c>
+      <c r="O722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B723" t="n">
+        <v>1676</v>
+      </c>
+      <c r="C723" t="n">
+        <v>1719.949951171875</v>
+      </c>
+      <c r="D723" t="n">
+        <v>1676</v>
+      </c>
+      <c r="E723" t="n">
+        <v>1704.550048828125</v>
+      </c>
+      <c r="F723" t="n">
+        <v>1704.550048828125</v>
+      </c>
+      <c r="G723" t="n">
+        <v>731981</v>
+      </c>
+      <c r="H723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I723" t="n">
+        <v>10</v>
+      </c>
+      <c r="J723" t="n">
+        <v>16</v>
+      </c>
+      <c r="K723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N723" t="n">
+        <v>42</v>
+      </c>
+      <c r="O723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B724" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C724" t="n">
+        <v>1730</v>
+      </c>
+      <c r="D724" t="n">
+        <v>1671.050048828125</v>
+      </c>
+      <c r="E724" t="n">
+        <v>1685.050048828125</v>
+      </c>
+      <c r="F724" t="n">
+        <v>1685.050048828125</v>
+      </c>
+      <c r="G724" t="n">
+        <v>1063409</v>
+      </c>
+      <c r="H724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I724" t="n">
+        <v>10</v>
+      </c>
+      <c r="J724" t="n">
+        <v>17</v>
+      </c>
+      <c r="K724" t="n">
+        <v>0</v>
+      </c>
+      <c r="L724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N724" t="n">
+        <v>42</v>
+      </c>
+      <c r="O724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B725" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1710</v>
+      </c>
+      <c r="D725" t="n">
+        <v>1654.800048828125</v>
+      </c>
+      <c r="E725" t="n">
+        <v>1683.599975585938</v>
+      </c>
+      <c r="F725" t="n">
+        <v>1683.599975585938</v>
+      </c>
+      <c r="G725" t="n">
+        <v>674141</v>
+      </c>
+      <c r="H725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I725" t="n">
+        <v>10</v>
+      </c>
+      <c r="J725" t="n">
+        <v>18</v>
+      </c>
+      <c r="K725" t="n">
+        <v>0</v>
+      </c>
+      <c r="L725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N725" t="n">
+        <v>42</v>
+      </c>
+      <c r="O725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R725" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R725"/>
+  <dimension ref="A1:R730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40845,7 +40845,9 @@
       <c r="Q721" t="n">
         <v>1</v>
       </c>
-      <c r="R721" t="inlineStr"/>
+      <c r="R721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
@@ -40899,7 +40901,9 @@
       <c r="Q722" t="n">
         <v>0</v>
       </c>
-      <c r="R722" t="inlineStr"/>
+      <c r="R722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
@@ -40953,7 +40957,9 @@
       <c r="Q723" t="n">
         <v>0</v>
       </c>
-      <c r="R723" t="inlineStr"/>
+      <c r="R723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
@@ -41007,7 +41013,9 @@
       <c r="Q724" t="n">
         <v>0</v>
       </c>
-      <c r="R724" t="inlineStr"/>
+      <c r="R724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
@@ -41061,7 +41069,279 @@
       <c r="Q725" t="n">
         <v>0</v>
       </c>
-      <c r="R725" t="inlineStr"/>
+      <c r="R725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B726" t="n">
+        <v>1689.900024414062</v>
+      </c>
+      <c r="C726" t="n">
+        <v>1702.699951171875</v>
+      </c>
+      <c r="D726" t="n">
+        <v>1632.599975585938</v>
+      </c>
+      <c r="E726" t="n">
+        <v>1675.900024414062</v>
+      </c>
+      <c r="F726" t="n">
+        <v>1675.900024414062</v>
+      </c>
+      <c r="G726" t="n">
+        <v>1119617</v>
+      </c>
+      <c r="H726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I726" t="n">
+        <v>10</v>
+      </c>
+      <c r="J726" t="n">
+        <v>21</v>
+      </c>
+      <c r="K726" t="n">
+        <v>0</v>
+      </c>
+      <c r="L726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N726" t="n">
+        <v>43</v>
+      </c>
+      <c r="O726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B727" t="n">
+        <v>1688.400024414062</v>
+      </c>
+      <c r="C727" t="n">
+        <v>1702.449951171875</v>
+      </c>
+      <c r="D727" t="n">
+        <v>1610.099975585938</v>
+      </c>
+      <c r="E727" t="n">
+        <v>1621.5</v>
+      </c>
+      <c r="F727" t="n">
+        <v>1621.5</v>
+      </c>
+      <c r="G727" t="n">
+        <v>724686</v>
+      </c>
+      <c r="H727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I727" t="n">
+        <v>10</v>
+      </c>
+      <c r="J727" t="n">
+        <v>22</v>
+      </c>
+      <c r="K727" t="n">
+        <v>0</v>
+      </c>
+      <c r="L727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N727" t="n">
+        <v>43</v>
+      </c>
+      <c r="O727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B728" t="n">
+        <v>1621.5</v>
+      </c>
+      <c r="C728" t="n">
+        <v>1710</v>
+      </c>
+      <c r="D728" t="n">
+        <v>1605.300048828125</v>
+      </c>
+      <c r="E728" t="n">
+        <v>1640.300048828125</v>
+      </c>
+      <c r="F728" t="n">
+        <v>1640.300048828125</v>
+      </c>
+      <c r="G728" t="n">
+        <v>990313</v>
+      </c>
+      <c r="H728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I728" t="n">
+        <v>10</v>
+      </c>
+      <c r="J728" t="n">
+        <v>23</v>
+      </c>
+      <c r="K728" t="n">
+        <v>0</v>
+      </c>
+      <c r="L728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N728" t="n">
+        <v>43</v>
+      </c>
+      <c r="O728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B729" t="n">
+        <v>1648</v>
+      </c>
+      <c r="C729" t="n">
+        <v>1669.099975585938</v>
+      </c>
+      <c r="D729" t="n">
+        <v>1610.25</v>
+      </c>
+      <c r="E729" t="n">
+        <v>1647.300048828125</v>
+      </c>
+      <c r="F729" t="n">
+        <v>1647.300048828125</v>
+      </c>
+      <c r="G729" t="n">
+        <v>413123</v>
+      </c>
+      <c r="H729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I729" t="n">
+        <v>10</v>
+      </c>
+      <c r="J729" t="n">
+        <v>24</v>
+      </c>
+      <c r="K729" t="n">
+        <v>0</v>
+      </c>
+      <c r="L729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N729" t="n">
+        <v>43</v>
+      </c>
+      <c r="O729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B730" t="n">
+        <v>1639.5</v>
+      </c>
+      <c r="C730" t="n">
+        <v>1656.800048828125</v>
+      </c>
+      <c r="D730" t="n">
+        <v>1615.550048828125</v>
+      </c>
+      <c r="E730" t="n">
+        <v>1639.75</v>
+      </c>
+      <c r="F730" t="n">
+        <v>1639.75</v>
+      </c>
+      <c r="G730" t="n">
+        <v>756802</v>
+      </c>
+      <c r="H730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I730" t="n">
+        <v>10</v>
+      </c>
+      <c r="J730" t="n">
+        <v>25</v>
+      </c>
+      <c r="K730" t="n">
+        <v>0</v>
+      </c>
+      <c r="L730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N730" t="n">
+        <v>43</v>
+      </c>
+      <c r="O730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R730" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R730"/>
+  <dimension ref="A1:R735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41125,7 +41125,9 @@
       <c r="Q726" t="n">
         <v>0</v>
       </c>
-      <c r="R726" t="inlineStr"/>
+      <c r="R726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
@@ -41179,7 +41181,9 @@
       <c r="Q727" t="n">
         <v>0</v>
       </c>
-      <c r="R727" t="inlineStr"/>
+      <c r="R727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
@@ -41233,7 +41237,9 @@
       <c r="Q728" t="n">
         <v>0</v>
       </c>
-      <c r="R728" t="inlineStr"/>
+      <c r="R728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
@@ -41287,7 +41293,9 @@
       <c r="Q729" t="n">
         <v>0</v>
       </c>
-      <c r="R729" t="inlineStr"/>
+      <c r="R729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
@@ -41341,7 +41349,279 @@
       <c r="Q730" t="n">
         <v>0</v>
       </c>
-      <c r="R730" t="inlineStr"/>
+      <c r="R730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B731" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1674.900024414062</v>
+      </c>
+      <c r="D731" t="n">
+        <v>1626.949951171875</v>
+      </c>
+      <c r="E731" t="n">
+        <v>1661.849975585938</v>
+      </c>
+      <c r="F731" t="n">
+        <v>1661.849975585938</v>
+      </c>
+      <c r="G731" t="n">
+        <v>456811</v>
+      </c>
+      <c r="H731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I731" t="n">
+        <v>10</v>
+      </c>
+      <c r="J731" t="n">
+        <v>28</v>
+      </c>
+      <c r="K731" t="n">
+        <v>0</v>
+      </c>
+      <c r="L731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N731" t="n">
+        <v>44</v>
+      </c>
+      <c r="O731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B732" t="n">
+        <v>1664.5</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D732" t="n">
+        <v>1633.550048828125</v>
+      </c>
+      <c r="E732" t="n">
+        <v>1704.900024414062</v>
+      </c>
+      <c r="F732" t="n">
+        <v>1704.900024414062</v>
+      </c>
+      <c r="G732" t="n">
+        <v>647355</v>
+      </c>
+      <c r="H732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I732" t="n">
+        <v>10</v>
+      </c>
+      <c r="J732" t="n">
+        <v>29</v>
+      </c>
+      <c r="K732" t="n">
+        <v>0</v>
+      </c>
+      <c r="L732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N732" t="n">
+        <v>44</v>
+      </c>
+      <c r="O732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B733" t="n">
+        <v>1692</v>
+      </c>
+      <c r="C733" t="n">
+        <v>1719.900024414062</v>
+      </c>
+      <c r="D733" t="n">
+        <v>1649.25</v>
+      </c>
+      <c r="E733" t="n">
+        <v>1703.400024414062</v>
+      </c>
+      <c r="F733" t="n">
+        <v>1703.400024414062</v>
+      </c>
+      <c r="G733" t="n">
+        <v>783012</v>
+      </c>
+      <c r="H733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I733" t="n">
+        <v>10</v>
+      </c>
+      <c r="J733" t="n">
+        <v>30</v>
+      </c>
+      <c r="K733" t="n">
+        <v>0</v>
+      </c>
+      <c r="L733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N733" t="n">
+        <v>44</v>
+      </c>
+      <c r="O733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B734" t="n">
+        <v>1691</v>
+      </c>
+      <c r="C734" t="n">
+        <v>1714</v>
+      </c>
+      <c r="D734" t="n">
+        <v>1661</v>
+      </c>
+      <c r="E734" t="n">
+        <v>1701.150024414062</v>
+      </c>
+      <c r="F734" t="n">
+        <v>1701.150024414062</v>
+      </c>
+      <c r="G734" t="n">
+        <v>614924</v>
+      </c>
+      <c r="H734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I734" t="n">
+        <v>10</v>
+      </c>
+      <c r="J734" t="n">
+        <v>31</v>
+      </c>
+      <c r="K734" t="n">
+        <v>0</v>
+      </c>
+      <c r="L734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N734" t="n">
+        <v>44</v>
+      </c>
+      <c r="O734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B735" t="n">
+        <v>1716.949951171875</v>
+      </c>
+      <c r="C735" t="n">
+        <v>1717</v>
+      </c>
+      <c r="D735" t="n">
+        <v>1705.25</v>
+      </c>
+      <c r="E735" t="n">
+        <v>1710.849975585938</v>
+      </c>
+      <c r="F735" t="n">
+        <v>1710.849975585938</v>
+      </c>
+      <c r="G735" t="n">
+        <v>11444</v>
+      </c>
+      <c r="H735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I735" t="n">
+        <v>11</v>
+      </c>
+      <c r="J735" t="n">
+        <v>1</v>
+      </c>
+      <c r="K735" t="n">
+        <v>0</v>
+      </c>
+      <c r="L735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N735" t="n">
+        <v>44</v>
+      </c>
+      <c r="O735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R735" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R735"/>
+  <dimension ref="A1:R740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41405,7 +41405,9 @@
       <c r="Q731" t="n">
         <v>0</v>
       </c>
-      <c r="R731" t="inlineStr"/>
+      <c r="R731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
@@ -41459,7 +41461,9 @@
       <c r="Q732" t="n">
         <v>0</v>
       </c>
-      <c r="R732" t="inlineStr"/>
+      <c r="R732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
@@ -41513,7 +41517,9 @@
       <c r="Q733" t="n">
         <v>0</v>
       </c>
-      <c r="R733" t="inlineStr"/>
+      <c r="R733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
@@ -41567,7 +41573,9 @@
       <c r="Q734" t="n">
         <v>0</v>
       </c>
-      <c r="R734" t="inlineStr"/>
+      <c r="R734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
@@ -41621,7 +41629,279 @@
       <c r="Q735" t="n">
         <v>0</v>
       </c>
-      <c r="R735" t="inlineStr"/>
+      <c r="R735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B736" t="n">
+        <v>1706.800048828125</v>
+      </c>
+      <c r="C736" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D736" t="n">
+        <v>1664.150024414062</v>
+      </c>
+      <c r="E736" t="n">
+        <v>1714.5</v>
+      </c>
+      <c r="F736" t="n">
+        <v>1714.5</v>
+      </c>
+      <c r="G736" t="n">
+        <v>892716</v>
+      </c>
+      <c r="H736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I736" t="n">
+        <v>11</v>
+      </c>
+      <c r="J736" t="n">
+        <v>4</v>
+      </c>
+      <c r="K736" t="n">
+        <v>0</v>
+      </c>
+      <c r="L736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N736" t="n">
+        <v>45</v>
+      </c>
+      <c r="O736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B737" t="n">
+        <v>1700.5</v>
+      </c>
+      <c r="C737" t="n">
+        <v>1712.050048828125</v>
+      </c>
+      <c r="D737" t="n">
+        <v>1600.650024414062</v>
+      </c>
+      <c r="E737" t="n">
+        <v>1641.949951171875</v>
+      </c>
+      <c r="F737" t="n">
+        <v>1641.949951171875</v>
+      </c>
+      <c r="G737" t="n">
+        <v>2087823</v>
+      </c>
+      <c r="H737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I737" t="n">
+        <v>11</v>
+      </c>
+      <c r="J737" t="n">
+        <v>5</v>
+      </c>
+      <c r="K737" t="n">
+        <v>0</v>
+      </c>
+      <c r="L737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N737" t="n">
+        <v>45</v>
+      </c>
+      <c r="O737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B738" t="n">
+        <v>1695</v>
+      </c>
+      <c r="C738" t="n">
+        <v>1695.949951171875</v>
+      </c>
+      <c r="D738" t="n">
+        <v>1596.599975585938</v>
+      </c>
+      <c r="E738" t="n">
+        <v>1663.300048828125</v>
+      </c>
+      <c r="F738" t="n">
+        <v>1663.300048828125</v>
+      </c>
+      <c r="G738" t="n">
+        <v>3336155</v>
+      </c>
+      <c r="H738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I738" t="n">
+        <v>11</v>
+      </c>
+      <c r="J738" t="n">
+        <v>6</v>
+      </c>
+      <c r="K738" t="n">
+        <v>0</v>
+      </c>
+      <c r="L738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N738" t="n">
+        <v>45</v>
+      </c>
+      <c r="O738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B739" t="n">
+        <v>1663.300048828125</v>
+      </c>
+      <c r="C739" t="n">
+        <v>1764.75</v>
+      </c>
+      <c r="D739" t="n">
+        <v>1654.949951171875</v>
+      </c>
+      <c r="E739" t="n">
+        <v>1739</v>
+      </c>
+      <c r="F739" t="n">
+        <v>1739</v>
+      </c>
+      <c r="G739" t="n">
+        <v>2433199</v>
+      </c>
+      <c r="H739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I739" t="n">
+        <v>11</v>
+      </c>
+      <c r="J739" t="n">
+        <v>7</v>
+      </c>
+      <c r="K739" t="n">
+        <v>0</v>
+      </c>
+      <c r="L739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N739" t="n">
+        <v>45</v>
+      </c>
+      <c r="O739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B740" t="n">
+        <v>1739</v>
+      </c>
+      <c r="C740" t="n">
+        <v>1739</v>
+      </c>
+      <c r="D740" t="n">
+        <v>1664.900024414062</v>
+      </c>
+      <c r="E740" t="n">
+        <v>1678.699951171875</v>
+      </c>
+      <c r="F740" t="n">
+        <v>1678.699951171875</v>
+      </c>
+      <c r="G740" t="n">
+        <v>625036</v>
+      </c>
+      <c r="H740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I740" t="n">
+        <v>11</v>
+      </c>
+      <c r="J740" t="n">
+        <v>8</v>
+      </c>
+      <c r="K740" t="n">
+        <v>0</v>
+      </c>
+      <c r="L740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N740" t="n">
+        <v>45</v>
+      </c>
+      <c r="O740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R740" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R740"/>
+  <dimension ref="A1:R744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41685,7 +41685,9 @@
       <c r="Q736" t="n">
         <v>0</v>
       </c>
-      <c r="R736" t="inlineStr"/>
+      <c r="R736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
@@ -41739,7 +41741,9 @@
       <c r="Q737" t="n">
         <v>0</v>
       </c>
-      <c r="R737" t="inlineStr"/>
+      <c r="R737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
@@ -41793,7 +41797,9 @@
       <c r="Q738" t="n">
         <v>0</v>
       </c>
-      <c r="R738" t="inlineStr"/>
+      <c r="R738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
@@ -41847,7 +41853,9 @@
       <c r="Q739" t="n">
         <v>0</v>
       </c>
-      <c r="R739" t="inlineStr"/>
+      <c r="R739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
@@ -41901,7 +41909,225 @@
       <c r="Q740" t="n">
         <v>0</v>
       </c>
-      <c r="R740" t="inlineStr"/>
+      <c r="R740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B741" t="n">
+        <v>1663.099975585938</v>
+      </c>
+      <c r="C741" t="n">
+        <v>1699.099975585938</v>
+      </c>
+      <c r="D741" t="n">
+        <v>1653</v>
+      </c>
+      <c r="E741" t="n">
+        <v>1666.5</v>
+      </c>
+      <c r="F741" t="n">
+        <v>1666.5</v>
+      </c>
+      <c r="G741" t="n">
+        <v>340568</v>
+      </c>
+      <c r="H741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I741" t="n">
+        <v>11</v>
+      </c>
+      <c r="J741" t="n">
+        <v>11</v>
+      </c>
+      <c r="K741" t="n">
+        <v>0</v>
+      </c>
+      <c r="L741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N741" t="n">
+        <v>46</v>
+      </c>
+      <c r="O741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B742" t="n">
+        <v>1679.900024414062</v>
+      </c>
+      <c r="C742" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D742" t="n">
+        <v>1661</v>
+      </c>
+      <c r="E742" t="n">
+        <v>1685.099975585938</v>
+      </c>
+      <c r="F742" t="n">
+        <v>1685.099975585938</v>
+      </c>
+      <c r="G742" t="n">
+        <v>478459</v>
+      </c>
+      <c r="H742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I742" t="n">
+        <v>11</v>
+      </c>
+      <c r="J742" t="n">
+        <v>12</v>
+      </c>
+      <c r="K742" t="n">
+        <v>0</v>
+      </c>
+      <c r="L742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N742" t="n">
+        <v>46</v>
+      </c>
+      <c r="O742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B743" t="n">
+        <v>1685.099975585938</v>
+      </c>
+      <c r="C743" t="n">
+        <v>1690.050048828125</v>
+      </c>
+      <c r="D743" t="n">
+        <v>1625.050048828125</v>
+      </c>
+      <c r="E743" t="n">
+        <v>1632.849975585938</v>
+      </c>
+      <c r="F743" t="n">
+        <v>1632.849975585938</v>
+      </c>
+      <c r="G743" t="n">
+        <v>476493</v>
+      </c>
+      <c r="H743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I743" t="n">
+        <v>11</v>
+      </c>
+      <c r="J743" t="n">
+        <v>13</v>
+      </c>
+      <c r="K743" t="n">
+        <v>0</v>
+      </c>
+      <c r="L743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N743" t="n">
+        <v>46</v>
+      </c>
+      <c r="O743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B744" t="n">
+        <v>1636.099975585938</v>
+      </c>
+      <c r="C744" t="n">
+        <v>1745</v>
+      </c>
+      <c r="D744" t="n">
+        <v>1636.099975585938</v>
+      </c>
+      <c r="E744" t="n">
+        <v>1724.5</v>
+      </c>
+      <c r="F744" t="n">
+        <v>1724.5</v>
+      </c>
+      <c r="G744" t="n">
+        <v>1346952</v>
+      </c>
+      <c r="H744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I744" t="n">
+        <v>11</v>
+      </c>
+      <c r="J744" t="n">
+        <v>14</v>
+      </c>
+      <c r="K744" t="n">
+        <v>0</v>
+      </c>
+      <c r="L744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N744" t="n">
+        <v>46</v>
+      </c>
+      <c r="O744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R744" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R744"/>
+  <dimension ref="A1:R748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41789,7 +41789,7 @@
         <v>45</v>
       </c>
       <c r="O738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P738" t="n">
         <v>0</v>
@@ -41965,7 +41965,9 @@
       <c r="Q741" t="n">
         <v>0</v>
       </c>
-      <c r="R741" t="inlineStr"/>
+      <c r="R741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
@@ -42019,7 +42021,9 @@
       <c r="Q742" t="n">
         <v>0</v>
       </c>
-      <c r="R742" t="inlineStr"/>
+      <c r="R742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
@@ -42073,7 +42077,9 @@
       <c r="Q743" t="n">
         <v>0</v>
       </c>
-      <c r="R743" t="inlineStr"/>
+      <c r="R743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
@@ -42127,7 +42133,225 @@
       <c r="Q744" t="n">
         <v>0</v>
       </c>
-      <c r="R744" t="inlineStr"/>
+      <c r="R744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B745" t="n">
+        <v>1683.849975585938</v>
+      </c>
+      <c r="C745" t="n">
+        <v>1807.699951171875</v>
+      </c>
+      <c r="D745" t="n">
+        <v>1675.550048828125</v>
+      </c>
+      <c r="E745" t="n">
+        <v>1719.849975585938</v>
+      </c>
+      <c r="F745" t="n">
+        <v>1719.849975585938</v>
+      </c>
+      <c r="G745" t="n">
+        <v>1402978</v>
+      </c>
+      <c r="H745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I745" t="n">
+        <v>11</v>
+      </c>
+      <c r="J745" t="n">
+        <v>18</v>
+      </c>
+      <c r="K745" t="n">
+        <v>0</v>
+      </c>
+      <c r="L745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N745" t="n">
+        <v>47</v>
+      </c>
+      <c r="O745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B746" t="n">
+        <v>1751</v>
+      </c>
+      <c r="C746" t="n">
+        <v>1753.900024414062</v>
+      </c>
+      <c r="D746" t="n">
+        <v>1691.099975585938</v>
+      </c>
+      <c r="E746" t="n">
+        <v>1712.650024414062</v>
+      </c>
+      <c r="F746" t="n">
+        <v>1712.650024414062</v>
+      </c>
+      <c r="G746" t="n">
+        <v>939422</v>
+      </c>
+      <c r="H746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I746" t="n">
+        <v>11</v>
+      </c>
+      <c r="J746" t="n">
+        <v>19</v>
+      </c>
+      <c r="K746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N746" t="n">
+        <v>47</v>
+      </c>
+      <c r="O746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B747" t="n">
+        <v>1742.5</v>
+      </c>
+      <c r="C747" t="n">
+        <v>1770</v>
+      </c>
+      <c r="D747" t="n">
+        <v>1680</v>
+      </c>
+      <c r="E747" t="n">
+        <v>1724.949951171875</v>
+      </c>
+      <c r="F747" t="n">
+        <v>1724.949951171875</v>
+      </c>
+      <c r="G747" t="n">
+        <v>892569</v>
+      </c>
+      <c r="H747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I747" t="n">
+        <v>11</v>
+      </c>
+      <c r="J747" t="n">
+        <v>21</v>
+      </c>
+      <c r="K747" t="n">
+        <v>0</v>
+      </c>
+      <c r="L747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N747" t="n">
+        <v>47</v>
+      </c>
+      <c r="O747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B748" t="n">
+        <v>1725</v>
+      </c>
+      <c r="C748" t="n">
+        <v>1752.900024414062</v>
+      </c>
+      <c r="D748" t="n">
+        <v>1672.300048828125</v>
+      </c>
+      <c r="E748" t="n">
+        <v>1729.25</v>
+      </c>
+      <c r="F748" t="n">
+        <v>1729.25</v>
+      </c>
+      <c r="G748" t="n">
+        <v>625606</v>
+      </c>
+      <c r="H748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I748" t="n">
+        <v>11</v>
+      </c>
+      <c r="J748" t="n">
+        <v>22</v>
+      </c>
+      <c r="K748" t="n">
+        <v>0</v>
+      </c>
+      <c r="L748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N748" t="n">
+        <v>47</v>
+      </c>
+      <c r="O748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R748" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R748"/>
+  <dimension ref="A1:R753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42189,7 +42189,9 @@
       <c r="Q745" t="n">
         <v>0</v>
       </c>
-      <c r="R745" t="inlineStr"/>
+      <c r="R745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
@@ -42243,7 +42245,9 @@
       <c r="Q746" t="n">
         <v>0</v>
       </c>
-      <c r="R746" t="inlineStr"/>
+      <c r="R746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
@@ -42297,7 +42301,9 @@
       <c r="Q747" t="n">
         <v>0</v>
       </c>
-      <c r="R747" t="inlineStr"/>
+      <c r="R747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
@@ -42351,7 +42357,279 @@
       <c r="Q748" t="n">
         <v>0</v>
       </c>
-      <c r="R748" t="inlineStr"/>
+      <c r="R748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B749" t="n">
+        <v>1763</v>
+      </c>
+      <c r="C749" t="n">
+        <v>1819</v>
+      </c>
+      <c r="D749" t="n">
+        <v>1712.400024414062</v>
+      </c>
+      <c r="E749" t="n">
+        <v>1806.300048828125</v>
+      </c>
+      <c r="F749" t="n">
+        <v>1806.300048828125</v>
+      </c>
+      <c r="G749" t="n">
+        <v>4395079</v>
+      </c>
+      <c r="H749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I749" t="n">
+        <v>11</v>
+      </c>
+      <c r="J749" t="n">
+        <v>25</v>
+      </c>
+      <c r="K749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N749" t="n">
+        <v>48</v>
+      </c>
+      <c r="O749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q749" t="n">
+        <v>1</v>
+      </c>
+      <c r="R749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B750" t="n">
+        <v>1811</v>
+      </c>
+      <c r="C750" t="n">
+        <v>1865</v>
+      </c>
+      <c r="D750" t="n">
+        <v>1784.050048828125</v>
+      </c>
+      <c r="E750" t="n">
+        <v>1850.800048828125</v>
+      </c>
+      <c r="F750" t="n">
+        <v>1850.800048828125</v>
+      </c>
+      <c r="G750" t="n">
+        <v>839786</v>
+      </c>
+      <c r="H750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I750" t="n">
+        <v>11</v>
+      </c>
+      <c r="J750" t="n">
+        <v>26</v>
+      </c>
+      <c r="K750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N750" t="n">
+        <v>48</v>
+      </c>
+      <c r="O750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B751" t="n">
+        <v>1850.800048828125</v>
+      </c>
+      <c r="C751" t="n">
+        <v>1865</v>
+      </c>
+      <c r="D751" t="n">
+        <v>1806.699951171875</v>
+      </c>
+      <c r="E751" t="n">
+        <v>1843.900024414062</v>
+      </c>
+      <c r="F751" t="n">
+        <v>1843.900024414062</v>
+      </c>
+      <c r="G751" t="n">
+        <v>868323</v>
+      </c>
+      <c r="H751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I751" t="n">
+        <v>11</v>
+      </c>
+      <c r="J751" t="n">
+        <v>27</v>
+      </c>
+      <c r="K751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N751" t="n">
+        <v>48</v>
+      </c>
+      <c r="O751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B752" t="n">
+        <v>1828.199951171875</v>
+      </c>
+      <c r="C752" t="n">
+        <v>1912.900024414062</v>
+      </c>
+      <c r="D752" t="n">
+        <v>1790.050048828125</v>
+      </c>
+      <c r="E752" t="n">
+        <v>1878.849975585938</v>
+      </c>
+      <c r="F752" t="n">
+        <v>1878.849975585938</v>
+      </c>
+      <c r="G752" t="n">
+        <v>1572269</v>
+      </c>
+      <c r="H752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I752" t="n">
+        <v>11</v>
+      </c>
+      <c r="J752" t="n">
+        <v>28</v>
+      </c>
+      <c r="K752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N752" t="n">
+        <v>48</v>
+      </c>
+      <c r="O752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B753" t="n">
+        <v>1854</v>
+      </c>
+      <c r="C753" t="n">
+        <v>1920.199951171875</v>
+      </c>
+      <c r="D753" t="n">
+        <v>1830</v>
+      </c>
+      <c r="E753" t="n">
+        <v>1893.900024414062</v>
+      </c>
+      <c r="F753" t="n">
+        <v>1893.900024414062</v>
+      </c>
+      <c r="G753" t="n">
+        <v>1340013</v>
+      </c>
+      <c r="H753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I753" t="n">
+        <v>11</v>
+      </c>
+      <c r="J753" t="n">
+        <v>29</v>
+      </c>
+      <c r="K753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N753" t="n">
+        <v>48</v>
+      </c>
+      <c r="O753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R753" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R753"/>
+  <dimension ref="A1:R758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42413,7 +42413,9 @@
       <c r="Q749" t="n">
         <v>1</v>
       </c>
-      <c r="R749" t="inlineStr"/>
+      <c r="R749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
@@ -42467,7 +42469,9 @@
       <c r="Q750" t="n">
         <v>0</v>
       </c>
-      <c r="R750" t="inlineStr"/>
+      <c r="R750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
@@ -42521,7 +42525,9 @@
       <c r="Q751" t="n">
         <v>0</v>
       </c>
-      <c r="R751" t="inlineStr"/>
+      <c r="R751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
@@ -42575,7 +42581,9 @@
       <c r="Q752" t="n">
         <v>0</v>
       </c>
-      <c r="R752" t="inlineStr"/>
+      <c r="R752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
@@ -42629,7 +42637,279 @@
       <c r="Q753" t="n">
         <v>0</v>
       </c>
-      <c r="R753" t="inlineStr"/>
+      <c r="R753" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B754" t="n">
+        <v>1888.400024414062</v>
+      </c>
+      <c r="C754" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D754" t="n">
+        <v>1848.150024414062</v>
+      </c>
+      <c r="E754" t="n">
+        <v>1945.099975585938</v>
+      </c>
+      <c r="F754" t="n">
+        <v>1945.099975585938</v>
+      </c>
+      <c r="G754" t="n">
+        <v>1249088</v>
+      </c>
+      <c r="H754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I754" t="n">
+        <v>12</v>
+      </c>
+      <c r="J754" t="n">
+        <v>2</v>
+      </c>
+      <c r="K754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N754" t="n">
+        <v>49</v>
+      </c>
+      <c r="O754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B755" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C755" t="n">
+        <v>2015.099975585938</v>
+      </c>
+      <c r="D755" t="n">
+        <v>1876</v>
+      </c>
+      <c r="E755" t="n">
+        <v>1926.25</v>
+      </c>
+      <c r="F755" t="n">
+        <v>1926.25</v>
+      </c>
+      <c r="G755" t="n">
+        <v>2954528</v>
+      </c>
+      <c r="H755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I755" t="n">
+        <v>12</v>
+      </c>
+      <c r="J755" t="n">
+        <v>3</v>
+      </c>
+      <c r="K755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N755" t="n">
+        <v>49</v>
+      </c>
+      <c r="O755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R755" t="inlineStr"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B756" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C756" t="n">
+        <v>2018.849975585938</v>
+      </c>
+      <c r="D756" t="n">
+        <v>1914.949951171875</v>
+      </c>
+      <c r="E756" t="n">
+        <v>2004.699951171875</v>
+      </c>
+      <c r="F756" t="n">
+        <v>2004.699951171875</v>
+      </c>
+      <c r="G756" t="n">
+        <v>1896974</v>
+      </c>
+      <c r="H756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I756" t="n">
+        <v>12</v>
+      </c>
+      <c r="J756" t="n">
+        <v>4</v>
+      </c>
+      <c r="K756" t="n">
+        <v>0</v>
+      </c>
+      <c r="L756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N756" t="n">
+        <v>49</v>
+      </c>
+      <c r="O756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R756" t="inlineStr"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B757" t="n">
+        <v>2018.800048828125</v>
+      </c>
+      <c r="C757" t="n">
+        <v>2049</v>
+      </c>
+      <c r="D757" t="n">
+        <v>1984.599975585938</v>
+      </c>
+      <c r="E757" t="n">
+        <v>2017.400024414062</v>
+      </c>
+      <c r="F757" t="n">
+        <v>2017.400024414062</v>
+      </c>
+      <c r="G757" t="n">
+        <v>2075271</v>
+      </c>
+      <c r="H757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I757" t="n">
+        <v>12</v>
+      </c>
+      <c r="J757" t="n">
+        <v>5</v>
+      </c>
+      <c r="K757" t="n">
+        <v>0</v>
+      </c>
+      <c r="L757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N757" t="n">
+        <v>49</v>
+      </c>
+      <c r="O757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B758" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C758" t="n">
+        <v>2150</v>
+      </c>
+      <c r="D758" t="n">
+        <v>2013.900024414062</v>
+      </c>
+      <c r="E758" t="n">
+        <v>2142.300048828125</v>
+      </c>
+      <c r="F758" t="n">
+        <v>2142.300048828125</v>
+      </c>
+      <c r="G758" t="n">
+        <v>3432969</v>
+      </c>
+      <c r="H758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I758" t="n">
+        <v>12</v>
+      </c>
+      <c r="J758" t="n">
+        <v>6</v>
+      </c>
+      <c r="K758" t="n">
+        <v>0</v>
+      </c>
+      <c r="L758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N758" t="n">
+        <v>49</v>
+      </c>
+      <c r="O758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R758" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R758"/>
+  <dimension ref="A1:R768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42693,7 +42693,9 @@
       <c r="Q754" t="n">
         <v>0</v>
       </c>
-      <c r="R754" t="inlineStr"/>
+      <c r="R754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
@@ -42747,7 +42749,9 @@
       <c r="Q755" t="n">
         <v>0</v>
       </c>
-      <c r="R755" t="inlineStr"/>
+      <c r="R755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
@@ -42801,7 +42805,9 @@
       <c r="Q756" t="n">
         <v>0</v>
       </c>
-      <c r="R756" t="inlineStr"/>
+      <c r="R756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
@@ -42855,7 +42861,9 @@
       <c r="Q757" t="n">
         <v>0</v>
       </c>
-      <c r="R757" t="inlineStr"/>
+      <c r="R757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
@@ -42909,7 +42917,529 @@
       <c r="Q758" t="n">
         <v>0</v>
       </c>
-      <c r="R758" t="inlineStr"/>
+      <c r="R758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B759" t="n">
+        <v>2117.449951171875</v>
+      </c>
+      <c r="C759" t="n">
+        <v>2210</v>
+      </c>
+      <c r="D759" t="n">
+        <v>2097.60009765625</v>
+      </c>
+      <c r="E759" t="n">
+        <v>2131.14990234375</v>
+      </c>
+      <c r="F759" t="inlineStr"/>
+      <c r="G759" t="n">
+        <v>2101814</v>
+      </c>
+      <c r="H759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I759" t="n">
+        <v>12</v>
+      </c>
+      <c r="J759" t="n">
+        <v>9</v>
+      </c>
+      <c r="K759" t="n">
+        <v>0</v>
+      </c>
+      <c r="L759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N759" t="n">
+        <v>50</v>
+      </c>
+      <c r="O759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B760" t="n">
+        <v>2121.10009765625</v>
+      </c>
+      <c r="C760" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D760" t="n">
+        <v>2048.300048828125</v>
+      </c>
+      <c r="E760" t="n">
+        <v>2172.64990234375</v>
+      </c>
+      <c r="F760" t="inlineStr"/>
+      <c r="G760" t="n">
+        <v>2341928</v>
+      </c>
+      <c r="H760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I760" t="n">
+        <v>12</v>
+      </c>
+      <c r="J760" t="n">
+        <v>10</v>
+      </c>
+      <c r="K760" t="n">
+        <v>0</v>
+      </c>
+      <c r="L760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N760" t="n">
+        <v>50</v>
+      </c>
+      <c r="O760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B761" t="n">
+        <v>2174.050048828125</v>
+      </c>
+      <c r="C761" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D761" t="n">
+        <v>2132</v>
+      </c>
+      <c r="E761" t="n">
+        <v>2165</v>
+      </c>
+      <c r="F761" t="inlineStr"/>
+      <c r="G761" t="n">
+        <v>905083</v>
+      </c>
+      <c r="H761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I761" t="n">
+        <v>12</v>
+      </c>
+      <c r="J761" t="n">
+        <v>11</v>
+      </c>
+      <c r="K761" t="n">
+        <v>0</v>
+      </c>
+      <c r="L761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N761" t="n">
+        <v>50</v>
+      </c>
+      <c r="O761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R761" t="inlineStr"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B762" t="n">
+        <v>2152.89990234375</v>
+      </c>
+      <c r="C762" t="n">
+        <v>2196.699951171875</v>
+      </c>
+      <c r="D762" t="n">
+        <v>2125.60009765625</v>
+      </c>
+      <c r="E762" t="n">
+        <v>2140</v>
+      </c>
+      <c r="F762" t="inlineStr"/>
+      <c r="G762" t="n">
+        <v>926181</v>
+      </c>
+      <c r="H762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I762" t="n">
+        <v>12</v>
+      </c>
+      <c r="J762" t="n">
+        <v>12</v>
+      </c>
+      <c r="K762" t="n">
+        <v>0</v>
+      </c>
+      <c r="L762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N762" t="n">
+        <v>50</v>
+      </c>
+      <c r="O762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R762" t="inlineStr"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B763" t="n">
+        <v>2136.85009765625</v>
+      </c>
+      <c r="C763" t="n">
+        <v>2144.89990234375</v>
+      </c>
+      <c r="D763" t="n">
+        <v>2090.14990234375</v>
+      </c>
+      <c r="E763" t="n">
+        <v>2104.050048828125</v>
+      </c>
+      <c r="F763" t="inlineStr"/>
+      <c r="G763" t="n">
+        <v>1111171</v>
+      </c>
+      <c r="H763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I763" t="n">
+        <v>12</v>
+      </c>
+      <c r="J763" t="n">
+        <v>13</v>
+      </c>
+      <c r="K763" t="n">
+        <v>0</v>
+      </c>
+      <c r="L763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N763" t="n">
+        <v>50</v>
+      </c>
+      <c r="O763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B764" t="n">
+        <v>2094.10009765625</v>
+      </c>
+      <c r="C764" t="n">
+        <v>2124.89990234375</v>
+      </c>
+      <c r="D764" t="n">
+        <v>2072.699951171875</v>
+      </c>
+      <c r="E764" t="n">
+        <v>2108.75</v>
+      </c>
+      <c r="F764" t="inlineStr"/>
+      <c r="G764" t="n">
+        <v>1272989</v>
+      </c>
+      <c r="H764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I764" t="n">
+        <v>12</v>
+      </c>
+      <c r="J764" t="n">
+        <v>16</v>
+      </c>
+      <c r="K764" t="n">
+        <v>0</v>
+      </c>
+      <c r="L764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N764" t="n">
+        <v>51</v>
+      </c>
+      <c r="O764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R764" t="inlineStr"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B765" t="n">
+        <v>2110</v>
+      </c>
+      <c r="C765" t="n">
+        <v>2179.550048828125</v>
+      </c>
+      <c r="D765" t="n">
+        <v>2101.5</v>
+      </c>
+      <c r="E765" t="n">
+        <v>2133.449951171875</v>
+      </c>
+      <c r="F765" t="inlineStr"/>
+      <c r="G765" t="n">
+        <v>1325933</v>
+      </c>
+      <c r="H765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I765" t="n">
+        <v>12</v>
+      </c>
+      <c r="J765" t="n">
+        <v>17</v>
+      </c>
+      <c r="K765" t="n">
+        <v>0</v>
+      </c>
+      <c r="L765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N765" t="n">
+        <v>51</v>
+      </c>
+      <c r="O765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B766" t="n">
+        <v>2147.14990234375</v>
+      </c>
+      <c r="C766" t="n">
+        <v>2172</v>
+      </c>
+      <c r="D766" t="n">
+        <v>2095.39990234375</v>
+      </c>
+      <c r="E766" t="n">
+        <v>2147.64990234375</v>
+      </c>
+      <c r="F766" t="inlineStr"/>
+      <c r="G766" t="n">
+        <v>1089931</v>
+      </c>
+      <c r="H766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I766" t="n">
+        <v>12</v>
+      </c>
+      <c r="J766" t="n">
+        <v>18</v>
+      </c>
+      <c r="K766" t="n">
+        <v>0</v>
+      </c>
+      <c r="L766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N766" t="n">
+        <v>51</v>
+      </c>
+      <c r="O766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B767" t="n">
+        <v>2101</v>
+      </c>
+      <c r="C767" t="n">
+        <v>2154</v>
+      </c>
+      <c r="D767" t="n">
+        <v>2056.199951171875</v>
+      </c>
+      <c r="E767" t="n">
+        <v>2144.14990234375</v>
+      </c>
+      <c r="F767" t="inlineStr"/>
+      <c r="G767" t="n">
+        <v>964655</v>
+      </c>
+      <c r="H767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I767" t="n">
+        <v>12</v>
+      </c>
+      <c r="J767" t="n">
+        <v>19</v>
+      </c>
+      <c r="K767" t="n">
+        <v>0</v>
+      </c>
+      <c r="L767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N767" t="n">
+        <v>51</v>
+      </c>
+      <c r="O767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R767" t="inlineStr"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B768" t="n">
+        <v>2155</v>
+      </c>
+      <c r="C768" t="n">
+        <v>2155.39990234375</v>
+      </c>
+      <c r="D768" t="n">
+        <v>2060</v>
+      </c>
+      <c r="E768" t="n">
+        <v>2092.14990234375</v>
+      </c>
+      <c r="F768" t="inlineStr"/>
+      <c r="G768" t="n">
+        <v>1434230</v>
+      </c>
+      <c r="H768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I768" t="n">
+        <v>12</v>
+      </c>
+      <c r="J768" t="n">
+        <v>20</v>
+      </c>
+      <c r="K768" t="n">
+        <v>0</v>
+      </c>
+      <c r="L768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N768" t="n">
+        <v>51</v>
+      </c>
+      <c r="O768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R768" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R768"/>
+  <dimension ref="A1:R769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42963,7 +42963,7 @@
         <v>50</v>
       </c>
       <c r="O759" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P759" t="n">
         <v>0</v>
@@ -42971,7 +42971,9 @@
       <c r="Q759" t="n">
         <v>0</v>
       </c>
-      <c r="R759" t="inlineStr"/>
+      <c r="R759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
@@ -43023,7 +43025,9 @@
       <c r="Q760" t="n">
         <v>0</v>
       </c>
-      <c r="R760" t="inlineStr"/>
+      <c r="R760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
@@ -43075,7 +43079,9 @@
       <c r="Q761" t="n">
         <v>0</v>
       </c>
-      <c r="R761" t="inlineStr"/>
+      <c r="R761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
@@ -43127,7 +43133,9 @@
       <c r="Q762" t="n">
         <v>0</v>
       </c>
-      <c r="R762" t="inlineStr"/>
+      <c r="R762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
@@ -43179,7 +43187,9 @@
       <c r="Q763" t="n">
         <v>0</v>
       </c>
-      <c r="R763" t="inlineStr"/>
+      <c r="R763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
@@ -43231,7 +43241,9 @@
       <c r="Q764" t="n">
         <v>0</v>
       </c>
-      <c r="R764" t="inlineStr"/>
+      <c r="R764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
@@ -43283,7 +43295,9 @@
       <c r="Q765" t="n">
         <v>0</v>
       </c>
-      <c r="R765" t="inlineStr"/>
+      <c r="R765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
@@ -43335,7 +43349,9 @@
       <c r="Q766" t="n">
         <v>0</v>
       </c>
-      <c r="R766" t="inlineStr"/>
+      <c r="R766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
@@ -43387,7 +43403,9 @@
       <c r="Q767" t="n">
         <v>0</v>
       </c>
-      <c r="R767" t="inlineStr"/>
+      <c r="R767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
@@ -43439,7 +43457,61 @@
       <c r="Q768" t="n">
         <v>0</v>
       </c>
-      <c r="R768" t="inlineStr"/>
+      <c r="R768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B769" t="n">
+        <v>2092.14990234375</v>
+      </c>
+      <c r="C769" t="n">
+        <v>2141.75</v>
+      </c>
+      <c r="D769" t="n">
+        <v>2076.39990234375</v>
+      </c>
+      <c r="E769" t="n">
+        <v>2116.39990234375</v>
+      </c>
+      <c r="F769" t="inlineStr"/>
+      <c r="G769" t="n">
+        <v>1102364</v>
+      </c>
+      <c r="H769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I769" t="n">
+        <v>12</v>
+      </c>
+      <c r="J769" t="n">
+        <v>23</v>
+      </c>
+      <c r="K769" t="n">
+        <v>0</v>
+      </c>
+      <c r="L769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N769" t="n">
+        <v>52</v>
+      </c>
+      <c r="O769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R769" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R769"/>
+  <dimension ref="A1:R777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43511,7 +43511,425 @@
       <c r="Q769" t="n">
         <v>0</v>
       </c>
-      <c r="R769" t="inlineStr"/>
+      <c r="R769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B770" t="n">
+        <v>2110.199951171875</v>
+      </c>
+      <c r="C770" t="n">
+        <v>2110.25</v>
+      </c>
+      <c r="D770" t="n">
+        <v>2045</v>
+      </c>
+      <c r="E770" t="n">
+        <v>2058.5</v>
+      </c>
+      <c r="F770" t="inlineStr"/>
+      <c r="G770" t="n">
+        <v>1059235</v>
+      </c>
+      <c r="H770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I770" t="n">
+        <v>12</v>
+      </c>
+      <c r="J770" t="n">
+        <v>24</v>
+      </c>
+      <c r="K770" t="n">
+        <v>0</v>
+      </c>
+      <c r="L770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N770" t="n">
+        <v>52</v>
+      </c>
+      <c r="O770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q770" t="n">
+        <v>2</v>
+      </c>
+      <c r="R770" t="inlineStr"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B771" t="n">
+        <v>2047.849975585938</v>
+      </c>
+      <c r="C771" t="n">
+        <v>2067.300048828125</v>
+      </c>
+      <c r="D771" t="n">
+        <v>2025.050048828125</v>
+      </c>
+      <c r="E771" t="n">
+        <v>2037.199951171875</v>
+      </c>
+      <c r="F771" t="inlineStr"/>
+      <c r="G771" t="n">
+        <v>742457</v>
+      </c>
+      <c r="H771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I771" t="n">
+        <v>12</v>
+      </c>
+      <c r="J771" t="n">
+        <v>26</v>
+      </c>
+      <c r="K771" t="n">
+        <v>0</v>
+      </c>
+      <c r="L771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N771" t="n">
+        <v>52</v>
+      </c>
+      <c r="O771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R771" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B772" t="n">
+        <v>2037.199951171875</v>
+      </c>
+      <c r="C772" t="n">
+        <v>2074</v>
+      </c>
+      <c r="D772" t="n">
+        <v>2033.650024414062</v>
+      </c>
+      <c r="E772" t="n">
+        <v>2052.75</v>
+      </c>
+      <c r="F772" t="inlineStr"/>
+      <c r="G772" t="n">
+        <v>738273</v>
+      </c>
+      <c r="H772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I772" t="n">
+        <v>12</v>
+      </c>
+      <c r="J772" t="n">
+        <v>27</v>
+      </c>
+      <c r="K772" t="n">
+        <v>0</v>
+      </c>
+      <c r="L772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N772" t="n">
+        <v>52</v>
+      </c>
+      <c r="O772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R772" t="inlineStr"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B773" t="n">
+        <v>2035</v>
+      </c>
+      <c r="C773" t="n">
+        <v>2151.5</v>
+      </c>
+      <c r="D773" t="n">
+        <v>2031.949951171875</v>
+      </c>
+      <c r="E773" t="n">
+        <v>2107.85009765625</v>
+      </c>
+      <c r="F773" t="inlineStr"/>
+      <c r="G773" t="n">
+        <v>4039739</v>
+      </c>
+      <c r="H773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I773" t="n">
+        <v>12</v>
+      </c>
+      <c r="J773" t="n">
+        <v>30</v>
+      </c>
+      <c r="K773" t="n">
+        <v>0</v>
+      </c>
+      <c r="L773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N773" t="n">
+        <v>1</v>
+      </c>
+      <c r="O773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B774" t="n">
+        <v>2045.5</v>
+      </c>
+      <c r="C774" t="n">
+        <v>2121.60009765625</v>
+      </c>
+      <c r="D774" t="n">
+        <v>2032</v>
+      </c>
+      <c r="E774" t="n">
+        <v>2108.85009765625</v>
+      </c>
+      <c r="F774" t="inlineStr"/>
+      <c r="G774" t="n">
+        <v>1718180</v>
+      </c>
+      <c r="H774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I774" t="n">
+        <v>12</v>
+      </c>
+      <c r="J774" t="n">
+        <v>31</v>
+      </c>
+      <c r="K774" t="n">
+        <v>0</v>
+      </c>
+      <c r="L774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N774" t="n">
+        <v>1</v>
+      </c>
+      <c r="O774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R774" t="inlineStr"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B775" t="n">
+        <v>2103</v>
+      </c>
+      <c r="C775" t="n">
+        <v>2134.699951171875</v>
+      </c>
+      <c r="D775" t="n">
+        <v>2090.60009765625</v>
+      </c>
+      <c r="E775" t="n">
+        <v>2119.199951171875</v>
+      </c>
+      <c r="F775" t="inlineStr"/>
+      <c r="G775" t="n">
+        <v>728019</v>
+      </c>
+      <c r="H775" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I775" t="n">
+        <v>1</v>
+      </c>
+      <c r="J775" t="n">
+        <v>1</v>
+      </c>
+      <c r="K775" t="n">
+        <v>0</v>
+      </c>
+      <c r="L775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N775" t="n">
+        <v>1</v>
+      </c>
+      <c r="O775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B776" t="n">
+        <v>2130.949951171875</v>
+      </c>
+      <c r="C776" t="n">
+        <v>2230</v>
+      </c>
+      <c r="D776" t="n">
+        <v>2115</v>
+      </c>
+      <c r="E776" t="n">
+        <v>2203.25</v>
+      </c>
+      <c r="F776" t="inlineStr"/>
+      <c r="G776" t="n">
+        <v>2784644</v>
+      </c>
+      <c r="H776" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I776" t="n">
+        <v>1</v>
+      </c>
+      <c r="J776" t="n">
+        <v>2</v>
+      </c>
+      <c r="K776" t="n">
+        <v>0</v>
+      </c>
+      <c r="L776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N776" t="n">
+        <v>1</v>
+      </c>
+      <c r="O776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R776" t="inlineStr"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B777" t="n">
+        <v>2212</v>
+      </c>
+      <c r="C777" t="n">
+        <v>2246.89990234375</v>
+      </c>
+      <c r="D777" t="n">
+        <v>2175</v>
+      </c>
+      <c r="E777" t="n">
+        <v>2215.85009765625</v>
+      </c>
+      <c r="F777" t="inlineStr"/>
+      <c r="G777" t="n">
+        <v>730233</v>
+      </c>
+      <c r="H777" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I777" t="n">
+        <v>1</v>
+      </c>
+      <c r="J777" t="n">
+        <v>3</v>
+      </c>
+      <c r="K777" t="n">
+        <v>0</v>
+      </c>
+      <c r="L777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N777" t="n">
+        <v>1</v>
+      </c>
+      <c r="O777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R777" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R777"/>
+  <dimension ref="A1:R782"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43565,7 +43565,9 @@
       <c r="Q770" t="n">
         <v>2</v>
       </c>
-      <c r="R770" t="inlineStr"/>
+      <c r="R770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
@@ -43617,7 +43619,9 @@
       <c r="Q771" t="n">
         <v>0</v>
       </c>
-      <c r="R771" t="inlineStr"/>
+      <c r="R771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
@@ -43669,7 +43673,9 @@
       <c r="Q772" t="n">
         <v>0</v>
       </c>
-      <c r="R772" t="inlineStr"/>
+      <c r="R772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
@@ -43721,7 +43727,9 @@
       <c r="Q773" t="n">
         <v>0</v>
       </c>
-      <c r="R773" t="inlineStr"/>
+      <c r="R773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
@@ -43773,7 +43781,9 @@
       <c r="Q774" t="n">
         <v>0</v>
       </c>
-      <c r="R774" t="inlineStr"/>
+      <c r="R774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
@@ -43825,7 +43835,9 @@
       <c r="Q775" t="n">
         <v>0</v>
       </c>
-      <c r="R775" t="inlineStr"/>
+      <c r="R775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
@@ -43877,7 +43889,9 @@
       <c r="Q776" t="n">
         <v>0</v>
       </c>
-      <c r="R776" t="inlineStr"/>
+      <c r="R776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
@@ -43929,7 +43943,269 @@
       <c r="Q777" t="n">
         <v>0</v>
       </c>
-      <c r="R777" t="inlineStr"/>
+      <c r="R777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B778" t="n">
+        <v>2220</v>
+      </c>
+      <c r="C778" t="n">
+        <v>2236.949951171875</v>
+      </c>
+      <c r="D778" t="n">
+        <v>2100</v>
+      </c>
+      <c r="E778" t="n">
+        <v>2120</v>
+      </c>
+      <c r="F778" t="inlineStr"/>
+      <c r="G778" t="n">
+        <v>1437924</v>
+      </c>
+      <c r="H778" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I778" t="n">
+        <v>1</v>
+      </c>
+      <c r="J778" t="n">
+        <v>6</v>
+      </c>
+      <c r="K778" t="n">
+        <v>0</v>
+      </c>
+      <c r="L778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N778" t="n">
+        <v>2</v>
+      </c>
+      <c r="O778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R778" t="inlineStr"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B779" t="n">
+        <v>2120</v>
+      </c>
+      <c r="C779" t="n">
+        <v>2152.449951171875</v>
+      </c>
+      <c r="D779" t="n">
+        <v>2069.449951171875</v>
+      </c>
+      <c r="E779" t="n">
+        <v>2079.550048828125</v>
+      </c>
+      <c r="F779" t="inlineStr"/>
+      <c r="G779" t="n">
+        <v>1403657</v>
+      </c>
+      <c r="H779" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I779" t="n">
+        <v>1</v>
+      </c>
+      <c r="J779" t="n">
+        <v>7</v>
+      </c>
+      <c r="K779" t="n">
+        <v>0</v>
+      </c>
+      <c r="L779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N779" t="n">
+        <v>2</v>
+      </c>
+      <c r="O779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B780" t="n">
+        <v>2080.10009765625</v>
+      </c>
+      <c r="C780" t="n">
+        <v>2084.85009765625</v>
+      </c>
+      <c r="D780" t="n">
+        <v>1968.449951171875</v>
+      </c>
+      <c r="E780" t="n">
+        <v>2002.849975585938</v>
+      </c>
+      <c r="F780" t="inlineStr"/>
+      <c r="G780" t="n">
+        <v>1748241</v>
+      </c>
+      <c r="H780" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I780" t="n">
+        <v>1</v>
+      </c>
+      <c r="J780" t="n">
+        <v>8</v>
+      </c>
+      <c r="K780" t="n">
+        <v>0</v>
+      </c>
+      <c r="L780" t="n">
+        <v>0</v>
+      </c>
+      <c r="M780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N780" t="n">
+        <v>2</v>
+      </c>
+      <c r="O780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B781" t="n">
+        <v>1991.25</v>
+      </c>
+      <c r="C781" t="n">
+        <v>1997.300048828125</v>
+      </c>
+      <c r="D781" t="n">
+        <v>1915</v>
+      </c>
+      <c r="E781" t="n">
+        <v>1919.550048828125</v>
+      </c>
+      <c r="F781" t="inlineStr"/>
+      <c r="G781" t="n">
+        <v>1033509</v>
+      </c>
+      <c r="H781" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I781" t="n">
+        <v>1</v>
+      </c>
+      <c r="J781" t="n">
+        <v>9</v>
+      </c>
+      <c r="K781" t="n">
+        <v>0</v>
+      </c>
+      <c r="L781" t="n">
+        <v>0</v>
+      </c>
+      <c r="M781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N781" t="n">
+        <v>2</v>
+      </c>
+      <c r="O781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B782" t="n">
+        <v>1918.050048828125</v>
+      </c>
+      <c r="C782" t="n">
+        <v>1930.75</v>
+      </c>
+      <c r="D782" t="n">
+        <v>1840.849975585938</v>
+      </c>
+      <c r="E782" t="n">
+        <v>1862.949951171875</v>
+      </c>
+      <c r="F782" t="inlineStr"/>
+      <c r="G782" t="n">
+        <v>1279528</v>
+      </c>
+      <c r="H782" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I782" t="n">
+        <v>1</v>
+      </c>
+      <c r="J782" t="n">
+        <v>10</v>
+      </c>
+      <c r="K782" t="n">
+        <v>0</v>
+      </c>
+      <c r="L782" t="n">
+        <v>0</v>
+      </c>
+      <c r="M782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N782" t="n">
+        <v>2</v>
+      </c>
+      <c r="O782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R782" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R782"/>
+  <dimension ref="A1:R787"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43935,7 +43935,7 @@
         <v>1</v>
       </c>
       <c r="O777" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P777" t="n">
         <v>0</v>
@@ -43997,7 +43997,9 @@
       <c r="Q778" t="n">
         <v>0</v>
       </c>
-      <c r="R778" t="inlineStr"/>
+      <c r="R778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
@@ -44049,7 +44051,9 @@
       <c r="Q779" t="n">
         <v>0</v>
       </c>
-      <c r="R779" t="inlineStr"/>
+      <c r="R779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
@@ -44101,7 +44105,9 @@
       <c r="Q780" t="n">
         <v>0</v>
       </c>
-      <c r="R780" t="inlineStr"/>
+      <c r="R780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
@@ -44153,7 +44159,9 @@
       <c r="Q781" t="n">
         <v>0</v>
       </c>
-      <c r="R781" t="inlineStr"/>
+      <c r="R781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
@@ -44205,7 +44213,269 @@
       <c r="Q782" t="n">
         <v>0</v>
       </c>
-      <c r="R782" t="inlineStr"/>
+      <c r="R782" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B783" t="n">
+        <v>1784.800048828125</v>
+      </c>
+      <c r="C783" t="n">
+        <v>1802.949951171875</v>
+      </c>
+      <c r="D783" t="n">
+        <v>1680.150024414062</v>
+      </c>
+      <c r="E783" t="n">
+        <v>1697.150024414062</v>
+      </c>
+      <c r="F783" t="inlineStr"/>
+      <c r="G783" t="n">
+        <v>2739327</v>
+      </c>
+      <c r="H783" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I783" t="n">
+        <v>1</v>
+      </c>
+      <c r="J783" t="n">
+        <v>13</v>
+      </c>
+      <c r="K783" t="n">
+        <v>0</v>
+      </c>
+      <c r="L783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N783" t="n">
+        <v>3</v>
+      </c>
+      <c r="O783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B784" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C784" t="n">
+        <v>1770</v>
+      </c>
+      <c r="D784" t="n">
+        <v>1676</v>
+      </c>
+      <c r="E784" t="n">
+        <v>1743.849975585938</v>
+      </c>
+      <c r="F784" t="inlineStr"/>
+      <c r="G784" t="n">
+        <v>1594900</v>
+      </c>
+      <c r="H784" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I784" t="n">
+        <v>1</v>
+      </c>
+      <c r="J784" t="n">
+        <v>14</v>
+      </c>
+      <c r="K784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N784" t="n">
+        <v>3</v>
+      </c>
+      <c r="O784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R784" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B785" t="n">
+        <v>1743.849975585938</v>
+      </c>
+      <c r="C785" t="n">
+        <v>1778</v>
+      </c>
+      <c r="D785" t="n">
+        <v>1700.050048828125</v>
+      </c>
+      <c r="E785" t="n">
+        <v>1763.650024414062</v>
+      </c>
+      <c r="F785" t="inlineStr"/>
+      <c r="G785" t="n">
+        <v>1991197</v>
+      </c>
+      <c r="H785" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I785" t="n">
+        <v>1</v>
+      </c>
+      <c r="J785" t="n">
+        <v>15</v>
+      </c>
+      <c r="K785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N785" t="n">
+        <v>3</v>
+      </c>
+      <c r="O785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R785" t="inlineStr"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B786" t="n">
+        <v>1791</v>
+      </c>
+      <c r="C786" t="n">
+        <v>1841.349975585938</v>
+      </c>
+      <c r="D786" t="n">
+        <v>1791</v>
+      </c>
+      <c r="E786" t="n">
+        <v>1813.300048828125</v>
+      </c>
+      <c r="F786" t="inlineStr"/>
+      <c r="G786" t="n">
+        <v>2072357</v>
+      </c>
+      <c r="H786" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I786" t="n">
+        <v>1</v>
+      </c>
+      <c r="J786" t="n">
+        <v>16</v>
+      </c>
+      <c r="K786" t="n">
+        <v>0</v>
+      </c>
+      <c r="L786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N786" t="n">
+        <v>3</v>
+      </c>
+      <c r="O786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B787" t="n">
+        <v>1815</v>
+      </c>
+      <c r="C787" t="n">
+        <v>1817.400024414062</v>
+      </c>
+      <c r="D787" t="n">
+        <v>1706</v>
+      </c>
+      <c r="E787" t="n">
+        <v>1724.400024414062</v>
+      </c>
+      <c r="F787" t="inlineStr"/>
+      <c r="G787" t="n">
+        <v>2732484</v>
+      </c>
+      <c r="H787" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I787" t="n">
+        <v>1</v>
+      </c>
+      <c r="J787" t="n">
+        <v>17</v>
+      </c>
+      <c r="K787" t="n">
+        <v>0</v>
+      </c>
+      <c r="L787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N787" t="n">
+        <v>3</v>
+      </c>
+      <c r="O787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R787" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R787"/>
+  <dimension ref="A1:R792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44267,7 +44267,9 @@
       <c r="Q783" t="n">
         <v>0</v>
       </c>
-      <c r="R783" t="inlineStr"/>
+      <c r="R783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
@@ -44319,7 +44321,9 @@
       <c r="Q784" t="n">
         <v>0</v>
       </c>
-      <c r="R784" t="inlineStr"/>
+      <c r="R784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
@@ -44371,7 +44375,9 @@
       <c r="Q785" t="n">
         <v>0</v>
       </c>
-      <c r="R785" t="inlineStr"/>
+      <c r="R785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
@@ -44423,7 +44429,9 @@
       <c r="Q786" t="n">
         <v>0</v>
       </c>
-      <c r="R786" t="inlineStr"/>
+      <c r="R786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
@@ -44475,7 +44483,269 @@
       <c r="Q787" t="n">
         <v>0</v>
       </c>
-      <c r="R787" t="inlineStr"/>
+      <c r="R787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B788" t="n">
+        <v>1714.400024414062</v>
+      </c>
+      <c r="C788" t="n">
+        <v>1774</v>
+      </c>
+      <c r="D788" t="n">
+        <v>1695</v>
+      </c>
+      <c r="E788" t="n">
+        <v>1749.800048828125</v>
+      </c>
+      <c r="F788" t="inlineStr"/>
+      <c r="G788" t="n">
+        <v>1099774</v>
+      </c>
+      <c r="H788" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I788" t="n">
+        <v>1</v>
+      </c>
+      <c r="J788" t="n">
+        <v>20</v>
+      </c>
+      <c r="K788" t="n">
+        <v>0</v>
+      </c>
+      <c r="L788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N788" t="n">
+        <v>4</v>
+      </c>
+      <c r="O788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R788" t="inlineStr"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B789" t="n">
+        <v>1752.949951171875</v>
+      </c>
+      <c r="C789" t="n">
+        <v>1752.949951171875</v>
+      </c>
+      <c r="D789" t="n">
+        <v>1641.349975585938</v>
+      </c>
+      <c r="E789" t="n">
+        <v>1651.449951171875</v>
+      </c>
+      <c r="F789" t="inlineStr"/>
+      <c r="G789" t="n">
+        <v>1359132</v>
+      </c>
+      <c r="H789" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I789" t="n">
+        <v>1</v>
+      </c>
+      <c r="J789" t="n">
+        <v>21</v>
+      </c>
+      <c r="K789" t="n">
+        <v>0</v>
+      </c>
+      <c r="L789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N789" t="n">
+        <v>4</v>
+      </c>
+      <c r="O789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R789" t="inlineStr"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B790" t="n">
+        <v>1664.900024414062</v>
+      </c>
+      <c r="C790" t="n">
+        <v>1664.900024414062</v>
+      </c>
+      <c r="D790" t="n">
+        <v>1547.25</v>
+      </c>
+      <c r="E790" t="n">
+        <v>1610.699951171875</v>
+      </c>
+      <c r="F790" t="inlineStr"/>
+      <c r="G790" t="n">
+        <v>2767075</v>
+      </c>
+      <c r="H790" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I790" t="n">
+        <v>1</v>
+      </c>
+      <c r="J790" t="n">
+        <v>22</v>
+      </c>
+      <c r="K790" t="n">
+        <v>0</v>
+      </c>
+      <c r="L790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N790" t="n">
+        <v>4</v>
+      </c>
+      <c r="O790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B791" t="n">
+        <v>1612.849975585938</v>
+      </c>
+      <c r="C791" t="n">
+        <v>1704.75</v>
+      </c>
+      <c r="D791" t="n">
+        <v>1605</v>
+      </c>
+      <c r="E791" t="n">
+        <v>1686.800048828125</v>
+      </c>
+      <c r="F791" t="inlineStr"/>
+      <c r="G791" t="n">
+        <v>1397792</v>
+      </c>
+      <c r="H791" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I791" t="n">
+        <v>1</v>
+      </c>
+      <c r="J791" t="n">
+        <v>23</v>
+      </c>
+      <c r="K791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N791" t="n">
+        <v>4</v>
+      </c>
+      <c r="O791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R791" t="inlineStr"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B792" t="n">
+        <v>1686.800048828125</v>
+      </c>
+      <c r="C792" t="n">
+        <v>1713.949951171875</v>
+      </c>
+      <c r="D792" t="n">
+        <v>1672</v>
+      </c>
+      <c r="E792" t="n">
+        <v>1694.699951171875</v>
+      </c>
+      <c r="F792" t="inlineStr"/>
+      <c r="G792" t="n">
+        <v>1300352</v>
+      </c>
+      <c r="H792" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I792" t="n">
+        <v>1</v>
+      </c>
+      <c r="J792" t="n">
+        <v>24</v>
+      </c>
+      <c r="K792" t="n">
+        <v>0</v>
+      </c>
+      <c r="L792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N792" t="n">
+        <v>4</v>
+      </c>
+      <c r="O792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R792" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R792"/>
+  <dimension ref="A1:R797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44537,7 +44537,9 @@
       <c r="Q788" t="n">
         <v>0</v>
       </c>
-      <c r="R788" t="inlineStr"/>
+      <c r="R788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
@@ -44589,7 +44591,9 @@
       <c r="Q789" t="n">
         <v>0</v>
       </c>
-      <c r="R789" t="inlineStr"/>
+      <c r="R789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
@@ -44641,7 +44645,9 @@
       <c r="Q790" t="n">
         <v>0</v>
       </c>
-      <c r="R790" t="inlineStr"/>
+      <c r="R790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
@@ -44693,7 +44699,9 @@
       <c r="Q791" t="n">
         <v>0</v>
       </c>
-      <c r="R791" t="inlineStr"/>
+      <c r="R791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
@@ -44745,7 +44753,269 @@
       <c r="Q792" t="n">
         <v>0</v>
       </c>
-      <c r="R792" t="inlineStr"/>
+      <c r="R792" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B793" t="n">
+        <v>1670</v>
+      </c>
+      <c r="C793" t="n">
+        <v>1705.949951171875</v>
+      </c>
+      <c r="D793" t="n">
+        <v>1665</v>
+      </c>
+      <c r="E793" t="n">
+        <v>1694.050048828125</v>
+      </c>
+      <c r="F793" t="inlineStr"/>
+      <c r="G793" t="n">
+        <v>1313812</v>
+      </c>
+      <c r="H793" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I793" t="n">
+        <v>1</v>
+      </c>
+      <c r="J793" t="n">
+        <v>27</v>
+      </c>
+      <c r="K793" t="n">
+        <v>0</v>
+      </c>
+      <c r="L793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N793" t="n">
+        <v>5</v>
+      </c>
+      <c r="O793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R793" t="inlineStr"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B794" t="n">
+        <v>1685.099975585938</v>
+      </c>
+      <c r="C794" t="n">
+        <v>1705</v>
+      </c>
+      <c r="D794" t="n">
+        <v>1625</v>
+      </c>
+      <c r="E794" t="n">
+        <v>1644</v>
+      </c>
+      <c r="F794" t="inlineStr"/>
+      <c r="G794" t="n">
+        <v>1176369</v>
+      </c>
+      <c r="H794" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I794" t="n">
+        <v>1</v>
+      </c>
+      <c r="J794" t="n">
+        <v>28</v>
+      </c>
+      <c r="K794" t="n">
+        <v>0</v>
+      </c>
+      <c r="L794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N794" t="n">
+        <v>5</v>
+      </c>
+      <c r="O794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R794" t="inlineStr"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B795" t="n">
+        <v>1644</v>
+      </c>
+      <c r="C795" t="n">
+        <v>1723.199951171875</v>
+      </c>
+      <c r="D795" t="n">
+        <v>1633.75</v>
+      </c>
+      <c r="E795" t="n">
+        <v>1710.949951171875</v>
+      </c>
+      <c r="F795" t="inlineStr"/>
+      <c r="G795" t="n">
+        <v>756568</v>
+      </c>
+      <c r="H795" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I795" t="n">
+        <v>1</v>
+      </c>
+      <c r="J795" t="n">
+        <v>29</v>
+      </c>
+      <c r="K795" t="n">
+        <v>0</v>
+      </c>
+      <c r="L795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N795" t="n">
+        <v>5</v>
+      </c>
+      <c r="O795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R795" t="inlineStr"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B796" t="n">
+        <v>1725.449951171875</v>
+      </c>
+      <c r="C796" t="n">
+        <v>1735.25</v>
+      </c>
+      <c r="D796" t="n">
+        <v>1639</v>
+      </c>
+      <c r="E796" t="n">
+        <v>1656.099975585938</v>
+      </c>
+      <c r="F796" t="inlineStr"/>
+      <c r="G796" t="n">
+        <v>1487051</v>
+      </c>
+      <c r="H796" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I796" t="n">
+        <v>1</v>
+      </c>
+      <c r="J796" t="n">
+        <v>30</v>
+      </c>
+      <c r="K796" t="n">
+        <v>0</v>
+      </c>
+      <c r="L796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N796" t="n">
+        <v>5</v>
+      </c>
+      <c r="O796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B797" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C797" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D797" t="n">
+        <v>1595.099975585938</v>
+      </c>
+      <c r="E797" t="n">
+        <v>1726.800048828125</v>
+      </c>
+      <c r="F797" t="inlineStr"/>
+      <c r="G797" t="n">
+        <v>3194424</v>
+      </c>
+      <c r="H797" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I797" t="n">
+        <v>1</v>
+      </c>
+      <c r="J797" t="n">
+        <v>31</v>
+      </c>
+      <c r="K797" t="n">
+        <v>0</v>
+      </c>
+      <c r="L797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N797" t="n">
+        <v>5</v>
+      </c>
+      <c r="O797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R797" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R797"/>
+  <dimension ref="A1:R799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44807,7 +44807,9 @@
       <c r="Q793" t="n">
         <v>0</v>
       </c>
-      <c r="R793" t="inlineStr"/>
+      <c r="R793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
@@ -44859,7 +44861,9 @@
       <c r="Q794" t="n">
         <v>0</v>
       </c>
-      <c r="R794" t="inlineStr"/>
+      <c r="R794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
@@ -44911,7 +44915,9 @@
       <c r="Q795" t="n">
         <v>0</v>
       </c>
-      <c r="R795" t="inlineStr"/>
+      <c r="R795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
@@ -44963,7 +44969,9 @@
       <c r="Q796" t="n">
         <v>0</v>
       </c>
-      <c r="R796" t="inlineStr"/>
+      <c r="R796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
@@ -45015,7 +45023,113 @@
       <c r="Q797" t="n">
         <v>0</v>
       </c>
-      <c r="R797" t="inlineStr"/>
+      <c r="R797" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B798" t="n">
+        <v>1662.650024414062</v>
+      </c>
+      <c r="C798" t="n">
+        <v>1709.449951171875</v>
+      </c>
+      <c r="D798" t="n">
+        <v>1647.349975585938</v>
+      </c>
+      <c r="E798" t="n">
+        <v>1672.150024414062</v>
+      </c>
+      <c r="F798" t="inlineStr"/>
+      <c r="G798" t="n">
+        <v>1253612</v>
+      </c>
+      <c r="H798" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I798" t="n">
+        <v>2</v>
+      </c>
+      <c r="J798" t="n">
+        <v>3</v>
+      </c>
+      <c r="K798" t="n">
+        <v>0</v>
+      </c>
+      <c r="L798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N798" t="n">
+        <v>6</v>
+      </c>
+      <c r="O798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B799" t="n">
+        <v>1675</v>
+      </c>
+      <c r="C799" t="n">
+        <v>1712.900024414062</v>
+      </c>
+      <c r="D799" t="n">
+        <v>1668.199951171875</v>
+      </c>
+      <c r="E799" t="n">
+        <v>1706.650024414062</v>
+      </c>
+      <c r="F799" t="inlineStr"/>
+      <c r="G799" t="n">
+        <v>1270281</v>
+      </c>
+      <c r="H799" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I799" t="n">
+        <v>2</v>
+      </c>
+      <c r="J799" t="n">
+        <v>4</v>
+      </c>
+      <c r="K799" t="n">
+        <v>0</v>
+      </c>
+      <c r="L799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N799" t="n">
+        <v>6</v>
+      </c>
+      <c r="O799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R799" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R799"/>
+  <dimension ref="A1:R807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44637,7 +44637,7 @@
         <v>4</v>
       </c>
       <c r="O790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P790" t="n">
         <v>0</v>
@@ -45077,7 +45077,9 @@
       <c r="Q798" t="n">
         <v>0</v>
       </c>
-      <c r="R798" t="inlineStr"/>
+      <c r="R798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
@@ -45129,7 +45131,425 @@
       <c r="Q799" t="n">
         <v>0</v>
       </c>
-      <c r="R799" t="inlineStr"/>
+      <c r="R799" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B800" t="n">
+        <v>1721.949951171875</v>
+      </c>
+      <c r="C800" t="n">
+        <v>1770.599975585938</v>
+      </c>
+      <c r="D800" t="n">
+        <v>1710.75</v>
+      </c>
+      <c r="E800" t="n">
+        <v>1753.75</v>
+      </c>
+      <c r="F800" t="inlineStr"/>
+      <c r="G800" t="n">
+        <v>1321880</v>
+      </c>
+      <c r="H800" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I800" t="n">
+        <v>2</v>
+      </c>
+      <c r="J800" t="n">
+        <v>5</v>
+      </c>
+      <c r="K800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N800" t="n">
+        <v>6</v>
+      </c>
+      <c r="O800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R800" t="inlineStr"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B801" t="n">
+        <v>1760.150024414062</v>
+      </c>
+      <c r="C801" t="n">
+        <v>1777.099975585938</v>
+      </c>
+      <c r="D801" t="n">
+        <v>1685.099975585938</v>
+      </c>
+      <c r="E801" t="n">
+        <v>1701.75</v>
+      </c>
+      <c r="F801" t="inlineStr"/>
+      <c r="G801" t="n">
+        <v>722329</v>
+      </c>
+      <c r="H801" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I801" t="n">
+        <v>2</v>
+      </c>
+      <c r="J801" t="n">
+        <v>6</v>
+      </c>
+      <c r="K801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N801" t="n">
+        <v>6</v>
+      </c>
+      <c r="O801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P801" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R801" t="inlineStr"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B802" t="n">
+        <v>1701.75</v>
+      </c>
+      <c r="C802" t="n">
+        <v>1731.900024414062</v>
+      </c>
+      <c r="D802" t="n">
+        <v>1659.25</v>
+      </c>
+      <c r="E802" t="n">
+        <v>1725.400024414062</v>
+      </c>
+      <c r="F802" t="inlineStr"/>
+      <c r="G802" t="n">
+        <v>916722</v>
+      </c>
+      <c r="H802" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I802" t="n">
+        <v>2</v>
+      </c>
+      <c r="J802" t="n">
+        <v>7</v>
+      </c>
+      <c r="K802" t="n">
+        <v>0</v>
+      </c>
+      <c r="L802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N802" t="n">
+        <v>6</v>
+      </c>
+      <c r="O802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R802" t="inlineStr"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B803" t="n">
+        <v>1725</v>
+      </c>
+      <c r="C803" t="n">
+        <v>1732.5</v>
+      </c>
+      <c r="D803" t="n">
+        <v>1652.699951171875</v>
+      </c>
+      <c r="E803" t="n">
+        <v>1661.800048828125</v>
+      </c>
+      <c r="F803" t="inlineStr"/>
+      <c r="G803" t="n">
+        <v>817366</v>
+      </c>
+      <c r="H803" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I803" t="n">
+        <v>2</v>
+      </c>
+      <c r="J803" t="n">
+        <v>10</v>
+      </c>
+      <c r="K803" t="n">
+        <v>0</v>
+      </c>
+      <c r="L803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N803" t="n">
+        <v>7</v>
+      </c>
+      <c r="O803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B804" t="n">
+        <v>1661.800048828125</v>
+      </c>
+      <c r="C804" t="n">
+        <v>1668.949951171875</v>
+      </c>
+      <c r="D804" t="n">
+        <v>1518.5</v>
+      </c>
+      <c r="E804" t="n">
+        <v>1539.300048828125</v>
+      </c>
+      <c r="F804" t="inlineStr"/>
+      <c r="G804" t="n">
+        <v>2543617</v>
+      </c>
+      <c r="H804" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I804" t="n">
+        <v>2</v>
+      </c>
+      <c r="J804" t="n">
+        <v>11</v>
+      </c>
+      <c r="K804" t="n">
+        <v>0</v>
+      </c>
+      <c r="L804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N804" t="n">
+        <v>7</v>
+      </c>
+      <c r="O804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B805" t="n">
+        <v>1537</v>
+      </c>
+      <c r="C805" t="n">
+        <v>1611.849975585938</v>
+      </c>
+      <c r="D805" t="n">
+        <v>1487.5</v>
+      </c>
+      <c r="E805" t="n">
+        <v>1592.75</v>
+      </c>
+      <c r="F805" t="inlineStr"/>
+      <c r="G805" t="n">
+        <v>2607336</v>
+      </c>
+      <c r="H805" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I805" t="n">
+        <v>2</v>
+      </c>
+      <c r="J805" t="n">
+        <v>12</v>
+      </c>
+      <c r="K805" t="n">
+        <v>0</v>
+      </c>
+      <c r="L805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N805" t="n">
+        <v>7</v>
+      </c>
+      <c r="O805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B806" t="n">
+        <v>1584.699951171875</v>
+      </c>
+      <c r="C806" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D806" t="n">
+        <v>1576.400024414062</v>
+      </c>
+      <c r="E806" t="n">
+        <v>1633.75</v>
+      </c>
+      <c r="F806" t="inlineStr"/>
+      <c r="G806" t="n">
+        <v>1630636</v>
+      </c>
+      <c r="H806" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I806" t="n">
+        <v>2</v>
+      </c>
+      <c r="J806" t="n">
+        <v>13</v>
+      </c>
+      <c r="K806" t="n">
+        <v>0</v>
+      </c>
+      <c r="L806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N806" t="n">
+        <v>7</v>
+      </c>
+      <c r="O806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B807" t="n">
+        <v>1627</v>
+      </c>
+      <c r="C807" t="n">
+        <v>1649.599975585938</v>
+      </c>
+      <c r="D807" t="n">
+        <v>1548</v>
+      </c>
+      <c r="E807" t="n">
+        <v>1574</v>
+      </c>
+      <c r="F807" t="inlineStr"/>
+      <c r="G807" t="n">
+        <v>963149</v>
+      </c>
+      <c r="H807" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I807" t="n">
+        <v>2</v>
+      </c>
+      <c r="J807" t="n">
+        <v>14</v>
+      </c>
+      <c r="K807" t="n">
+        <v>0</v>
+      </c>
+      <c r="L807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N807" t="n">
+        <v>7</v>
+      </c>
+      <c r="O807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R807" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R807"/>
+  <dimension ref="A1:R812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45185,7 +45185,9 @@
       <c r="Q800" t="n">
         <v>0</v>
       </c>
-      <c r="R800" t="inlineStr"/>
+      <c r="R800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
@@ -45229,7 +45231,7 @@
         <v>6</v>
       </c>
       <c r="O801" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P801" t="n">
         <v>1</v>
@@ -45237,7 +45239,9 @@
       <c r="Q801" t="n">
         <v>0</v>
       </c>
-      <c r="R801" t="inlineStr"/>
+      <c r="R801" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
@@ -45289,7 +45293,9 @@
       <c r="Q802" t="n">
         <v>0</v>
       </c>
-      <c r="R802" t="inlineStr"/>
+      <c r="R802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
@@ -45341,7 +45347,9 @@
       <c r="Q803" t="n">
         <v>0</v>
       </c>
-      <c r="R803" t="inlineStr"/>
+      <c r="R803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
@@ -45393,7 +45401,9 @@
       <c r="Q804" t="n">
         <v>0</v>
       </c>
-      <c r="R804" t="inlineStr"/>
+      <c r="R804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
@@ -45445,7 +45455,9 @@
       <c r="Q805" t="n">
         <v>0</v>
       </c>
-      <c r="R805" t="inlineStr"/>
+      <c r="R805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
@@ -45497,7 +45509,9 @@
       <c r="Q806" t="n">
         <v>0</v>
       </c>
-      <c r="R806" t="inlineStr"/>
+      <c r="R806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
@@ -45549,7 +45563,269 @@
       <c r="Q807" t="n">
         <v>0</v>
       </c>
-      <c r="R807" t="inlineStr"/>
+      <c r="R807" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B808" t="n">
+        <v>1542.099975585938</v>
+      </c>
+      <c r="C808" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D808" t="n">
+        <v>1476.949951171875</v>
+      </c>
+      <c r="E808" t="n">
+        <v>1494.349975585938</v>
+      </c>
+      <c r="F808" t="inlineStr"/>
+      <c r="G808" t="n">
+        <v>3807864</v>
+      </c>
+      <c r="H808" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I808" t="n">
+        <v>2</v>
+      </c>
+      <c r="J808" t="n">
+        <v>17</v>
+      </c>
+      <c r="K808" t="n">
+        <v>0</v>
+      </c>
+      <c r="L808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N808" t="n">
+        <v>8</v>
+      </c>
+      <c r="O808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B809" t="n">
+        <v>1475.949951171875</v>
+      </c>
+      <c r="C809" t="n">
+        <v>1558.5</v>
+      </c>
+      <c r="D809" t="n">
+        <v>1470.25</v>
+      </c>
+      <c r="E809" t="n">
+        <v>1526.099975585938</v>
+      </c>
+      <c r="F809" t="inlineStr"/>
+      <c r="G809" t="n">
+        <v>2180785</v>
+      </c>
+      <c r="H809" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I809" t="n">
+        <v>2</v>
+      </c>
+      <c r="J809" t="n">
+        <v>18</v>
+      </c>
+      <c r="K809" t="n">
+        <v>0</v>
+      </c>
+      <c r="L809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N809" t="n">
+        <v>8</v>
+      </c>
+      <c r="O809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B810" t="n">
+        <v>1516</v>
+      </c>
+      <c r="C810" t="n">
+        <v>1542</v>
+      </c>
+      <c r="D810" t="n">
+        <v>1484.050048828125</v>
+      </c>
+      <c r="E810" t="n">
+        <v>1511.800048828125</v>
+      </c>
+      <c r="F810" t="inlineStr"/>
+      <c r="G810" t="n">
+        <v>1326272</v>
+      </c>
+      <c r="H810" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I810" t="n">
+        <v>2</v>
+      </c>
+      <c r="J810" t="n">
+        <v>19</v>
+      </c>
+      <c r="K810" t="n">
+        <v>0</v>
+      </c>
+      <c r="L810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N810" t="n">
+        <v>8</v>
+      </c>
+      <c r="O810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B811" t="n">
+        <v>1503</v>
+      </c>
+      <c r="C811" t="n">
+        <v>1532.349975585938</v>
+      </c>
+      <c r="D811" t="n">
+        <v>1494.550048828125</v>
+      </c>
+      <c r="E811" t="n">
+        <v>1509</v>
+      </c>
+      <c r="F811" t="inlineStr"/>
+      <c r="G811" t="n">
+        <v>1687900</v>
+      </c>
+      <c r="H811" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I811" t="n">
+        <v>2</v>
+      </c>
+      <c r="J811" t="n">
+        <v>20</v>
+      </c>
+      <c r="K811" t="n">
+        <v>0</v>
+      </c>
+      <c r="L811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N811" t="n">
+        <v>8</v>
+      </c>
+      <c r="O811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B812" t="n">
+        <v>1510.099975585938</v>
+      </c>
+      <c r="C812" t="n">
+        <v>1575.550048828125</v>
+      </c>
+      <c r="D812" t="n">
+        <v>1510.099975585938</v>
+      </c>
+      <c r="E812" t="n">
+        <v>1562.75</v>
+      </c>
+      <c r="F812" t="inlineStr"/>
+      <c r="G812" t="n">
+        <v>1383747</v>
+      </c>
+      <c r="H812" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I812" t="n">
+        <v>2</v>
+      </c>
+      <c r="J812" t="n">
+        <v>21</v>
+      </c>
+      <c r="K812" t="n">
+        <v>0</v>
+      </c>
+      <c r="L812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N812" t="n">
+        <v>8</v>
+      </c>
+      <c r="O812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R812" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R812"/>
+  <dimension ref="A1:R822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45029,23 +45029,23 @@
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="B798" t="n">
-        <v>1662.650024414062</v>
+        <v>1740</v>
       </c>
       <c r="C798" t="n">
-        <v>1709.449951171875</v>
+        <v>1770.099975585938</v>
       </c>
       <c r="D798" t="n">
-        <v>1647.349975585938</v>
+        <v>1604.699951171875</v>
       </c>
       <c r="E798" t="n">
-        <v>1672.150024414062</v>
+        <v>1716.150024414062</v>
       </c>
       <c r="F798" t="inlineStr"/>
       <c r="G798" t="n">
-        <v>1253612</v>
+        <v>925700</v>
       </c>
       <c r="H798" t="n">
         <v>2025</v>
@@ -45054,7 +45054,7 @@
         <v>2</v>
       </c>
       <c r="J798" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K798" t="n">
         <v>0</v>
@@ -45066,7 +45066,7 @@
         <v>0</v>
       </c>
       <c r="N798" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O798" t="n">
         <v>0</v>
@@ -45077,29 +45077,27 @@
       <c r="Q798" t="n">
         <v>0</v>
       </c>
-      <c r="R798" t="n">
-        <v>0</v>
-      </c>
+      <c r="R798" t="inlineStr"/>
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B799" t="n">
-        <v>1675</v>
+        <v>1662.650024414062</v>
       </c>
       <c r="C799" t="n">
-        <v>1712.900024414062</v>
+        <v>1709.449951171875</v>
       </c>
       <c r="D799" t="n">
-        <v>1668.199951171875</v>
+        <v>1647.349975585938</v>
       </c>
       <c r="E799" t="n">
-        <v>1706.650024414062</v>
+        <v>1672.150024414062</v>
       </c>
       <c r="F799" t="inlineStr"/>
       <c r="G799" t="n">
-        <v>1270281</v>
+        <v>1253612</v>
       </c>
       <c r="H799" t="n">
         <v>2025</v>
@@ -45108,7 +45106,7 @@
         <v>2</v>
       </c>
       <c r="J799" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K799" t="n">
         <v>0</v>
@@ -45137,23 +45135,23 @@
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>45693</v>
+        <v>45692</v>
       </c>
       <c r="B800" t="n">
-        <v>1721.949951171875</v>
+        <v>1675</v>
       </c>
       <c r="C800" t="n">
-        <v>1770.599975585938</v>
+        <v>1712.900024414062</v>
       </c>
       <c r="D800" t="n">
-        <v>1710.75</v>
+        <v>1668.199951171875</v>
       </c>
       <c r="E800" t="n">
-        <v>1753.75</v>
+        <v>1706.650024414062</v>
       </c>
       <c r="F800" t="inlineStr"/>
       <c r="G800" t="n">
-        <v>1321880</v>
+        <v>1270281</v>
       </c>
       <c r="H800" t="n">
         <v>2025</v>
@@ -45162,7 +45160,7 @@
         <v>2</v>
       </c>
       <c r="J800" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K800" t="n">
         <v>0</v>
@@ -45191,23 +45189,23 @@
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>45694</v>
+        <v>45693</v>
       </c>
       <c r="B801" t="n">
-        <v>1760.150024414062</v>
+        <v>1721.949951171875</v>
       </c>
       <c r="C801" t="n">
-        <v>1777.099975585938</v>
+        <v>1770.599975585938</v>
       </c>
       <c r="D801" t="n">
-        <v>1685.099975585938</v>
+        <v>1710.75</v>
       </c>
       <c r="E801" t="n">
-        <v>1701.75</v>
+        <v>1753.75</v>
       </c>
       <c r="F801" t="inlineStr"/>
       <c r="G801" t="n">
-        <v>722329</v>
+        <v>1321880</v>
       </c>
       <c r="H801" t="n">
         <v>2025</v>
@@ -45216,7 +45214,7 @@
         <v>2</v>
       </c>
       <c r="J801" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K801" t="n">
         <v>0</v>
@@ -45231,7 +45229,7 @@
         <v>6</v>
       </c>
       <c r="O801" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P801" t="n">
         <v>1</v>
@@ -45240,28 +45238,28 @@
         <v>0</v>
       </c>
       <c r="R801" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="B802" t="n">
+        <v>1760.150024414062</v>
+      </c>
+      <c r="C802" t="n">
+        <v>1777.099975585938</v>
+      </c>
+      <c r="D802" t="n">
+        <v>1685.099975585938</v>
+      </c>
+      <c r="E802" t="n">
         <v>1701.75</v>
-      </c>
-      <c r="C802" t="n">
-        <v>1731.900024414062</v>
-      </c>
-      <c r="D802" t="n">
-        <v>1659.25</v>
-      </c>
-      <c r="E802" t="n">
-        <v>1725.400024414062</v>
       </c>
       <c r="F802" t="inlineStr"/>
       <c r="G802" t="n">
-        <v>916722</v>
+        <v>722329</v>
       </c>
       <c r="H802" t="n">
         <v>2025</v>
@@ -45270,7 +45268,7 @@
         <v>2</v>
       </c>
       <c r="J802" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K802" t="n">
         <v>0</v>
@@ -45285,7 +45283,7 @@
         <v>6</v>
       </c>
       <c r="O802" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P802" t="n">
         <v>0</v>
@@ -45294,28 +45292,28 @@
         <v>0</v>
       </c>
       <c r="R802" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>45698</v>
+        <v>45695</v>
       </c>
       <c r="B803" t="n">
-        <v>1725</v>
+        <v>1701.75</v>
       </c>
       <c r="C803" t="n">
-        <v>1732.5</v>
+        <v>1731.900024414062</v>
       </c>
       <c r="D803" t="n">
-        <v>1652.699951171875</v>
+        <v>1659.25</v>
       </c>
       <c r="E803" t="n">
-        <v>1661.800048828125</v>
+        <v>1725.400024414062</v>
       </c>
       <c r="F803" t="inlineStr"/>
       <c r="G803" t="n">
-        <v>817366</v>
+        <v>916722</v>
       </c>
       <c r="H803" t="n">
         <v>2025</v>
@@ -45324,7 +45322,7 @@
         <v>2</v>
       </c>
       <c r="J803" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K803" t="n">
         <v>0</v>
@@ -45336,7 +45334,7 @@
         <v>0</v>
       </c>
       <c r="N803" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O803" t="n">
         <v>0</v>
@@ -45353,23 +45351,23 @@
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="B804" t="n">
+        <v>1725</v>
+      </c>
+      <c r="C804" t="n">
+        <v>1732.5</v>
+      </c>
+      <c r="D804" t="n">
+        <v>1652.699951171875</v>
+      </c>
+      <c r="E804" t="n">
         <v>1661.800048828125</v>
-      </c>
-      <c r="C804" t="n">
-        <v>1668.949951171875</v>
-      </c>
-      <c r="D804" t="n">
-        <v>1518.5</v>
-      </c>
-      <c r="E804" t="n">
-        <v>1539.300048828125</v>
       </c>
       <c r="F804" t="inlineStr"/>
       <c r="G804" t="n">
-        <v>2543617</v>
+        <v>817366</v>
       </c>
       <c r="H804" t="n">
         <v>2025</v>
@@ -45378,7 +45376,7 @@
         <v>2</v>
       </c>
       <c r="J804" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K804" t="n">
         <v>0</v>
@@ -45407,23 +45405,23 @@
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>45700</v>
+        <v>45699</v>
       </c>
       <c r="B805" t="n">
-        <v>1537</v>
+        <v>1661.800048828125</v>
       </c>
       <c r="C805" t="n">
-        <v>1611.849975585938</v>
+        <v>1668.949951171875</v>
       </c>
       <c r="D805" t="n">
-        <v>1487.5</v>
+        <v>1518.5</v>
       </c>
       <c r="E805" t="n">
-        <v>1592.75</v>
+        <v>1539.300048828125</v>
       </c>
       <c r="F805" t="inlineStr"/>
       <c r="G805" t="n">
-        <v>2607336</v>
+        <v>2543617</v>
       </c>
       <c r="H805" t="n">
         <v>2025</v>
@@ -45432,7 +45430,7 @@
         <v>2</v>
       </c>
       <c r="J805" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K805" t="n">
         <v>0</v>
@@ -45461,23 +45459,23 @@
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>45701</v>
+        <v>45700</v>
       </c>
       <c r="B806" t="n">
-        <v>1584.699951171875</v>
+        <v>1537</v>
       </c>
       <c r="C806" t="n">
-        <v>1660</v>
+        <v>1611.849975585938</v>
       </c>
       <c r="D806" t="n">
-        <v>1576.400024414062</v>
+        <v>1487.5</v>
       </c>
       <c r="E806" t="n">
-        <v>1633.75</v>
+        <v>1592.75</v>
       </c>
       <c r="F806" t="inlineStr"/>
       <c r="G806" t="n">
-        <v>1630636</v>
+        <v>2607336</v>
       </c>
       <c r="H806" t="n">
         <v>2025</v>
@@ -45486,7 +45484,7 @@
         <v>2</v>
       </c>
       <c r="J806" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K806" t="n">
         <v>0</v>
@@ -45515,23 +45513,23 @@
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>45702</v>
+        <v>45701</v>
       </c>
       <c r="B807" t="n">
-        <v>1627</v>
+        <v>1584.699951171875</v>
       </c>
       <c r="C807" t="n">
-        <v>1649.599975585938</v>
+        <v>1660</v>
       </c>
       <c r="D807" t="n">
-        <v>1548</v>
+        <v>1576.400024414062</v>
       </c>
       <c r="E807" t="n">
-        <v>1574</v>
+        <v>1633.75</v>
       </c>
       <c r="F807" t="inlineStr"/>
       <c r="G807" t="n">
-        <v>963149</v>
+        <v>1630636</v>
       </c>
       <c r="H807" t="n">
         <v>2025</v>
@@ -45540,7 +45538,7 @@
         <v>2</v>
       </c>
       <c r="J807" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K807" t="n">
         <v>0</v>
@@ -45569,23 +45567,23 @@
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="B808" t="n">
-        <v>1542.099975585938</v>
+        <v>1627</v>
       </c>
       <c r="C808" t="n">
-        <v>1550</v>
+        <v>1649.599975585938</v>
       </c>
       <c r="D808" t="n">
-        <v>1476.949951171875</v>
+        <v>1548</v>
       </c>
       <c r="E808" t="n">
-        <v>1494.349975585938</v>
+        <v>1574</v>
       </c>
       <c r="F808" t="inlineStr"/>
       <c r="G808" t="n">
-        <v>3807864</v>
+        <v>963149</v>
       </c>
       <c r="H808" t="n">
         <v>2025</v>
@@ -45594,7 +45592,7 @@
         <v>2</v>
       </c>
       <c r="J808" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K808" t="n">
         <v>0</v>
@@ -45606,7 +45604,7 @@
         <v>0</v>
       </c>
       <c r="N808" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O808" t="n">
         <v>0</v>
@@ -45617,27 +45615,29 @@
       <c r="Q808" t="n">
         <v>0</v>
       </c>
-      <c r="R808" t="inlineStr"/>
+      <c r="R808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="B809" t="n">
-        <v>1475.949951171875</v>
+        <v>1542.099975585938</v>
       </c>
       <c r="C809" t="n">
-        <v>1558.5</v>
+        <v>1550</v>
       </c>
       <c r="D809" t="n">
-        <v>1470.25</v>
+        <v>1476.949951171875</v>
       </c>
       <c r="E809" t="n">
-        <v>1526.099975585938</v>
+        <v>1494.349975585938</v>
       </c>
       <c r="F809" t="inlineStr"/>
       <c r="G809" t="n">
-        <v>2180785</v>
+        <v>3807864</v>
       </c>
       <c r="H809" t="n">
         <v>2025</v>
@@ -45646,7 +45646,7 @@
         <v>2</v>
       </c>
       <c r="J809" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K809" t="n">
         <v>0</v>
@@ -45669,27 +45669,29 @@
       <c r="Q809" t="n">
         <v>0</v>
       </c>
-      <c r="R809" t="inlineStr"/>
+      <c r="R809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>45707</v>
+        <v>45706</v>
       </c>
       <c r="B810" t="n">
-        <v>1516</v>
+        <v>1475.949951171875</v>
       </c>
       <c r="C810" t="n">
-        <v>1542</v>
+        <v>1558.5</v>
       </c>
       <c r="D810" t="n">
-        <v>1484.050048828125</v>
+        <v>1470.25</v>
       </c>
       <c r="E810" t="n">
-        <v>1511.800048828125</v>
+        <v>1526.099975585938</v>
       </c>
       <c r="F810" t="inlineStr"/>
       <c r="G810" t="n">
-        <v>1326272</v>
+        <v>2180785</v>
       </c>
       <c r="H810" t="n">
         <v>2025</v>
@@ -45698,7 +45700,7 @@
         <v>2</v>
       </c>
       <c r="J810" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K810" t="n">
         <v>0</v>
@@ -45721,27 +45723,29 @@
       <c r="Q810" t="n">
         <v>0</v>
       </c>
-      <c r="R810" t="inlineStr"/>
+      <c r="R810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>45708</v>
+        <v>45707</v>
       </c>
       <c r="B811" t="n">
-        <v>1503</v>
+        <v>1516</v>
       </c>
       <c r="C811" t="n">
-        <v>1532.349975585938</v>
+        <v>1542</v>
       </c>
       <c r="D811" t="n">
-        <v>1494.550048828125</v>
+        <v>1484.050048828125</v>
       </c>
       <c r="E811" t="n">
-        <v>1509</v>
+        <v>1511.800048828125</v>
       </c>
       <c r="F811" t="inlineStr"/>
       <c r="G811" t="n">
-        <v>1687900</v>
+        <v>1326272</v>
       </c>
       <c r="H811" t="n">
         <v>2025</v>
@@ -45750,7 +45754,7 @@
         <v>2</v>
       </c>
       <c r="J811" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K811" t="n">
         <v>0</v>
@@ -45773,27 +45777,29 @@
       <c r="Q811" t="n">
         <v>0</v>
       </c>
-      <c r="R811" t="inlineStr"/>
+      <c r="R811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>45709</v>
+        <v>45708</v>
       </c>
       <c r="B812" t="n">
-        <v>1510.099975585938</v>
+        <v>1503</v>
       </c>
       <c r="C812" t="n">
-        <v>1575.550048828125</v>
+        <v>1532.349975585938</v>
       </c>
       <c r="D812" t="n">
-        <v>1510.099975585938</v>
+        <v>1494.550048828125</v>
       </c>
       <c r="E812" t="n">
-        <v>1562.75</v>
+        <v>1509</v>
       </c>
       <c r="F812" t="inlineStr"/>
       <c r="G812" t="n">
-        <v>1383747</v>
+        <v>1687900</v>
       </c>
       <c r="H812" t="n">
         <v>2025</v>
@@ -45802,7 +45808,7 @@
         <v>2</v>
       </c>
       <c r="J812" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K812" t="n">
         <v>0</v>
@@ -45825,7 +45831,531 @@
       <c r="Q812" t="n">
         <v>0</v>
       </c>
-      <c r="R812" t="inlineStr"/>
+      <c r="R812" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B813" t="n">
+        <v>1510.099975585938</v>
+      </c>
+      <c r="C813" t="n">
+        <v>1575.550048828125</v>
+      </c>
+      <c r="D813" t="n">
+        <v>1510.099975585938</v>
+      </c>
+      <c r="E813" t="n">
+        <v>1562.75</v>
+      </c>
+      <c r="F813" t="inlineStr"/>
+      <c r="G813" t="n">
+        <v>1383747</v>
+      </c>
+      <c r="H813" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I813" t="n">
+        <v>2</v>
+      </c>
+      <c r="J813" t="n">
+        <v>21</v>
+      </c>
+      <c r="K813" t="n">
+        <v>0</v>
+      </c>
+      <c r="L813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N813" t="n">
+        <v>8</v>
+      </c>
+      <c r="O813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R813" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B814" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C814" t="n">
+        <v>1565.650024414062</v>
+      </c>
+      <c r="D814" t="n">
+        <v>1497.050048828125</v>
+      </c>
+      <c r="E814" t="n">
+        <v>1554.599975585938</v>
+      </c>
+      <c r="F814" t="inlineStr"/>
+      <c r="G814" t="n">
+        <v>1408416</v>
+      </c>
+      <c r="H814" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I814" t="n">
+        <v>2</v>
+      </c>
+      <c r="J814" t="n">
+        <v>24</v>
+      </c>
+      <c r="K814" t="n">
+        <v>0</v>
+      </c>
+      <c r="L814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N814" t="n">
+        <v>9</v>
+      </c>
+      <c r="O814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B815" t="n">
+        <v>1542</v>
+      </c>
+      <c r="C815" t="n">
+        <v>1553</v>
+      </c>
+      <c r="D815" t="n">
+        <v>1499.050048828125</v>
+      </c>
+      <c r="E815" t="n">
+        <v>1505.5</v>
+      </c>
+      <c r="F815" t="inlineStr"/>
+      <c r="G815" t="n">
+        <v>1110766</v>
+      </c>
+      <c r="H815" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I815" t="n">
+        <v>2</v>
+      </c>
+      <c r="J815" t="n">
+        <v>25</v>
+      </c>
+      <c r="K815" t="n">
+        <v>0</v>
+      </c>
+      <c r="L815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N815" t="n">
+        <v>9</v>
+      </c>
+      <c r="O815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R815" t="inlineStr"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B816" t="n">
+        <v>1523.849975585938</v>
+      </c>
+      <c r="C816" t="n">
+        <v>1525</v>
+      </c>
+      <c r="D816" t="n">
+        <v>1457.25</v>
+      </c>
+      <c r="E816" t="n">
+        <v>1500.800048828125</v>
+      </c>
+      <c r="F816" t="inlineStr"/>
+      <c r="G816" t="n">
+        <v>1363988</v>
+      </c>
+      <c r="H816" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I816" t="n">
+        <v>2</v>
+      </c>
+      <c r="J816" t="n">
+        <v>27</v>
+      </c>
+      <c r="K816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N816" t="n">
+        <v>9</v>
+      </c>
+      <c r="O816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R816" t="inlineStr"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B817" t="n">
+        <v>1494.900024414062</v>
+      </c>
+      <c r="C817" t="n">
+        <v>1494.900024414062</v>
+      </c>
+      <c r="D817" t="n">
+        <v>1442.050048828125</v>
+      </c>
+      <c r="E817" t="n">
+        <v>1463.599975585938</v>
+      </c>
+      <c r="F817" t="inlineStr"/>
+      <c r="G817" t="n">
+        <v>5127596</v>
+      </c>
+      <c r="H817" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I817" t="n">
+        <v>2</v>
+      </c>
+      <c r="J817" t="n">
+        <v>28</v>
+      </c>
+      <c r="K817" t="n">
+        <v>0</v>
+      </c>
+      <c r="L817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N817" t="n">
+        <v>9</v>
+      </c>
+      <c r="O817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R817" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B818" t="n">
+        <v>1457</v>
+      </c>
+      <c r="C818" t="n">
+        <v>1464.849975585938</v>
+      </c>
+      <c r="D818" t="n">
+        <v>1372.949951171875</v>
+      </c>
+      <c r="E818" t="n">
+        <v>1451.849975585938</v>
+      </c>
+      <c r="F818" t="inlineStr"/>
+      <c r="G818" t="n">
+        <v>1883178</v>
+      </c>
+      <c r="H818" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I818" t="n">
+        <v>3</v>
+      </c>
+      <c r="J818" t="n">
+        <v>3</v>
+      </c>
+      <c r="K818" t="n">
+        <v>0</v>
+      </c>
+      <c r="L818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N818" t="n">
+        <v>10</v>
+      </c>
+      <c r="O818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B819" t="n">
+        <v>1425.550048828125</v>
+      </c>
+      <c r="C819" t="n">
+        <v>1485.5</v>
+      </c>
+      <c r="D819" t="n">
+        <v>1397</v>
+      </c>
+      <c r="E819" t="n">
+        <v>1413.849975585938</v>
+      </c>
+      <c r="F819" t="inlineStr"/>
+      <c r="G819" t="n">
+        <v>1937109</v>
+      </c>
+      <c r="H819" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I819" t="n">
+        <v>3</v>
+      </c>
+      <c r="J819" t="n">
+        <v>4</v>
+      </c>
+      <c r="K819" t="n">
+        <v>0</v>
+      </c>
+      <c r="L819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N819" t="n">
+        <v>10</v>
+      </c>
+      <c r="O819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R819" t="inlineStr"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B820" t="n">
+        <v>1391</v>
+      </c>
+      <c r="C820" t="n">
+        <v>1421.300048828125</v>
+      </c>
+      <c r="D820" t="n">
+        <v>1364</v>
+      </c>
+      <c r="E820" t="n">
+        <v>1409.650024414062</v>
+      </c>
+      <c r="F820" t="inlineStr"/>
+      <c r="G820" t="n">
+        <v>3408547</v>
+      </c>
+      <c r="H820" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I820" t="n">
+        <v>3</v>
+      </c>
+      <c r="J820" t="n">
+        <v>5</v>
+      </c>
+      <c r="K820" t="n">
+        <v>0</v>
+      </c>
+      <c r="L820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N820" t="n">
+        <v>10</v>
+      </c>
+      <c r="O820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R820" t="inlineStr"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B821" t="n">
+        <v>1426.25</v>
+      </c>
+      <c r="C821" t="n">
+        <v>1441.25</v>
+      </c>
+      <c r="D821" t="n">
+        <v>1399.599975585938</v>
+      </c>
+      <c r="E821" t="n">
+        <v>1406.699951171875</v>
+      </c>
+      <c r="F821" t="inlineStr"/>
+      <c r="G821" t="n">
+        <v>1024878</v>
+      </c>
+      <c r="H821" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I821" t="n">
+        <v>3</v>
+      </c>
+      <c r="J821" t="n">
+        <v>6</v>
+      </c>
+      <c r="K821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N821" t="n">
+        <v>10</v>
+      </c>
+      <c r="O821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R821" t="inlineStr"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B822" t="n">
+        <v>1410</v>
+      </c>
+      <c r="C822" t="n">
+        <v>1433.949951171875</v>
+      </c>
+      <c r="D822" t="n">
+        <v>1389</v>
+      </c>
+      <c r="E822" t="n">
+        <v>1397.800048828125</v>
+      </c>
+      <c r="F822" t="inlineStr"/>
+      <c r="G822" t="n">
+        <v>906883</v>
+      </c>
+      <c r="H822" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I822" t="n">
+        <v>3</v>
+      </c>
+      <c r="J822" t="n">
+        <v>7</v>
+      </c>
+      <c r="K822" t="n">
+        <v>0</v>
+      </c>
+      <c r="L822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N822" t="n">
+        <v>10</v>
+      </c>
+      <c r="O822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R822" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R822"/>
+  <dimension ref="A1:R831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45077,7 +45077,9 @@
       <c r="Q798" t="n">
         <v>0</v>
       </c>
-      <c r="R798" t="inlineStr"/>
+      <c r="R798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
@@ -45238,7 +45240,7 @@
         <v>0</v>
       </c>
       <c r="R801" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802">
@@ -45292,7 +45294,7 @@
         <v>0</v>
       </c>
       <c r="R802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803">
@@ -45939,7 +45941,9 @@
       <c r="Q814" t="n">
         <v>0</v>
       </c>
-      <c r="R814" t="inlineStr"/>
+      <c r="R814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
@@ -45991,7 +45995,9 @@
       <c r="Q815" t="n">
         <v>0</v>
       </c>
-      <c r="R815" t="inlineStr"/>
+      <c r="R815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
@@ -46043,7 +46049,9 @@
       <c r="Q816" t="n">
         <v>0</v>
       </c>
-      <c r="R816" t="inlineStr"/>
+      <c r="R816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
@@ -46095,7 +46103,9 @@
       <c r="Q817" t="n">
         <v>0</v>
       </c>
-      <c r="R817" t="inlineStr"/>
+      <c r="R817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
@@ -46147,7 +46157,9 @@
       <c r="Q818" t="n">
         <v>0</v>
       </c>
-      <c r="R818" t="inlineStr"/>
+      <c r="R818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
@@ -46199,7 +46211,9 @@
       <c r="Q819" t="n">
         <v>0</v>
       </c>
-      <c r="R819" t="inlineStr"/>
+      <c r="R819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
@@ -46251,7 +46265,9 @@
       <c r="Q820" t="n">
         <v>0</v>
       </c>
-      <c r="R820" t="inlineStr"/>
+      <c r="R820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
@@ -46303,7 +46319,9 @@
       <c r="Q821" t="n">
         <v>0</v>
       </c>
-      <c r="R821" t="inlineStr"/>
+      <c r="R821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
@@ -46355,7 +46373,477 @@
       <c r="Q822" t="n">
         <v>0</v>
       </c>
-      <c r="R822" t="inlineStr"/>
+      <c r="R822" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B823" t="n">
+        <v>1393.5</v>
+      </c>
+      <c r="C823" t="n">
+        <v>1448</v>
+      </c>
+      <c r="D823" t="n">
+        <v>1386.25</v>
+      </c>
+      <c r="E823" t="n">
+        <v>1425.400024414062</v>
+      </c>
+      <c r="F823" t="inlineStr"/>
+      <c r="G823" t="n">
+        <v>1852710</v>
+      </c>
+      <c r="H823" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I823" t="n">
+        <v>3</v>
+      </c>
+      <c r="J823" t="n">
+        <v>10</v>
+      </c>
+      <c r="K823" t="n">
+        <v>0</v>
+      </c>
+      <c r="L823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N823" t="n">
+        <v>11</v>
+      </c>
+      <c r="O823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B824" t="n">
+        <v>1411</v>
+      </c>
+      <c r="C824" t="n">
+        <v>1483.25</v>
+      </c>
+      <c r="D824" t="n">
+        <v>1405.300048828125</v>
+      </c>
+      <c r="E824" t="n">
+        <v>1468.949951171875</v>
+      </c>
+      <c r="F824" t="inlineStr"/>
+      <c r="G824" t="n">
+        <v>1276914</v>
+      </c>
+      <c r="H824" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I824" t="n">
+        <v>3</v>
+      </c>
+      <c r="J824" t="n">
+        <v>11</v>
+      </c>
+      <c r="K824" t="n">
+        <v>0</v>
+      </c>
+      <c r="L824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N824" t="n">
+        <v>11</v>
+      </c>
+      <c r="O824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B825" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C825" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D825" t="n">
+        <v>1336.199951171875</v>
+      </c>
+      <c r="E825" t="n">
+        <v>1405.699951171875</v>
+      </c>
+      <c r="F825" t="inlineStr"/>
+      <c r="G825" t="n">
+        <v>4617751</v>
+      </c>
+      <c r="H825" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I825" t="n">
+        <v>3</v>
+      </c>
+      <c r="J825" t="n">
+        <v>12</v>
+      </c>
+      <c r="K825" t="n">
+        <v>0</v>
+      </c>
+      <c r="L825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N825" t="n">
+        <v>11</v>
+      </c>
+      <c r="O825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B826" t="n">
+        <v>1419.699951171875</v>
+      </c>
+      <c r="C826" t="n">
+        <v>1420</v>
+      </c>
+      <c r="D826" t="n">
+        <v>1320</v>
+      </c>
+      <c r="E826" t="n">
+        <v>1331.900024414062</v>
+      </c>
+      <c r="F826" t="inlineStr"/>
+      <c r="G826" t="n">
+        <v>6227774</v>
+      </c>
+      <c r="H826" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I826" t="n">
+        <v>3</v>
+      </c>
+      <c r="J826" t="n">
+        <v>13</v>
+      </c>
+      <c r="K826" t="n">
+        <v>0</v>
+      </c>
+      <c r="L826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N826" t="n">
+        <v>11</v>
+      </c>
+      <c r="O826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B827" t="n">
+        <v>1325.300048828125</v>
+      </c>
+      <c r="C827" t="n">
+        <v>1366</v>
+      </c>
+      <c r="D827" t="n">
+        <v>1311.349975585938</v>
+      </c>
+      <c r="E827" t="n">
+        <v>1354.800048828125</v>
+      </c>
+      <c r="F827" t="inlineStr"/>
+      <c r="G827" t="n">
+        <v>3906003</v>
+      </c>
+      <c r="H827" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I827" t="n">
+        <v>3</v>
+      </c>
+      <c r="J827" t="n">
+        <v>17</v>
+      </c>
+      <c r="K827" t="n">
+        <v>0</v>
+      </c>
+      <c r="L827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N827" t="n">
+        <v>12</v>
+      </c>
+      <c r="O827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B828" t="n">
+        <v>1354.800048828125</v>
+      </c>
+      <c r="C828" t="n">
+        <v>1354.800048828125</v>
+      </c>
+      <c r="D828" t="n">
+        <v>1354.800048828125</v>
+      </c>
+      <c r="E828" t="n">
+        <v>1354.800048828125</v>
+      </c>
+      <c r="F828" t="inlineStr"/>
+      <c r="G828" t="n">
+        <v>0</v>
+      </c>
+      <c r="H828" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I828" t="n">
+        <v>3</v>
+      </c>
+      <c r="J828" t="n">
+        <v>18</v>
+      </c>
+      <c r="K828" t="n">
+        <v>0</v>
+      </c>
+      <c r="L828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N828" t="n">
+        <v>12</v>
+      </c>
+      <c r="O828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B829" t="n">
+        <v>1454</v>
+      </c>
+      <c r="C829" t="n">
+        <v>1561.900024414062</v>
+      </c>
+      <c r="D829" t="n">
+        <v>1451.099975585938</v>
+      </c>
+      <c r="E829" t="n">
+        <v>1555.75</v>
+      </c>
+      <c r="F829" t="inlineStr"/>
+      <c r="G829" t="n">
+        <v>3357370</v>
+      </c>
+      <c r="H829" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I829" t="n">
+        <v>3</v>
+      </c>
+      <c r="J829" t="n">
+        <v>19</v>
+      </c>
+      <c r="K829" t="n">
+        <v>0</v>
+      </c>
+      <c r="L829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N829" t="n">
+        <v>12</v>
+      </c>
+      <c r="O829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B830" t="n">
+        <v>1552</v>
+      </c>
+      <c r="C830" t="n">
+        <v>1586.050048828125</v>
+      </c>
+      <c r="D830" t="n">
+        <v>1538.099975585938</v>
+      </c>
+      <c r="E830" t="n">
+        <v>1559.199951171875</v>
+      </c>
+      <c r="F830" t="inlineStr"/>
+      <c r="G830" t="n">
+        <v>2487897</v>
+      </c>
+      <c r="H830" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I830" t="n">
+        <v>3</v>
+      </c>
+      <c r="J830" t="n">
+        <v>20</v>
+      </c>
+      <c r="K830" t="n">
+        <v>0</v>
+      </c>
+      <c r="L830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N830" t="n">
+        <v>12</v>
+      </c>
+      <c r="O830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B831" t="n">
+        <v>1551.150024414062</v>
+      </c>
+      <c r="C831" t="n">
+        <v>1608.400024414062</v>
+      </c>
+      <c r="D831" t="n">
+        <v>1533.099975585938</v>
+      </c>
+      <c r="E831" t="n">
+        <v>1603</v>
+      </c>
+      <c r="F831" t="inlineStr"/>
+      <c r="G831" t="n">
+        <v>2427778</v>
+      </c>
+      <c r="H831" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I831" t="n">
+        <v>3</v>
+      </c>
+      <c r="J831" t="n">
+        <v>21</v>
+      </c>
+      <c r="K831" t="n">
+        <v>0</v>
+      </c>
+      <c r="L831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N831" t="n">
+        <v>12</v>
+      </c>
+      <c r="O831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R831" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R831"/>
+  <dimension ref="A1:R840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46427,7 +46427,9 @@
       <c r="Q823" t="n">
         <v>0</v>
       </c>
-      <c r="R823" t="inlineStr"/>
+      <c r="R823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
@@ -46479,7 +46481,9 @@
       <c r="Q824" t="n">
         <v>0</v>
       </c>
-      <c r="R824" t="inlineStr"/>
+      <c r="R824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
@@ -46531,7 +46535,9 @@
       <c r="Q825" t="n">
         <v>0</v>
       </c>
-      <c r="R825" t="inlineStr"/>
+      <c r="R825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
@@ -46583,7 +46589,9 @@
       <c r="Q826" t="n">
         <v>0</v>
       </c>
-      <c r="R826" t="inlineStr"/>
+      <c r="R826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
@@ -46627,7 +46635,7 @@
         <v>12</v>
       </c>
       <c r="O827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P827" t="n">
         <v>0</v>
@@ -46635,7 +46643,9 @@
       <c r="Q827" t="n">
         <v>0</v>
       </c>
-      <c r="R827" t="inlineStr"/>
+      <c r="R827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
@@ -46687,7 +46697,9 @@
       <c r="Q828" t="n">
         <v>0</v>
       </c>
-      <c r="R828" t="inlineStr"/>
+      <c r="R828" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
@@ -46739,7 +46751,9 @@
       <c r="Q829" t="n">
         <v>0</v>
       </c>
-      <c r="R829" t="inlineStr"/>
+      <c r="R829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
@@ -46791,7 +46805,9 @@
       <c r="Q830" t="n">
         <v>0</v>
       </c>
-      <c r="R830" t="inlineStr"/>
+      <c r="R830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
@@ -46843,7 +46859,477 @@
       <c r="Q831" t="n">
         <v>0</v>
       </c>
-      <c r="R831" t="inlineStr"/>
+      <c r="R831" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B832" t="n">
+        <v>1603</v>
+      </c>
+      <c r="C832" t="n">
+        <v>1698</v>
+      </c>
+      <c r="D832" t="n">
+        <v>1603</v>
+      </c>
+      <c r="E832" t="n">
+        <v>1677.550048828125</v>
+      </c>
+      <c r="F832" t="inlineStr"/>
+      <c r="G832" t="n">
+        <v>2791314</v>
+      </c>
+      <c r="H832" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I832" t="n">
+        <v>3</v>
+      </c>
+      <c r="J832" t="n">
+        <v>24</v>
+      </c>
+      <c r="K832" t="n">
+        <v>0</v>
+      </c>
+      <c r="L832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N832" t="n">
+        <v>13</v>
+      </c>
+      <c r="O832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B833" t="n">
+        <v>1672.050048828125</v>
+      </c>
+      <c r="C833" t="n">
+        <v>1687.800048828125</v>
+      </c>
+      <c r="D833" t="n">
+        <v>1592.050048828125</v>
+      </c>
+      <c r="E833" t="n">
+        <v>1609.849975585938</v>
+      </c>
+      <c r="F833" t="inlineStr"/>
+      <c r="G833" t="n">
+        <v>1718600</v>
+      </c>
+      <c r="H833" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I833" t="n">
+        <v>3</v>
+      </c>
+      <c r="J833" t="n">
+        <v>25</v>
+      </c>
+      <c r="K833" t="n">
+        <v>0</v>
+      </c>
+      <c r="L833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N833" t="n">
+        <v>13</v>
+      </c>
+      <c r="O833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B834" t="n">
+        <v>1618</v>
+      </c>
+      <c r="C834" t="n">
+        <v>1649</v>
+      </c>
+      <c r="D834" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E834" t="n">
+        <v>1611.150024414062</v>
+      </c>
+      <c r="F834" t="inlineStr"/>
+      <c r="G834" t="n">
+        <v>926644</v>
+      </c>
+      <c r="H834" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I834" t="n">
+        <v>3</v>
+      </c>
+      <c r="J834" t="n">
+        <v>26</v>
+      </c>
+      <c r="K834" t="n">
+        <v>0</v>
+      </c>
+      <c r="L834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N834" t="n">
+        <v>13</v>
+      </c>
+      <c r="O834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B835" t="n">
+        <v>1614.75</v>
+      </c>
+      <c r="C835" t="n">
+        <v>1665</v>
+      </c>
+      <c r="D835" t="n">
+        <v>1614.050048828125</v>
+      </c>
+      <c r="E835" t="n">
+        <v>1647.150024414062</v>
+      </c>
+      <c r="F835" t="inlineStr"/>
+      <c r="G835" t="n">
+        <v>2132609</v>
+      </c>
+      <c r="H835" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I835" t="n">
+        <v>3</v>
+      </c>
+      <c r="J835" t="n">
+        <v>27</v>
+      </c>
+      <c r="K835" t="n">
+        <v>0</v>
+      </c>
+      <c r="L835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N835" t="n">
+        <v>13</v>
+      </c>
+      <c r="O835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B836" t="n">
+        <v>1663</v>
+      </c>
+      <c r="C836" t="n">
+        <v>1672</v>
+      </c>
+      <c r="D836" t="n">
+        <v>1571</v>
+      </c>
+      <c r="E836" t="n">
+        <v>1589.75</v>
+      </c>
+      <c r="F836" t="inlineStr"/>
+      <c r="G836" t="n">
+        <v>1314744</v>
+      </c>
+      <c r="H836" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I836" t="n">
+        <v>3</v>
+      </c>
+      <c r="J836" t="n">
+        <v>28</v>
+      </c>
+      <c r="K836" t="n">
+        <v>0</v>
+      </c>
+      <c r="L836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N836" t="n">
+        <v>13</v>
+      </c>
+      <c r="O836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B837" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C837" t="n">
+        <v>1601.349975585938</v>
+      </c>
+      <c r="D837" t="n">
+        <v>1505.349975585938</v>
+      </c>
+      <c r="E837" t="n">
+        <v>1514.599975585938</v>
+      </c>
+      <c r="F837" t="inlineStr"/>
+      <c r="G837" t="n">
+        <v>1063741</v>
+      </c>
+      <c r="H837" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I837" t="n">
+        <v>4</v>
+      </c>
+      <c r="J837" t="n">
+        <v>1</v>
+      </c>
+      <c r="K837" t="n">
+        <v>0</v>
+      </c>
+      <c r="L837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N837" t="n">
+        <v>14</v>
+      </c>
+      <c r="O837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B838" t="n">
+        <v>1520.550048828125</v>
+      </c>
+      <c r="C838" t="n">
+        <v>1587.650024414062</v>
+      </c>
+      <c r="D838" t="n">
+        <v>1519.050048828125</v>
+      </c>
+      <c r="E838" t="n">
+        <v>1581.75</v>
+      </c>
+      <c r="F838" t="inlineStr"/>
+      <c r="G838" t="n">
+        <v>1734103</v>
+      </c>
+      <c r="H838" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I838" t="n">
+        <v>4</v>
+      </c>
+      <c r="J838" t="n">
+        <v>2</v>
+      </c>
+      <c r="K838" t="n">
+        <v>0</v>
+      </c>
+      <c r="L838" t="n">
+        <v>0</v>
+      </c>
+      <c r="M838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N838" t="n">
+        <v>14</v>
+      </c>
+      <c r="O838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B839" t="n">
+        <v>1565</v>
+      </c>
+      <c r="C839" t="n">
+        <v>1601.699951171875</v>
+      </c>
+      <c r="D839" t="n">
+        <v>1551.900024414062</v>
+      </c>
+      <c r="E839" t="n">
+        <v>1566.300048828125</v>
+      </c>
+      <c r="F839" t="inlineStr"/>
+      <c r="G839" t="n">
+        <v>1140135</v>
+      </c>
+      <c r="H839" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I839" t="n">
+        <v>4</v>
+      </c>
+      <c r="J839" t="n">
+        <v>3</v>
+      </c>
+      <c r="K839" t="n">
+        <v>0</v>
+      </c>
+      <c r="L839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N839" t="n">
+        <v>14</v>
+      </c>
+      <c r="O839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q839" t="n">
+        <v>0</v>
+      </c>
+      <c r="R839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B840" t="n">
+        <v>1566.150024414062</v>
+      </c>
+      <c r="C840" t="n">
+        <v>1566.300048828125</v>
+      </c>
+      <c r="D840" t="n">
+        <v>1493.199951171875</v>
+      </c>
+      <c r="E840" t="n">
+        <v>1504.199951171875</v>
+      </c>
+      <c r="F840" t="inlineStr"/>
+      <c r="G840" t="n">
+        <v>698179</v>
+      </c>
+      <c r="H840" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I840" t="n">
+        <v>4</v>
+      </c>
+      <c r="J840" t="n">
+        <v>4</v>
+      </c>
+      <c r="K840" t="n">
+        <v>0</v>
+      </c>
+      <c r="L840" t="n">
+        <v>0</v>
+      </c>
+      <c r="M840" t="n">
+        <v>0</v>
+      </c>
+      <c r="N840" t="n">
+        <v>14</v>
+      </c>
+      <c r="O840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q840" t="n">
+        <v>0</v>
+      </c>
+      <c r="R840" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R840"/>
+  <dimension ref="A1:R844"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46905,7 +46905,7 @@
         <v>13</v>
       </c>
       <c r="O832" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P832" t="n">
         <v>0</v>
@@ -46913,7 +46913,9 @@
       <c r="Q832" t="n">
         <v>0</v>
       </c>
-      <c r="R832" t="inlineStr"/>
+      <c r="R832" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
@@ -46965,7 +46967,9 @@
       <c r="Q833" t="n">
         <v>0</v>
       </c>
-      <c r="R833" t="inlineStr"/>
+      <c r="R833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
@@ -47017,7 +47021,9 @@
       <c r="Q834" t="n">
         <v>0</v>
       </c>
-      <c r="R834" t="inlineStr"/>
+      <c r="R834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
@@ -47069,7 +47075,9 @@
       <c r="Q835" t="n">
         <v>0</v>
       </c>
-      <c r="R835" t="inlineStr"/>
+      <c r="R835" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
@@ -47121,7 +47129,9 @@
       <c r="Q836" t="n">
         <v>0</v>
       </c>
-      <c r="R836" t="inlineStr"/>
+      <c r="R836" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
@@ -47173,7 +47183,9 @@
       <c r="Q837" t="n">
         <v>0</v>
       </c>
-      <c r="R837" t="inlineStr"/>
+      <c r="R837" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
@@ -47225,7 +47237,9 @@
       <c r="Q838" t="n">
         <v>0</v>
       </c>
-      <c r="R838" t="inlineStr"/>
+      <c r="R838" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
@@ -47277,7 +47291,9 @@
       <c r="Q839" t="n">
         <v>0</v>
       </c>
-      <c r="R839" t="inlineStr"/>
+      <c r="R839" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
@@ -47329,7 +47345,217 @@
       <c r="Q840" t="n">
         <v>0</v>
       </c>
-      <c r="R840" t="inlineStr"/>
+      <c r="R840" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B841" t="n">
+        <v>1381.900024414062</v>
+      </c>
+      <c r="C841" t="n">
+        <v>1477.449951171875</v>
+      </c>
+      <c r="D841" t="n">
+        <v>1381.900024414062</v>
+      </c>
+      <c r="E841" t="n">
+        <v>1445.650024414062</v>
+      </c>
+      <c r="F841" t="inlineStr"/>
+      <c r="G841" t="n">
+        <v>2333247</v>
+      </c>
+      <c r="H841" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I841" t="n">
+        <v>4</v>
+      </c>
+      <c r="J841" t="n">
+        <v>7</v>
+      </c>
+      <c r="K841" t="n">
+        <v>0</v>
+      </c>
+      <c r="L841" t="n">
+        <v>0</v>
+      </c>
+      <c r="M841" t="n">
+        <v>0</v>
+      </c>
+      <c r="N841" t="n">
+        <v>15</v>
+      </c>
+      <c r="O841" t="n">
+        <v>0</v>
+      </c>
+      <c r="P841" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q841" t="n">
+        <v>0</v>
+      </c>
+      <c r="R841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B842" t="n">
+        <v>1504</v>
+      </c>
+      <c r="C842" t="n">
+        <v>1551.699951171875</v>
+      </c>
+      <c r="D842" t="n">
+        <v>1483.550048828125</v>
+      </c>
+      <c r="E842" t="n">
+        <v>1531.949951171875</v>
+      </c>
+      <c r="F842" t="inlineStr"/>
+      <c r="G842" t="n">
+        <v>2919187</v>
+      </c>
+      <c r="H842" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I842" t="n">
+        <v>4</v>
+      </c>
+      <c r="J842" t="n">
+        <v>8</v>
+      </c>
+      <c r="K842" t="n">
+        <v>0</v>
+      </c>
+      <c r="L842" t="n">
+        <v>0</v>
+      </c>
+      <c r="M842" t="n">
+        <v>0</v>
+      </c>
+      <c r="N842" t="n">
+        <v>15</v>
+      </c>
+      <c r="O842" t="n">
+        <v>0</v>
+      </c>
+      <c r="P842" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q842" t="n">
+        <v>0</v>
+      </c>
+      <c r="R842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B843" t="n">
+        <v>1531.949951171875</v>
+      </c>
+      <c r="C843" t="n">
+        <v>1531.949951171875</v>
+      </c>
+      <c r="D843" t="n">
+        <v>1455</v>
+      </c>
+      <c r="E843" t="n">
+        <v>1469.150024414062</v>
+      </c>
+      <c r="F843" t="inlineStr"/>
+      <c r="G843" t="n">
+        <v>1655407</v>
+      </c>
+      <c r="H843" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I843" t="n">
+        <v>4</v>
+      </c>
+      <c r="J843" t="n">
+        <v>9</v>
+      </c>
+      <c r="K843" t="n">
+        <v>0</v>
+      </c>
+      <c r="L843" t="n">
+        <v>0</v>
+      </c>
+      <c r="M843" t="n">
+        <v>0</v>
+      </c>
+      <c r="N843" t="n">
+        <v>15</v>
+      </c>
+      <c r="O843" t="n">
+        <v>0</v>
+      </c>
+      <c r="P843" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q843" t="n">
+        <v>0</v>
+      </c>
+      <c r="R843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B844" t="n">
+        <v>1506.5</v>
+      </c>
+      <c r="C844" t="n">
+        <v>1542.599975585938</v>
+      </c>
+      <c r="D844" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E844" t="n">
+        <v>1533.150024414062</v>
+      </c>
+      <c r="F844" t="inlineStr"/>
+      <c r="G844" t="n">
+        <v>1037291</v>
+      </c>
+      <c r="H844" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I844" t="n">
+        <v>4</v>
+      </c>
+      <c r="J844" t="n">
+        <v>11</v>
+      </c>
+      <c r="K844" t="n">
+        <v>0</v>
+      </c>
+      <c r="L844" t="n">
+        <v>0</v>
+      </c>
+      <c r="M844" t="n">
+        <v>0</v>
+      </c>
+      <c r="N844" t="n">
+        <v>15</v>
+      </c>
+      <c r="O844" t="n">
+        <v>0</v>
+      </c>
+      <c r="P844" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q844" t="n">
+        <v>0</v>
+      </c>
+      <c r="R844" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R844"/>
+  <dimension ref="A1:R847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47399,7 +47399,9 @@
       <c r="Q841" t="n">
         <v>0</v>
       </c>
-      <c r="R841" t="inlineStr"/>
+      <c r="R841" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
@@ -47451,7 +47453,9 @@
       <c r="Q842" t="n">
         <v>0</v>
       </c>
-      <c r="R842" t="inlineStr"/>
+      <c r="R842" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
@@ -47503,7 +47507,9 @@
       <c r="Q843" t="n">
         <v>0</v>
       </c>
-      <c r="R843" t="inlineStr"/>
+      <c r="R843" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
@@ -47555,7 +47561,165 @@
       <c r="Q844" t="n">
         <v>0</v>
       </c>
-      <c r="R844" t="inlineStr"/>
+      <c r="R844" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B845" t="n">
+        <v>1567.599975585938</v>
+      </c>
+      <c r="C845" t="n">
+        <v>1625</v>
+      </c>
+      <c r="D845" t="n">
+        <v>1546.599975585938</v>
+      </c>
+      <c r="E845" t="n">
+        <v>1619.599975585938</v>
+      </c>
+      <c r="F845" t="inlineStr"/>
+      <c r="G845" t="n">
+        <v>1506859</v>
+      </c>
+      <c r="H845" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I845" t="n">
+        <v>4</v>
+      </c>
+      <c r="J845" t="n">
+        <v>15</v>
+      </c>
+      <c r="K845" t="n">
+        <v>0</v>
+      </c>
+      <c r="L845" t="n">
+        <v>0</v>
+      </c>
+      <c r="M845" t="n">
+        <v>0</v>
+      </c>
+      <c r="N845" t="n">
+        <v>16</v>
+      </c>
+      <c r="O845" t="n">
+        <v>0</v>
+      </c>
+      <c r="P845" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q845" t="n">
+        <v>0</v>
+      </c>
+      <c r="R845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B846" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C846" t="n">
+        <v>1688</v>
+      </c>
+      <c r="D846" t="n">
+        <v>1616.5</v>
+      </c>
+      <c r="E846" t="n">
+        <v>1649.599975585938</v>
+      </c>
+      <c r="F846" t="inlineStr"/>
+      <c r="G846" t="n">
+        <v>2449395</v>
+      </c>
+      <c r="H846" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I846" t="n">
+        <v>4</v>
+      </c>
+      <c r="J846" t="n">
+        <v>16</v>
+      </c>
+      <c r="K846" t="n">
+        <v>0</v>
+      </c>
+      <c r="L846" t="n">
+        <v>0</v>
+      </c>
+      <c r="M846" t="n">
+        <v>0</v>
+      </c>
+      <c r="N846" t="n">
+        <v>16</v>
+      </c>
+      <c r="O846" t="n">
+        <v>0</v>
+      </c>
+      <c r="P846" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q846" t="n">
+        <v>0</v>
+      </c>
+      <c r="R846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B847" t="n">
+        <v>1649.599975585938</v>
+      </c>
+      <c r="C847" t="n">
+        <v>1674.800048828125</v>
+      </c>
+      <c r="D847" t="n">
+        <v>1632.800048828125</v>
+      </c>
+      <c r="E847" t="n">
+        <v>1653</v>
+      </c>
+      <c r="F847" t="inlineStr"/>
+      <c r="G847" t="n">
+        <v>1425039</v>
+      </c>
+      <c r="H847" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I847" t="n">
+        <v>4</v>
+      </c>
+      <c r="J847" t="n">
+        <v>17</v>
+      </c>
+      <c r="K847" t="n">
+        <v>0</v>
+      </c>
+      <c r="L847" t="n">
+        <v>0</v>
+      </c>
+      <c r="M847" t="n">
+        <v>0</v>
+      </c>
+      <c r="N847" t="n">
+        <v>16</v>
+      </c>
+      <c r="O847" t="n">
+        <v>0</v>
+      </c>
+      <c r="P847" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q847" t="n">
+        <v>0</v>
+      </c>
+      <c r="R847" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R847"/>
+  <dimension ref="A1:R856"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47391,7 +47391,7 @@
         <v>15</v>
       </c>
       <c r="O841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P841" t="n">
         <v>0</v>
@@ -47615,7 +47615,9 @@
       <c r="Q845" t="n">
         <v>0</v>
       </c>
-      <c r="R845" t="inlineStr"/>
+      <c r="R845" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
@@ -47667,7 +47669,9 @@
       <c r="Q846" t="n">
         <v>0</v>
       </c>
-      <c r="R846" t="inlineStr"/>
+      <c r="R846" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
@@ -47719,7 +47723,477 @@
       <c r="Q847" t="n">
         <v>0</v>
       </c>
-      <c r="R847" t="inlineStr"/>
+      <c r="R847" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B848" t="n">
+        <v>1686</v>
+      </c>
+      <c r="C848" t="n">
+        <v>1709.800048828125</v>
+      </c>
+      <c r="D848" t="n">
+        <v>1653.099975585938</v>
+      </c>
+      <c r="E848" t="n">
+        <v>1685.699951171875</v>
+      </c>
+      <c r="F848" t="inlineStr"/>
+      <c r="G848" t="n">
+        <v>1612702</v>
+      </c>
+      <c r="H848" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I848" t="n">
+        <v>4</v>
+      </c>
+      <c r="J848" t="n">
+        <v>21</v>
+      </c>
+      <c r="K848" t="n">
+        <v>0</v>
+      </c>
+      <c r="L848" t="n">
+        <v>0</v>
+      </c>
+      <c r="M848" t="n">
+        <v>0</v>
+      </c>
+      <c r="N848" t="n">
+        <v>17</v>
+      </c>
+      <c r="O848" t="n">
+        <v>0</v>
+      </c>
+      <c r="P848" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q848" t="n">
+        <v>0</v>
+      </c>
+      <c r="R848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B849" t="n">
+        <v>1686.699951171875</v>
+      </c>
+      <c r="C849" t="n">
+        <v>1708.699951171875</v>
+      </c>
+      <c r="D849" t="n">
+        <v>1646.099975585938</v>
+      </c>
+      <c r="E849" t="n">
+        <v>1694</v>
+      </c>
+      <c r="F849" t="inlineStr"/>
+      <c r="G849" t="n">
+        <v>1273318</v>
+      </c>
+      <c r="H849" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I849" t="n">
+        <v>4</v>
+      </c>
+      <c r="J849" t="n">
+        <v>22</v>
+      </c>
+      <c r="K849" t="n">
+        <v>0</v>
+      </c>
+      <c r="L849" t="n">
+        <v>0</v>
+      </c>
+      <c r="M849" t="n">
+        <v>0</v>
+      </c>
+      <c r="N849" t="n">
+        <v>17</v>
+      </c>
+      <c r="O849" t="n">
+        <v>0</v>
+      </c>
+      <c r="P849" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q849" t="n">
+        <v>0</v>
+      </c>
+      <c r="R849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B850" t="n">
+        <v>1703.5</v>
+      </c>
+      <c r="C850" t="n">
+        <v>1703.5</v>
+      </c>
+      <c r="D850" t="n">
+        <v>1628</v>
+      </c>
+      <c r="E850" t="n">
+        <v>1664.800048828125</v>
+      </c>
+      <c r="F850" t="inlineStr"/>
+      <c r="G850" t="n">
+        <v>2468780</v>
+      </c>
+      <c r="H850" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I850" t="n">
+        <v>4</v>
+      </c>
+      <c r="J850" t="n">
+        <v>23</v>
+      </c>
+      <c r="K850" t="n">
+        <v>0</v>
+      </c>
+      <c r="L850" t="n">
+        <v>0</v>
+      </c>
+      <c r="M850" t="n">
+        <v>0</v>
+      </c>
+      <c r="N850" t="n">
+        <v>17</v>
+      </c>
+      <c r="O850" t="n">
+        <v>0</v>
+      </c>
+      <c r="P850" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q850" t="n">
+        <v>0</v>
+      </c>
+      <c r="R850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B851" t="n">
+        <v>1672</v>
+      </c>
+      <c r="C851" t="n">
+        <v>1678</v>
+      </c>
+      <c r="D851" t="n">
+        <v>1644.800048828125</v>
+      </c>
+      <c r="E851" t="n">
+        <v>1667.199951171875</v>
+      </c>
+      <c r="F851" t="inlineStr"/>
+      <c r="G851" t="n">
+        <v>1020376</v>
+      </c>
+      <c r="H851" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I851" t="n">
+        <v>4</v>
+      </c>
+      <c r="J851" t="n">
+        <v>24</v>
+      </c>
+      <c r="K851" t="n">
+        <v>0</v>
+      </c>
+      <c r="L851" t="n">
+        <v>0</v>
+      </c>
+      <c r="M851" t="n">
+        <v>0</v>
+      </c>
+      <c r="N851" t="n">
+        <v>17</v>
+      </c>
+      <c r="O851" t="n">
+        <v>0</v>
+      </c>
+      <c r="P851" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q851" t="n">
+        <v>0</v>
+      </c>
+      <c r="R851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B852" t="n">
+        <v>1670</v>
+      </c>
+      <c r="C852" t="n">
+        <v>1673.400024414062</v>
+      </c>
+      <c r="D852" t="n">
+        <v>1578.099975585938</v>
+      </c>
+      <c r="E852" t="n">
+        <v>1594.199951171875</v>
+      </c>
+      <c r="F852" t="inlineStr"/>
+      <c r="G852" t="n">
+        <v>1264004</v>
+      </c>
+      <c r="H852" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I852" t="n">
+        <v>4</v>
+      </c>
+      <c r="J852" t="n">
+        <v>25</v>
+      </c>
+      <c r="K852" t="n">
+        <v>0</v>
+      </c>
+      <c r="L852" t="n">
+        <v>0</v>
+      </c>
+      <c r="M852" t="n">
+        <v>0</v>
+      </c>
+      <c r="N852" t="n">
+        <v>17</v>
+      </c>
+      <c r="O852" t="n">
+        <v>0</v>
+      </c>
+      <c r="P852" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q852" t="n">
+        <v>0</v>
+      </c>
+      <c r="R852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B853" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C853" t="n">
+        <v>1633.400024414062</v>
+      </c>
+      <c r="D853" t="n">
+        <v>1587.599975585938</v>
+      </c>
+      <c r="E853" t="n">
+        <v>1617.300048828125</v>
+      </c>
+      <c r="F853" t="inlineStr"/>
+      <c r="G853" t="n">
+        <v>1362947</v>
+      </c>
+      <c r="H853" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I853" t="n">
+        <v>4</v>
+      </c>
+      <c r="J853" t="n">
+        <v>28</v>
+      </c>
+      <c r="K853" t="n">
+        <v>0</v>
+      </c>
+      <c r="L853" t="n">
+        <v>0</v>
+      </c>
+      <c r="M853" t="n">
+        <v>0</v>
+      </c>
+      <c r="N853" t="n">
+        <v>18</v>
+      </c>
+      <c r="O853" t="n">
+        <v>0</v>
+      </c>
+      <c r="P853" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q853" t="n">
+        <v>0</v>
+      </c>
+      <c r="R853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B854" t="n">
+        <v>1624</v>
+      </c>
+      <c r="C854" t="n">
+        <v>1636.800048828125</v>
+      </c>
+      <c r="D854" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E854" t="n">
+        <v>1600.599975585938</v>
+      </c>
+      <c r="F854" t="inlineStr"/>
+      <c r="G854" t="n">
+        <v>1052830</v>
+      </c>
+      <c r="H854" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I854" t="n">
+        <v>4</v>
+      </c>
+      <c r="J854" t="n">
+        <v>29</v>
+      </c>
+      <c r="K854" t="n">
+        <v>0</v>
+      </c>
+      <c r="L854" t="n">
+        <v>0</v>
+      </c>
+      <c r="M854" t="n">
+        <v>0</v>
+      </c>
+      <c r="N854" t="n">
+        <v>18</v>
+      </c>
+      <c r="O854" t="n">
+        <v>0</v>
+      </c>
+      <c r="P854" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q854" t="n">
+        <v>0</v>
+      </c>
+      <c r="R854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B855" t="n">
+        <v>1600.599975585938</v>
+      </c>
+      <c r="C855" t="n">
+        <v>1653.199951171875</v>
+      </c>
+      <c r="D855" t="n">
+        <v>1583</v>
+      </c>
+      <c r="E855" t="n">
+        <v>1625.300048828125</v>
+      </c>
+      <c r="F855" t="inlineStr"/>
+      <c r="G855" t="n">
+        <v>1320799</v>
+      </c>
+      <c r="H855" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I855" t="n">
+        <v>4</v>
+      </c>
+      <c r="J855" t="n">
+        <v>30</v>
+      </c>
+      <c r="K855" t="n">
+        <v>0</v>
+      </c>
+      <c r="L855" t="n">
+        <v>0</v>
+      </c>
+      <c r="M855" t="n">
+        <v>0</v>
+      </c>
+      <c r="N855" t="n">
+        <v>18</v>
+      </c>
+      <c r="O855" t="n">
+        <v>0</v>
+      </c>
+      <c r="P855" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q855" t="n">
+        <v>0</v>
+      </c>
+      <c r="R855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B856" t="n">
+        <v>1615</v>
+      </c>
+      <c r="C856" t="n">
+        <v>1651.5</v>
+      </c>
+      <c r="D856" t="n">
+        <v>1585.5</v>
+      </c>
+      <c r="E856" t="n">
+        <v>1593.5</v>
+      </c>
+      <c r="F856" t="inlineStr"/>
+      <c r="G856" t="n">
+        <v>930149</v>
+      </c>
+      <c r="H856" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I856" t="n">
+        <v>5</v>
+      </c>
+      <c r="J856" t="n">
+        <v>2</v>
+      </c>
+      <c r="K856" t="n">
+        <v>0</v>
+      </c>
+      <c r="L856" t="n">
+        <v>0</v>
+      </c>
+      <c r="M856" t="n">
+        <v>0</v>
+      </c>
+      <c r="N856" t="n">
+        <v>18</v>
+      </c>
+      <c r="O856" t="n">
+        <v>0</v>
+      </c>
+      <c r="P856" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q856" t="n">
+        <v>0</v>
+      </c>
+      <c r="R856" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/POLICYBZR.NS.xlsx
+++ b/stock_historical_data/1d/POLICYBZR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R856"/>
+  <dimension ref="A1:R866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47769,7 +47769,7 @@
         <v>17</v>
       </c>
       <c r="O848" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P848" t="n">
         <v>0</v>
@@ -47777,7 +47777,9 @@
       <c r="Q848" t="n">
         <v>0</v>
       </c>
-      <c r="R848" t="inlineStr"/>
+      <c r="R848" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
@@ -47829,7 +47831,9 @@
       <c r="Q849" t="n">
         <v>0</v>
       </c>
-      <c r="R849" t="inlineStr"/>
+      <c r="R849" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
@@ -47881,7 +47885,9 @@
       <c r="Q850" t="n">
         <v>0</v>
       </c>
-      <c r="R850" t="inlineStr"/>
+      <c r="R850" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
@@ -47933,7 +47939,9 @@
       <c r="Q851" t="n">
         <v>0</v>
       </c>
-      <c r="R851" t="inlineStr"/>
+      <c r="R851" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
@@ -47985,7 +47993,9 @@
       <c r="Q852" t="n">
         <v>0</v>
       </c>
-      <c r="R852" t="inlineStr"/>
+      <c r="R852" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
@@ -48037,7 +48047,9 @@
       <c r="Q853" t="n">
         <v>0</v>
       </c>
-      <c r="R853" t="inlineStr"/>
+      <c r="R853" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
@@ -48089,7 +48101,9 @@
       <c r="Q854" t="n">
         <v>0</v>
       </c>
-      <c r="R854" t="inlineStr"/>
+      <c r="R854" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
@@ -48141,7 +48155,9 @@
       <c r="Q855" t="n">
         <v>0</v>
       </c>
-      <c r="R855" t="inlineStr"/>
+      <c r="R855" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
@@ -48193,7 +48209,529 @@
       <c r="Q856" t="n">
         <v>0</v>
       </c>
-      <c r="R856" t="inlineStr"/>
+      <c r="R856" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B857" t="n">
+        <v>1597</v>
+      </c>
+      <c r="C857" t="n">
+        <v>1676.5</v>
+      </c>
+      <c r="D857" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E857" t="n">
+        <v>1669.400024414062</v>
+      </c>
+      <c r="F857" t="inlineStr"/>
+      <c r="G857" t="n">
+        <v>672334</v>
+      </c>
+      <c r="H857" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I857" t="n">
+        <v>5</v>
+      </c>
+      <c r="J857" t="n">
+        <v>5</v>
+      </c>
+      <c r="K857" t="n">
+        <v>0</v>
+      </c>
+      <c r="L857" t="n">
+        <v>0</v>
+      </c>
+      <c r="M857" t="n">
+        <v>0</v>
+      </c>
+      <c r="N857" t="n">
+        <v>19</v>
+      </c>
+      <c r="O857" t="n">
+        <v>0</v>
+      </c>
+      <c r="P857" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q857" t="n">
+        <v>0</v>
+      </c>
+      <c r="R857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B858" t="n">
+        <v>1669</v>
+      </c>
+      <c r="C858" t="n">
+        <v>1673.800048828125</v>
+      </c>
+      <c r="D858" t="n">
+        <v>1582.699951171875</v>
+      </c>
+      <c r="E858" t="n">
+        <v>1588.300048828125</v>
+      </c>
+      <c r="F858" t="inlineStr"/>
+      <c r="G858" t="n">
+        <v>644417</v>
+      </c>
+      <c r="H858" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I858" t="n">
+        <v>5</v>
+      </c>
+      <c r="J858" t="n">
+        <v>6</v>
+      </c>
+      <c r="K858" t="n">
+        <v>0</v>
+      </c>
+      <c r="L858" t="n">
+        <v>0</v>
+      </c>
+      <c r="M858" t="n">
+        <v>0</v>
+      </c>
+      <c r="N858" t="n">
+        <v>19</v>
+      </c>
+      <c r="O858" t="n">
+        <v>0</v>
+      </c>
+      <c r="P858" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q858" t="n">
+        <v>0</v>
+      </c>
+      <c r="R858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B859" t="n">
+        <v>1570.099975585938</v>
+      </c>
+      <c r="C859" t="n">
+        <v>1645</v>
+      </c>
+      <c r="D859" t="n">
+        <v>1558.400024414062</v>
+      </c>
+      <c r="E859" t="n">
+        <v>1640.199951171875</v>
+      </c>
+      <c r="F859" t="inlineStr"/>
+      <c r="G859" t="n">
+        <v>901838</v>
+      </c>
+      <c r="H859" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I859" t="n">
+        <v>5</v>
+      </c>
+      <c r="J859" t="n">
+        <v>7</v>
+      </c>
+      <c r="K859" t="n">
+        <v>0</v>
+      </c>
+      <c r="L859" t="n">
+        <v>0</v>
+      </c>
+      <c r="M859" t="n">
+        <v>0</v>
+      </c>
+      <c r="N859" t="n">
+        <v>19</v>
+      </c>
+      <c r="O859" t="n">
+        <v>0</v>
+      </c>
+      <c r="P859" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q859" t="n">
+        <v>0</v>
+      </c>
+      <c r="R859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B860" t="n">
+        <v>1632.099975585938</v>
+      </c>
+      <c r="C860" t="n">
+        <v>1683</v>
+      </c>
+      <c r="D860" t="n">
+        <v>1596.400024414062</v>
+      </c>
+      <c r="E860" t="n">
+        <v>1609.300048828125</v>
+      </c>
+      <c r="F860" t="inlineStr"/>
+      <c r="G860" t="n">
+        <v>850279</v>
+      </c>
+      <c r="H860" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I860" t="n">
+        <v>5</v>
+      </c>
+      <c r="J860" t="n">
+        <v>8</v>
+      </c>
+      <c r="K860" t="n">
+        <v>0</v>
+      </c>
+      <c r="L860" t="n">
+        <v>0</v>
+      </c>
+      <c r="M860" t="n">
+        <v>0</v>
+      </c>
+      <c r="N860" t="n">
+        <v>19</v>
+      </c>
+      <c r="O860" t="n">
+        <v>0</v>
+      </c>
+      <c r="P860" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q860" t="n">
+        <v>0</v>
+      </c>
+      <c r="R860" t="inlineStr"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B861" t="n">
+        <v>1574</v>
+      </c>
+      <c r="C861" t="n">
+        <v>1634.5</v>
+      </c>
+      <c r="D861" t="n">
+        <v>1574</v>
+      </c>
+      <c r="E861" t="n">
+        <v>1619.900024414062</v>
+      </c>
+      <c r="F861" t="inlineStr"/>
+      <c r="G861" t="n">
+        <v>1064721</v>
+      </c>
+      <c r="H861" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I861" t="n">
+        <v>5</v>
+      </c>
+      <c r="J861" t="n">
+        <v>9</v>
+      </c>
+      <c r="K861" t="n">
+        <v>0</v>
+      </c>
+      <c r="L861" t="n">
+        <v>0</v>
+      </c>
+      <c r="M861" t="n">
+        <v>0</v>
+      </c>
+      <c r="N861" t="n">
+        <v>19</v>
+      </c>
+      <c r="O861" t="n">
+        <v>0</v>
+      </c>
+      <c r="P861" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q861" t="n">
+        <v>0</v>
+      </c>
+      <c r="R861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B862" t="n">
+        <v>1651</v>
+      </c>
+      <c r="C862" t="n">
+        <v>1710</v>
+      </c>
+      <c r="D862" t="n">
+        <v>1645.300048828125</v>
+      </c>
+      <c r="E862" t="n">
+        <v>1698</v>
+      </c>
+      <c r="F862" t="inlineStr"/>
+      <c r="G862" t="n">
+        <v>1104697</v>
+      </c>
+      <c r="H862" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I862" t="n">
+        <v>5</v>
+      </c>
+      <c r="J862" t="n">
+        <v>12</v>
+      </c>
+      <c r="K862" t="n">
+        <v>0</v>
+      </c>
+      <c r="L862" t="n">
+        <v>0</v>
+      </c>
+      <c r="M862" t="n">
+        <v>0</v>
+      </c>
+      <c r="N862" t="n">
+        <v>20</v>
+      </c>
+      <c r="O862" t="n">
+        <v>0</v>
+      </c>
+      <c r="P862" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q862" t="n">
+        <v>0</v>
+      </c>
+      <c r="R862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B863" t="n">
+        <v>1696.900024414062</v>
+      </c>
+      <c r="C863" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D863" t="n">
+        <v>1656.800048828125</v>
+      </c>
+      <c r="E863" t="n">
+        <v>1714.300048828125</v>
+      </c>
+      <c r="F863" t="inlineStr"/>
+      <c r="G863" t="n">
+        <v>1466618</v>
+      </c>
+      <c r="H863" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I863" t="n">
+        <v>5</v>
+      </c>
+      <c r="J863" t="n">
+        <v>13</v>
+      </c>
+      <c r="K863" t="n">
+        <v>0</v>
+      </c>
+      <c r="L863" t="n">
+        <v>0</v>
+      </c>
+      <c r="M863" t="n">
+        <v>0</v>
+      </c>
+      <c r="N863" t="n">
+        <v>20</v>
+      </c>
+      <c r="O863" t="n">
+        <v>0</v>
+      </c>
+      <c r="P863" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q863" t="n">
+        <v>0</v>
+      </c>
+      <c r="R863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B864" t="n">
+        <v>1729</v>
+      </c>
+      <c r="C864" t="n">
+        <v>1761</v>
+      </c>
+      <c r="D864" t="n">
+        <v>1706.199951171875</v>
+      </c>
+      <c r="E864" t="n">
+        <v>1754.900024414062</v>
+      </c>
+      <c r="F864" t="inlineStr"/>
+      <c r="G864" t="n">
+        <v>1579196</v>
+      </c>
+      <c r="H864" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I864" t="n">
+        <v>5</v>
+      </c>
+      <c r="J864" t="n">
+        <v>14</v>
+      </c>
+      <c r="K864" t="n">
+        <v>0</v>
+      </c>
+      <c r="L864" t="n">
+        <v>0</v>
+      </c>
+      <c r="M864" t="n">
+        <v>0</v>
+      </c>
+      <c r="N864" t="n">
+        <v>20</v>
+      </c>
+      <c r="O864" t="n">
+        <v>0</v>
+      </c>
+      <c r="P864" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q864" t="n">
+        <v>0</v>
+      </c>
+      <c r="R864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B865" t="n">
+        <v>1759.099975585938</v>
+      </c>
+      <c r="C865" t="n">
+        <v>1786.5</v>
+      </c>
+      <c r="D865" t="n">
+        <v>1722</v>
+      </c>
+      <c r="E865" t="n">
+        <v>1777.699951171875</v>
+      </c>
+      <c r="F865" t="inlineStr"/>
+      <c r="G865" t="n">
+        <v>4042412</v>
+      </c>
+      <c r="H865" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I865" t="n">
+        <v>5</v>
+      </c>
+      <c r="J865" t="n">
+        <v>15</v>
+      </c>
+      <c r="K865" t="n">
+        <v>0</v>
+      </c>
+      <c r="L865" t="n">
+        <v>0</v>
+      </c>
+      <c r="M865" t="n">
+        <v>0</v>
+      </c>
+      <c r="N865" t="n">
+        <v>20</v>
+      </c>
+      <c r="O865" t="n">
+        <v>0</v>
+      </c>
+      <c r="P865" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q865" t="n">
+        <v>0</v>
+      </c>
+      <c r="R865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B866" t="n">
+        <v>1798.800048828125</v>
+      </c>
+      <c r="C866" t="n">
+        <v>1853.699951171875</v>
+      </c>
+      <c r="D866" t="n">
+        <v>1735.099975585938</v>
+      </c>
+      <c r="E866" t="n">
+        <v>1756.199951171875</v>
+      </c>
+      <c r="F866" t="inlineStr"/>
+      <c r="G866" t="n">
+        <v>4133820</v>
+      </c>
+      <c r="H866" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I866" t="n">
+        <v>5</v>
+      </c>
+      <c r="J866" t="n">
+        <v>16</v>
+      </c>
+      <c r="K866" t="n">
+        <v>0</v>
+      </c>
+      <c r="L866" t="n">
+        <v>0</v>
+      </c>
+      <c r="M866" t="n">
+        <v>0</v>
+      </c>
+      <c r="N866" t="n">
+        <v>20</v>
+      </c>
+      <c r="O866" t="n">
+        <v>0</v>
+      </c>
+      <c r="P866" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q866" t="n">
+        <v>0</v>
+      </c>
+      <c r="R866" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
